--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IS102"/>
+  <dimension ref="A1:IT102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1212,8 +1212,11 @@
       <c r="IR1" s="2" t="n">
         <v>10730</v>
       </c>
-      <c r="IS1" t="n">
+      <c r="IS1" s="2" t="n">
         <v>10737</v>
+      </c>
+      <c r="IT1" t="n">
+        <v>10757</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1975,8 +1978,11 @@
       <c r="IR2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IS2" t="n">
+      <c r="IS2" s="2" t="n">
         <v>2022</v>
+      </c>
+      <c r="IT2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="1">
@@ -2738,8 +2744,11 @@
       <c r="IR3" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IS3" t="n">
+      <c r="IS3" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="IT3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3501,7 +3510,10 @@
       <c r="IR4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS4" t="n">
+      <c r="IS4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IT4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4264,8 +4276,11 @@
       <c r="IR5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS5" t="n">
+      <c r="IS5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5027,8 +5042,11 @@
       <c r="IR6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="IS6" t="n">
+      <c r="IS6" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IT6" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5790,8 +5808,11 @@
       <c r="IR7" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IS7" t="n">
+      <c r="IS7" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="IT7" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6553,8 +6574,11 @@
       <c r="IR8" s="2" t="n">
         <v>-5</v>
       </c>
-      <c r="IS8" t="n">
+      <c r="IS8" s="2" t="n">
         <v>-20</v>
+      </c>
+      <c r="IT8" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7316,8 +7340,11 @@
       <c r="IR9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IS9" t="n">
+      <c r="IS9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8079,8 +8106,11 @@
       <c r="IR10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IS10" t="n">
+      <c r="IS10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8842,8 +8872,11 @@
       <c r="IR11" s="2" t="n">
         <v>274</v>
       </c>
-      <c r="IS11" t="n">
+      <c r="IS11" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IT11" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9605,8 +9638,11 @@
       <c r="IR12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="IS12" t="n">
+      <c r="IS12" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="IT12" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10368,8 +10404,11 @@
       <c r="IR13" s="2" t="n">
         <v>428</v>
       </c>
-      <c r="IS13" t="n">
+      <c r="IS13" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="IT13" t="n">
+        <v>375</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11131,8 +11170,11 @@
       <c r="IR14" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="IS14" t="n">
+      <c r="IS14" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="IT14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11894,8 +11936,11 @@
       <c r="IR15" s="2" t="n">
         <v>165</v>
       </c>
-      <c r="IS15" t="n">
+      <c r="IS15" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IT15" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12657,8 +12702,11 @@
       <c r="IR16" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IS16" t="n">
+      <c r="IS16" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IT16" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13420,8 +13468,11 @@
       <c r="IR17" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IS17" t="n">
+      <c r="IS17" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IT17" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14183,8 +14234,11 @@
       <c r="IR18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IS18" t="n">
+      <c r="IS18" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IT18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -14946,8 +15000,11 @@
       <c r="IR19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IS19" t="n">
+      <c r="IS19" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IT19" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15709,8 +15766,11 @@
       <c r="IR20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS20" t="n">
+      <c r="IS20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IT20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16472,8 +16532,11 @@
       <c r="IR21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS21" t="n">
+      <c r="IS21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17235,8 +17298,11 @@
       <c r="IR22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS22" t="n">
+      <c r="IS22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -17998,8 +18064,11 @@
       <c r="IR23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS23" t="n">
+      <c r="IS23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18761,8 +18830,11 @@
       <c r="IR24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IS24" t="n">
+      <c r="IS24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IT24" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19524,8 +19596,11 @@
       <c r="IR25" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="IS25" t="n">
+      <c r="IS25" s="2" t="n">
         <v>52.6</v>
+      </c>
+      <c r="IT25" t="n">
+        <v>48.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20287,8 +20362,11 @@
       <c r="IR26" s="2" t="n">
         <v>53.5</v>
       </c>
-      <c r="IS26" t="n">
+      <c r="IS26" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="IT26" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21050,8 +21128,11 @@
       <c r="IR27" s="2" t="n">
         <v>25.18</v>
       </c>
-      <c r="IS27" t="n">
+      <c r="IS27" s="2" t="n">
         <v>17.84</v>
+      </c>
+      <c r="IT27" t="n">
+        <v>12.1</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21813,8 +21894,11 @@
       <c r="IR28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS28" t="n">
+      <c r="IS28" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IT28" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22576,8 +22660,11 @@
       <c r="IR29" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IS29" t="n">
+      <c r="IS29" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IT29" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23339,8 +23426,11 @@
       <c r="IR30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IS30" t="n">
+      <c r="IS30" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IT30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24102,8 +24192,11 @@
       <c r="IR31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IS31" t="n">
+      <c r="IS31" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IT31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24865,8 +24958,11 @@
       <c r="IR32" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IS32" t="n">
+      <c r="IS32" s="2" t="n">
         <v>2.37</v>
+      </c>
+      <c r="IT32" t="n">
+        <v>1.94</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25628,8 +25724,11 @@
       <c r="IR33" s="2" t="n">
         <v>6.38</v>
       </c>
-      <c r="IS33" t="n">
+      <c r="IS33" s="2" t="n">
         <v>4.5</v>
+      </c>
+      <c r="IT33" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26391,8 +26490,11 @@
       <c r="IR34" s="2" t="n">
         <v>31.4</v>
       </c>
-      <c r="IS34" t="n">
+      <c r="IS34" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IT34" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27154,8 +27256,11 @@
       <c r="IR35" s="2" t="n">
         <v>15.7</v>
       </c>
-      <c r="IS35" t="n">
+      <c r="IS35" s="2" t="n">
         <v>22.2</v>
+      </c>
+      <c r="IT35" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -27917,8 +28022,11 @@
       <c r="IR36" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="IS36" t="n">
+      <c r="IS36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="IT36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28680,8 +28788,11 @@
       <c r="IR37" s="2" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="IS37" t="n">
+      <c r="IS37" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="IT37" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29443,8 +29554,11 @@
       <c r="IR38" s="2" t="n">
         <v>25.74</v>
       </c>
-      <c r="IS38" t="n">
+      <c r="IS38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="IT38" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30206,8 +30320,11 @@
       <c r="IR39" s="2" t="n">
         <v>91.5</v>
       </c>
-      <c r="IS39" t="n">
+      <c r="IS39" s="2" t="n">
         <v>91.2</v>
+      </c>
+      <c r="IT39" t="n">
+        <v>95.5</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -30969,7 +31086,10 @@
       <c r="IR40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS40" t="n">
+      <c r="IS40" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IT40" t="n">
         <v>8</v>
       </c>
     </row>
@@ -31732,8 +31852,11 @@
       <c r="IR41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IS41" t="n">
+      <c r="IS41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -32495,8 +32618,11 @@
       <c r="IR42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS42" t="n">
+      <c r="IS42" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -33258,8 +33384,11 @@
       <c r="IR43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IS43" t="n">
+      <c r="IS43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IT43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -34021,8 +34150,11 @@
       <c r="IR44" s="2" t="n">
         <v>115</v>
       </c>
-      <c r="IS44" t="n">
+      <c r="IS44" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="IT44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34784,8 +34916,11 @@
       <c r="IR45" s="2" t="n">
         <v>304</v>
       </c>
-      <c r="IS45" t="n">
+      <c r="IS45" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="IT45" t="n">
+        <v>236</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35547,8 +35682,11 @@
       <c r="IR46" s="2" t="n">
         <v>338</v>
       </c>
-      <c r="IS46" t="n">
+      <c r="IS46" s="2" t="n">
         <v>250</v>
+      </c>
+      <c r="IT46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36310,8 +36448,11 @@
       <c r="IR47" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IS47" t="n">
+      <c r="IS47" s="2" t="n">
         <v>73.7</v>
+      </c>
+      <c r="IT47" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37073,8 +37214,11 @@
       <c r="IR48" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IS48" t="n">
+      <c r="IS48" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="IT48" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37836,8 +37980,11 @@
       <c r="IR49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IS49" t="n">
+      <c r="IS49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IT49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -38599,8 +38746,11 @@
       <c r="IR50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS50" t="n">
+      <c r="IS50" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT50" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39362,8 +39512,11 @@
       <c r="IR51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS51" t="n">
+      <c r="IS51" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IT51" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40125,8 +40278,11 @@
       <c r="IR52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IS52" t="n">
+      <c r="IS52" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IT52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -40888,7 +41044,10 @@
       <c r="IR53" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="IS53" t="n">
+      <c r="IS53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IT53" t="n">
         <v>49</v>
       </c>
     </row>
@@ -41651,8 +41810,11 @@
       <c r="IR54" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IS54" t="n">
+      <c r="IS54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IT54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42414,8 +42576,11 @@
       <c r="IR55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS55" t="n">
+      <c r="IS55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IT55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43177,8 +43342,11 @@
       <c r="IR56" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="IS56" t="n">
+      <c r="IS56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IT56" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -43940,8 +44108,11 @@
       <c r="IR57" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="IS57" t="n">
+      <c r="IS57" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IT57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -44703,8 +44874,11 @@
       <c r="IR58" s="2" t="n">
         <v>174</v>
       </c>
-      <c r="IS58" t="n">
+      <c r="IS58" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="IT58" t="n">
+        <v>101</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45466,8 +45640,11 @@
       <c r="IR59" s="2" t="n">
         <v>379</v>
       </c>
-      <c r="IS59" t="n">
+      <c r="IS59" s="2" t="n">
         <v>397</v>
+      </c>
+      <c r="IT59" t="n">
+        <v>318</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46229,8 +46406,11 @@
       <c r="IR60" s="2" t="n">
         <v>1.18</v>
       </c>
-      <c r="IS60" t="n">
+      <c r="IS60" s="2" t="n">
         <v>1.18</v>
+      </c>
+      <c r="IT60" t="n">
+        <v>2.15</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -46992,8 +47172,11 @@
       <c r="IR61" s="2" t="n">
         <v>91</v>
       </c>
-      <c r="IS61" t="n">
+      <c r="IS61" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="IT61" t="n">
+        <v>102</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -47755,8 +47938,11 @@
       <c r="IR62" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IS62" t="n">
+      <c r="IS62" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IT62" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -48518,8 +48704,11 @@
       <c r="IR63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IS63" t="n">
+      <c r="IS63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IT63" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -49281,8 +49470,11 @@
       <c r="IR64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IS64" t="n">
+      <c r="IS64" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IT64" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50044,8 +50236,11 @@
       <c r="IR65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IS65" t="n">
+      <c r="IS65" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IT65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -50807,8 +51002,11 @@
       <c r="IR66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS66" t="n">
+      <c r="IS66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IT66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -51570,8 +51768,11 @@
       <c r="IR67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS67" t="n">
+      <c r="IS67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -52333,8 +52534,11 @@
       <c r="IR68" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS68" t="n">
+      <c r="IS68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IT68" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -53096,8 +53300,11 @@
       <c r="IR69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IS69" t="n">
+      <c r="IS69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IT69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -53859,8 +54066,11 @@
       <c r="IR70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IS70" t="n">
+      <c r="IS70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="IT70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -54622,8 +54832,11 @@
       <c r="IR71" s="2" t="n">
         <v>52.9</v>
       </c>
-      <c r="IS71" t="n">
+      <c r="IS71" s="2" t="n">
         <v>54.2</v>
+      </c>
+      <c r="IT71" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -55385,8 +55598,11 @@
       <c r="IR72" s="2" t="n">
         <v>42.11</v>
       </c>
-      <c r="IS72" t="n">
+      <c r="IS72" s="2" t="n">
         <v>30.54</v>
+      </c>
+      <c r="IT72" t="n">
+        <v>26.5</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -56148,8 +56364,11 @@
       <c r="IR73" s="2" t="n">
         <v>22.29</v>
       </c>
-      <c r="IS73" t="n">
+      <c r="IS73" s="2" t="n">
         <v>16.54</v>
+      </c>
+      <c r="IT73" t="n">
+        <v>10.6</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -56911,8 +57130,11 @@
       <c r="IR74" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS74" t="n">
+      <c r="IS74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IT74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -57674,8 +57896,11 @@
       <c r="IR75" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IS75" t="n">
+      <c r="IS75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IT75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -58437,8 +58662,11 @@
       <c r="IR76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IS76" t="n">
+      <c r="IS76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IT76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -59200,8 +59428,11 @@
       <c r="IR77" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="IS77" t="n">
+      <c r="IS77" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IT77" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -59963,8 +60194,11 @@
       <c r="IR78" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="IS78" t="n">
+      <c r="IS78" s="2" t="n">
         <v>2.88</v>
+      </c>
+      <c r="IT78" t="n">
+        <v>1.73</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -60726,8 +60960,11 @@
       <c r="IR79" s="2" t="n">
         <v>5.33</v>
       </c>
-      <c r="IS79" t="n">
+      <c r="IS79" s="2" t="n">
         <v>5.31</v>
+      </c>
+      <c r="IT79" t="n">
+        <v>4.33</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -61489,8 +61726,11 @@
       <c r="IR80" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IS80" t="n">
+      <c r="IS80" s="2" t="n">
         <v>34.8</v>
+      </c>
+      <c r="IT80" t="n">
+        <v>53.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -62252,8 +62492,11 @@
       <c r="IR81" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="IS81" t="n">
+      <c r="IS81" s="2" t="n">
         <v>18.8</v>
+      </c>
+      <c r="IT81" t="n">
+        <v>23.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63015,7 +63258,10 @@
       <c r="IR82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IS82" t="n">
+      <c r="IS82" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="IT82" t="n">
         <v>188.1</v>
       </c>
     </row>
@@ -63778,8 +64024,11 @@
       <c r="IR83" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IS83" t="n">
+      <c r="IS83" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="IT83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -64541,8 +64790,11 @@
       <c r="IR84" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="IS84" t="n">
+      <c r="IS84" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IT84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -65304,8 +65556,11 @@
       <c r="IR85" s="2" t="n">
         <v>101.8</v>
       </c>
-      <c r="IS85" t="n">
+      <c r="IS85" s="2" t="n">
         <v>89.90000000000001</v>
+      </c>
+      <c r="IT85" t="n">
+        <v>75.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -66067,8 +66322,11 @@
       <c r="IR86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS86" t="n">
+      <c r="IS86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT86" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -66830,8 +67088,11 @@
       <c r="IR87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS87" t="n">
+      <c r="IS87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -67593,8 +67854,11 @@
       <c r="IR88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IS88" t="n">
+      <c r="IS88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IT88" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -68356,8 +68620,11 @@
       <c r="IR89" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS89" t="n">
+      <c r="IS89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IT89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -69119,8 +69386,11 @@
       <c r="IR90" s="2" t="n">
         <v>132</v>
       </c>
-      <c r="IS90" t="n">
+      <c r="IS90" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="IT90" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -69882,8 +70152,11 @@
       <c r="IR91" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="IS91" t="n">
+      <c r="IS91" s="2" t="n">
         <v>237</v>
+      </c>
+      <c r="IT91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -70645,8 +70918,11 @@
       <c r="IR92" s="2" t="n">
         <v>291</v>
       </c>
-      <c r="IS92" t="n">
+      <c r="IS92" s="2" t="n">
         <v>294</v>
+      </c>
+      <c r="IT92" t="n">
+        <v>242</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -71408,8 +71684,11 @@
       <c r="IR93" s="2" t="n">
         <v>76.8</v>
       </c>
-      <c r="IS93" t="n">
+      <c r="IS93" s="2" t="n">
         <v>74.09999999999999</v>
+      </c>
+      <c r="IT93" t="n">
+        <v>76.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -72171,8 +72450,11 @@
       <c r="IR94" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IS94" t="n">
+      <c r="IS94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="IT94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -72934,8 +73216,11 @@
       <c r="IR95" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IS95" t="n">
+      <c r="IS95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IT95" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -73697,8 +73982,11 @@
       <c r="IR96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IS96" t="n">
+      <c r="IS96" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IT96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -74460,8 +74748,11 @@
       <c r="IR97" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IS97" t="n">
+      <c r="IS97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IT97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -75223,8 +75514,11 @@
       <c r="IR98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IS98" t="n">
+      <c r="IS98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IT98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -75986,8 +76280,11 @@
       <c r="IR99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IS99" t="n">
+      <c r="IS99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IT99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -76749,8 +77046,11 @@
       <c r="IR100" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IS100" t="n">
+      <c r="IS100" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -77512,8 +77812,11 @@
       <c r="IR101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IS101" t="n">
+      <c r="IS101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IT101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -78275,8 +78578,11 @@
       <c r="IR102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="IS102" t="n">
+      <c r="IS102" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="IT102" t="n">
+        <v>83.3</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IT102"/>
+  <dimension ref="A1:IU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1215,8 +1215,11 @@
       <c r="IS1" s="2" t="n">
         <v>10737</v>
       </c>
-      <c r="IT1" t="n">
+      <c r="IT1" s="2" t="n">
         <v>10757</v>
+      </c>
+      <c r="IU1" t="n">
+        <v>10768</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1981,7 +1984,10 @@
       <c r="IS2" s="2" t="n">
         <v>2022</v>
       </c>
-      <c r="IT2" t="n">
+      <c r="IT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="IU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2747,8 +2753,11 @@
       <c r="IS3" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="IT3" t="n">
+      <c r="IT3" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3513,8 +3522,11 @@
       <c r="IS4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT4" t="n">
+      <c r="IT4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4279,7 +4291,10 @@
       <c r="IS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT5" t="n">
+      <c r="IT5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IU5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5045,8 +5060,11 @@
       <c r="IS6" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IT6" t="n">
+      <c r="IT6" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="IU6" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5811,8 +5829,11 @@
       <c r="IS7" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="IT7" t="n">
+      <c r="IT7" s="2" t="n">
         <v>90</v>
+      </c>
+      <c r="IU7" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6577,8 +6598,11 @@
       <c r="IS8" s="2" t="n">
         <v>-20</v>
       </c>
-      <c r="IT8" t="n">
+      <c r="IT8" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IU8" t="n">
+        <v>-19</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7343,8 +7367,11 @@
       <c r="IS9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT9" t="n">
+      <c r="IT9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8109,8 +8136,11 @@
       <c r="IS10" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT10" t="n">
+      <c r="IT10" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IU10" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8875,8 +8905,11 @@
       <c r="IS11" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="IT11" t="n">
+      <c r="IT11" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="IU11" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9641,8 +9674,11 @@
       <c r="IS12" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="IT12" t="n">
+      <c r="IT12" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="IU12" t="n">
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10407,8 +10443,11 @@
       <c r="IS13" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="IT13" t="n">
+      <c r="IT13" s="2" t="n">
         <v>375</v>
+      </c>
+      <c r="IU13" t="n">
+        <v>352</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11173,8 +11212,11 @@
       <c r="IS14" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="IT14" t="n">
+      <c r="IT14" s="2" t="n">
         <v>1.25</v>
+      </c>
+      <c r="IU14" t="n">
+        <v>1.16</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11939,8 +11981,11 @@
       <c r="IS15" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IT15" t="n">
+      <c r="IT15" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IU15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12705,8 +12750,11 @@
       <c r="IS16" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IT16" t="n">
+      <c r="IT16" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU16" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13471,8 +13519,11 @@
       <c r="IS17" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IT17" t="n">
+      <c r="IT17" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="IU17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14237,7 +14288,10 @@
       <c r="IS18" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT18" t="n">
+      <c r="IT18" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IU18" t="n">
         <v>20</v>
       </c>
     </row>
@@ -15003,8 +15057,11 @@
       <c r="IS19" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT19" t="n">
+      <c r="IT19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IU19" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15769,8 +15826,11 @@
       <c r="IS20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IT20" t="n">
+      <c r="IT20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IU20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16535,8 +16595,11 @@
       <c r="IS21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT21" t="n">
+      <c r="IT21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17301,8 +17364,11 @@
       <c r="IS22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT22" t="n">
+      <c r="IT22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IU22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18067,7 +18133,10 @@
       <c r="IS23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT23" t="n">
+      <c r="IT23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IU23" t="n">
         <v>3</v>
       </c>
     </row>
@@ -18833,8 +18902,11 @@
       <c r="IS24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IT24" t="n">
+      <c r="IT24" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IU24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19599,8 +19671,11 @@
       <c r="IS25" s="2" t="n">
         <v>52.6</v>
       </c>
-      <c r="IT25" t="n">
+      <c r="IT25" s="2" t="n">
         <v>48.4</v>
+      </c>
+      <c r="IU25" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20365,8 +20440,11 @@
       <c r="IS26" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="IT26" t="n">
+      <c r="IT26" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IU26" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21131,8 +21209,11 @@
       <c r="IS27" s="2" t="n">
         <v>17.84</v>
       </c>
-      <c r="IT27" t="n">
+      <c r="IT27" s="2" t="n">
         <v>12.1</v>
+      </c>
+      <c r="IU27" t="n">
+        <v>13.54</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21897,8 +21978,11 @@
       <c r="IS28" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IT28" t="n">
+      <c r="IT28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IU28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22663,8 +22747,11 @@
       <c r="IS29" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IT29" t="n">
+      <c r="IT29" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IU29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23429,8 +23516,11 @@
       <c r="IS30" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IT30" t="n">
+      <c r="IT30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IU30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24195,8 +24285,11 @@
       <c r="IS31" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT31" t="n">
+      <c r="IT31" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IU31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -24961,8 +25054,11 @@
       <c r="IS32" s="2" t="n">
         <v>2.37</v>
       </c>
-      <c r="IT32" t="n">
+      <c r="IT32" s="2" t="n">
         <v>1.94</v>
+      </c>
+      <c r="IU32" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25727,8 +25823,11 @@
       <c r="IS33" s="2" t="n">
         <v>4.5</v>
       </c>
-      <c r="IT33" t="n">
+      <c r="IT33" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU33" t="n">
+        <v>4.73</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26493,8 +26592,11 @@
       <c r="IS34" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IT34" t="n">
+      <c r="IT34" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="IU34" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27259,8 +27361,11 @@
       <c r="IS35" s="2" t="n">
         <v>22.2</v>
       </c>
-      <c r="IT35" t="n">
+      <c r="IT35" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IU35" t="n">
+        <v>21.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28025,8 +28130,11 @@
       <c r="IS36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="IT36" t="n">
+      <c r="IT36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IU36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28791,8 +28899,11 @@
       <c r="IS37" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="IT37" t="n">
+      <c r="IT37" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IU37" t="n">
+        <v>87.2</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29557,8 +29668,11 @@
       <c r="IS38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="IT38" t="n">
+      <c r="IT38" s="2" t="n">
         <v>26.8</v>
+      </c>
+      <c r="IU38" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30323,8 +30437,11 @@
       <c r="IS39" s="2" t="n">
         <v>91.2</v>
       </c>
-      <c r="IT39" t="n">
+      <c r="IT39" s="2" t="n">
         <v>95.5</v>
+      </c>
+      <c r="IU39" t="n">
+        <v>77.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31089,8 +31206,11 @@
       <c r="IS40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT40" t="n">
+      <c r="IT40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IU40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -31855,8 +31975,11 @@
       <c r="IS41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT41" t="n">
+      <c r="IT41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU41" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="1">
@@ -32621,8 +32744,11 @@
       <c r="IS42" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT42" t="n">
+      <c r="IT42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IU42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="1">
@@ -33387,8 +33513,11 @@
       <c r="IS43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IT43" t="n">
+      <c r="IT43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -34153,8 +34282,11 @@
       <c r="IS44" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="IT44" t="n">
+      <c r="IT44" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="IU44" t="n">
+        <v>119</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -34919,8 +35051,11 @@
       <c r="IS45" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="IT45" t="n">
+      <c r="IT45" s="2" t="n">
         <v>236</v>
+      </c>
+      <c r="IU45" t="n">
+        <v>215</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35685,8 +35820,11 @@
       <c r="IS46" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="IT46" t="n">
+      <c r="IT46" s="2" t="n">
         <v>287</v>
+      </c>
+      <c r="IU46" t="n">
+        <v>263</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36451,8 +36589,11 @@
       <c r="IS47" s="2" t="n">
         <v>73.7</v>
       </c>
-      <c r="IT47" t="n">
+      <c r="IT47" s="2" t="n">
         <v>76.5</v>
+      </c>
+      <c r="IU47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37217,8 +37358,11 @@
       <c r="IS48" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="IT48" t="n">
+      <c r="IT48" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IU48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -37983,8 +38127,11 @@
       <c r="IS49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IT49" t="n">
+      <c r="IT49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IU49" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -38749,8 +38896,11 @@
       <c r="IS50" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT50" t="n">
+      <c r="IT50" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IU50" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39515,8 +39665,11 @@
       <c r="IS51" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IT51" t="n">
+      <c r="IT51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="IU51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40281,8 +40434,11 @@
       <c r="IS52" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IT52" t="n">
+      <c r="IT52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IU52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -41047,8 +41203,11 @@
       <c r="IS53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IT53" t="n">
+      <c r="IT53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IU53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -41813,8 +41972,11 @@
       <c r="IS54" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IT54" t="n">
+      <c r="IT54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IU54" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42579,8 +42741,11 @@
       <c r="IS55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IT55" t="n">
+      <c r="IT55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43345,8 +43510,11 @@
       <c r="IS56" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="IT56" t="n">
+      <c r="IT56" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="IU56" t="n">
+        <v>63.6</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44111,8 +44279,11 @@
       <c r="IS57" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="IT57" t="n">
+      <c r="IT57" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="IU57" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -44877,8 +45048,11 @@
       <c r="IS58" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="IT58" t="n">
+      <c r="IT58" s="2" t="n">
         <v>101</v>
+      </c>
+      <c r="IU58" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45643,8 +45817,11 @@
       <c r="IS59" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="IT59" t="n">
+      <c r="IT59" s="2" t="n">
         <v>318</v>
+      </c>
+      <c r="IU59" t="n">
+        <v>373</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46409,8 +46586,11 @@
       <c r="IS60" s="2" t="n">
         <v>1.18</v>
       </c>
-      <c r="IT60" t="n">
+      <c r="IT60" s="2" t="n">
         <v>2.15</v>
+      </c>
+      <c r="IU60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -47175,8 +47355,11 @@
       <c r="IS61" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="IT61" t="n">
+      <c r="IT61" s="2" t="n">
         <v>102</v>
+      </c>
+      <c r="IU61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -47941,8 +48124,11 @@
       <c r="IS62" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IT62" t="n">
+      <c r="IT62" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU62" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -48707,8 +48893,11 @@
       <c r="IS63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IT63" t="n">
+      <c r="IT63" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU63" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -49473,8 +49662,11 @@
       <c r="IS64" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT64" t="n">
+      <c r="IT64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IU64" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50239,7 +50431,10 @@
       <c r="IS65" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IT65" t="n">
+      <c r="IT65" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="IU65" t="n">
         <v>20</v>
       </c>
     </row>
@@ -51005,8 +51200,11 @@
       <c r="IS66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IT66" t="n">
+      <c r="IT66" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IU66" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -51771,7 +51969,10 @@
       <c r="IS67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT67" t="n">
+      <c r="IT67" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IU67" t="n">
         <v>10</v>
       </c>
     </row>
@@ -52537,8 +52738,11 @@
       <c r="IS68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IT68" t="n">
+      <c r="IT68" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="IU68" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -53303,8 +53507,11 @@
       <c r="IS69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IT69" t="n">
+      <c r="IT69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IU69" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -54069,7 +54276,10 @@
       <c r="IS70" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="IT70" t="n">
+      <c r="IT70" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="IU70" t="n">
         <v>30</v>
       </c>
     </row>
@@ -54835,8 +55045,11 @@
       <c r="IS71" s="2" t="n">
         <v>54.2</v>
       </c>
-      <c r="IT71" t="n">
+      <c r="IT71" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IU71" t="n">
+        <v>46.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -55601,8 +55814,11 @@
       <c r="IS72" s="2" t="n">
         <v>30.54</v>
       </c>
-      <c r="IT72" t="n">
+      <c r="IT72" s="2" t="n">
         <v>26.5</v>
+      </c>
+      <c r="IU72" t="n">
+        <v>26.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -56367,8 +56583,11 @@
       <c r="IS73" s="2" t="n">
         <v>16.54</v>
       </c>
-      <c r="IT73" t="n">
+      <c r="IT73" s="2" t="n">
         <v>10.6</v>
+      </c>
+      <c r="IU73" t="n">
+        <v>12.43</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -57133,8 +57352,11 @@
       <c r="IS74" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IT74" t="n">
+      <c r="IT74" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IU74" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -57899,8 +58121,11 @@
       <c r="IS75" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IT75" t="n">
+      <c r="IT75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IU75" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -58665,8 +58890,11 @@
       <c r="IS76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IT76" t="n">
+      <c r="IT76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IU76" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -59431,8 +59659,11 @@
       <c r="IS77" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="IT77" t="n">
+      <c r="IT77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IU77" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -60197,8 +60428,11 @@
       <c r="IS78" s="2" t="n">
         <v>2.88</v>
       </c>
-      <c r="IT78" t="n">
+      <c r="IT78" s="2" t="n">
         <v>1.73</v>
+      </c>
+      <c r="IU78" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -60963,8 +61197,11 @@
       <c r="IS79" s="2" t="n">
         <v>5.31</v>
       </c>
-      <c r="IT79" t="n">
+      <c r="IT79" s="2" t="n">
         <v>4.33</v>
+      </c>
+      <c r="IU79" t="n">
+        <v>4.14</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -61729,8 +61966,11 @@
       <c r="IS80" s="2" t="n">
         <v>34.8</v>
       </c>
-      <c r="IT80" t="n">
+      <c r="IT80" s="2" t="n">
         <v>53.8</v>
+      </c>
+      <c r="IU80" t="n">
+        <v>41.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -62495,8 +62735,11 @@
       <c r="IS81" s="2" t="n">
         <v>18.8</v>
       </c>
-      <c r="IT81" t="n">
+      <c r="IT81" s="2" t="n">
         <v>23.1</v>
+      </c>
+      <c r="IU81" t="n">
+        <v>24.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63261,8 +63504,11 @@
       <c r="IS82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="IT82" t="n">
+      <c r="IT82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="IU82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -64027,8 +64273,11 @@
       <c r="IS83" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="IT83" t="n">
+      <c r="IT83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IU83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -64793,8 +65042,11 @@
       <c r="IS84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IT84" t="n">
+      <c r="IT84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="IU84" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -65559,8 +65811,11 @@
       <c r="IS85" s="2" t="n">
         <v>89.90000000000001</v>
       </c>
-      <c r="IT85" t="n">
+      <c r="IT85" s="2" t="n">
         <v>75.7</v>
+      </c>
+      <c r="IU85" t="n">
+        <v>115.4</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -66325,8 +66580,11 @@
       <c r="IS86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT86" t="n">
+      <c r="IT86" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IU86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -67091,8 +67349,11 @@
       <c r="IS87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT87" t="n">
+      <c r="IT87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IU87" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -67857,8 +68118,11 @@
       <c r="IS88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IT88" t="n">
+      <c r="IT88" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IU88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -68623,8 +68887,11 @@
       <c r="IS89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IT89" t="n">
+      <c r="IT89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IU89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -69389,8 +69656,11 @@
       <c r="IS90" s="2" t="n">
         <v>150</v>
       </c>
-      <c r="IT90" t="n">
+      <c r="IT90" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="IU90" t="n">
+        <v>125</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -70155,8 +70425,11 @@
       <c r="IS91" s="2" t="n">
         <v>237</v>
       </c>
-      <c r="IT91" t="n">
+      <c r="IT91" s="2" t="n">
         <v>199</v>
+      </c>
+      <c r="IU91" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -70921,8 +71194,11 @@
       <c r="IS92" s="2" t="n">
         <v>294</v>
       </c>
-      <c r="IT92" t="n">
+      <c r="IT92" s="2" t="n">
         <v>242</v>
+      </c>
+      <c r="IU92" t="n">
+        <v>285</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -71687,8 +71963,11 @@
       <c r="IS93" s="2" t="n">
         <v>74.09999999999999</v>
       </c>
-      <c r="IT93" t="n">
+      <c r="IT93" s="2" t="n">
         <v>76.09999999999999</v>
+      </c>
+      <c r="IU93" t="n">
+        <v>76.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -72453,8 +72732,11 @@
       <c r="IS94" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="IT94" t="n">
+      <c r="IT94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IU94" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -73219,8 +73501,11 @@
       <c r="IS95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IT95" t="n">
+      <c r="IT95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IU95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -73985,7 +74270,10 @@
       <c r="IS96" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IT96" t="n">
+      <c r="IT96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IU96" t="n">
         <v>15</v>
       </c>
     </row>
@@ -74751,8 +75039,11 @@
       <c r="IS97" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IT97" t="n">
+      <c r="IT97" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IU97" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -75517,8 +75808,11 @@
       <c r="IS98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IT98" t="n">
+      <c r="IT98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IU98" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -76283,8 +76577,11 @@
       <c r="IS99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IT99" t="n">
+      <c r="IT99" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IU99" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -77049,8 +77346,11 @@
       <c r="IS100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT100" t="n">
+      <c r="IT100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IU100" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -77815,7 +78115,10 @@
       <c r="IS101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IT101" t="n">
+      <c r="IT101" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IU101" t="n">
         <v>10</v>
       </c>
     </row>
@@ -78581,8 +78884,11 @@
       <c r="IS102" s="2" t="n">
         <v>61.5</v>
       </c>
-      <c r="IT102" t="n">
+      <c r="IT102" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="IU102" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IU102"/>
+  <dimension ref="A1:IV102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1218,8 +1218,11 @@
       <c r="IT1" s="2" t="n">
         <v>10757</v>
       </c>
-      <c r="IU1" t="n">
+      <c r="IU1" s="2" t="n">
         <v>10768</v>
+      </c>
+      <c r="IV1" t="n">
+        <v>10772</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1987,7 +1990,10 @@
       <c r="IT2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="IU2" t="n">
+      <c r="IU2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="IV2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2756,8 +2762,11 @@
       <c r="IT3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU3" t="n">
+      <c r="IU3" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3525,8 +3534,11 @@
       <c r="IT4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IU4" t="n">
+      <c r="IU4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IV4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4294,8 +4306,11 @@
       <c r="IT5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IU5" t="n">
+      <c r="IU5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IV5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5063,8 +5078,11 @@
       <c r="IT6" s="2" t="n">
         <v>106</v>
       </c>
-      <c r="IU6" t="n">
+      <c r="IU6" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="IV6" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5832,8 +5850,11 @@
       <c r="IT7" s="2" t="n">
         <v>90</v>
       </c>
-      <c r="IU7" t="n">
+      <c r="IU7" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="IV7" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6601,8 +6622,11 @@
       <c r="IT8" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IU8" t="n">
+      <c r="IU8" s="2" t="n">
         <v>-19</v>
+      </c>
+      <c r="IV8" t="n">
+        <v>-10</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7370,7 +7394,10 @@
       <c r="IT9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU9" t="n">
+      <c r="IU9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IV9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8139,8 +8166,11 @@
       <c r="IT10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IU10" t="n">
+      <c r="IU10" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IV10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8908,8 +8938,11 @@
       <c r="IT11" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="IU11" t="n">
+      <c r="IU11" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IV11" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9677,8 +9710,11 @@
       <c r="IT12" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IU12" t="n">
+      <c r="IU12" s="2" t="n">
         <v>163</v>
+      </c>
+      <c r="IV12" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10446,8 +10482,11 @@
       <c r="IT13" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="IU13" t="n">
+      <c r="IU13" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="IV13" t="n">
+        <v>380</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11215,8 +11254,11 @@
       <c r="IT14" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="IU14" t="n">
+      <c r="IU14" s="2" t="n">
         <v>1.16</v>
+      </c>
+      <c r="IV14" t="n">
+        <v>1.28</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -11984,8 +12026,11 @@
       <c r="IT15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IU15" t="n">
+      <c r="IU15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IV15" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12753,8 +12798,11 @@
       <c r="IT16" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU16" t="n">
+      <c r="IU16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IV16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13522,8 +13570,11 @@
       <c r="IT17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="IU17" t="n">
+      <c r="IU17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="IV17" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14291,8 +14342,11 @@
       <c r="IT18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IU18" t="n">
+      <c r="IU18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IV18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15060,8 +15114,11 @@
       <c r="IT19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IU19" t="n">
+      <c r="IU19" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IV19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15829,8 +15886,11 @@
       <c r="IT20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IU20" t="n">
+      <c r="IU20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IV20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16598,8 +16658,11 @@
       <c r="IT21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU21" t="n">
+      <c r="IU21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IV21" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17367,8 +17430,11 @@
       <c r="IT22" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IU22" t="n">
+      <c r="IU22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IV22" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18136,8 +18202,11 @@
       <c r="IT23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU23" t="n">
+      <c r="IU23" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IV23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18905,8 +18974,11 @@
       <c r="IT24" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IU24" t="n">
+      <c r="IU24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="IV24" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19674,8 +19746,11 @@
       <c r="IT25" s="2" t="n">
         <v>48.4</v>
       </c>
-      <c r="IU25" t="n">
+      <c r="IU25" s="2" t="n">
         <v>42.3</v>
+      </c>
+      <c r="IV25" t="n">
+        <v>47.4</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20443,8 +20518,11 @@
       <c r="IT26" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IU26" t="n">
+      <c r="IU26" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IV26" t="n">
+        <v>42.22</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21212,8 +21290,11 @@
       <c r="IT27" s="2" t="n">
         <v>12.1</v>
       </c>
-      <c r="IU27" t="n">
+      <c r="IU27" s="2" t="n">
         <v>13.54</v>
+      </c>
+      <c r="IV27" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -21981,8 +22062,11 @@
       <c r="IT28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IU28" t="n">
+      <c r="IU28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IV28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22750,8 +22834,11 @@
       <c r="IT29" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IU29" t="n">
+      <c r="IU29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IV29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23519,8 +23606,11 @@
       <c r="IT30" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IU30" t="n">
+      <c r="IU30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV30" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24288,8 +24378,11 @@
       <c r="IT31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IU31" t="n">
+      <c r="IU31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IV31" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25057,8 +25150,11 @@
       <c r="IT32" s="2" t="n">
         <v>1.94</v>
       </c>
-      <c r="IU32" t="n">
+      <c r="IU32" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IV32" t="n">
+        <v>2.84</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25826,8 +25922,11 @@
       <c r="IT33" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU33" t="n">
+      <c r="IU33" s="2" t="n">
         <v>4.73</v>
+      </c>
+      <c r="IV33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26595,8 +26694,11 @@
       <c r="IT34" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="IU34" t="n">
+      <c r="IU34" s="2" t="n">
         <v>44.2</v>
+      </c>
+      <c r="IV34" t="n">
+        <v>25.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27364,8 +27466,11 @@
       <c r="IT35" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IU35" t="n">
+      <c r="IU35" s="2" t="n">
         <v>21.2</v>
+      </c>
+      <c r="IV35" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28133,8 +28238,11 @@
       <c r="IT36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="IU36" t="n">
+      <c r="IU36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="IV36" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -28902,8 +29010,11 @@
       <c r="IT37" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IU37" t="n">
+      <c r="IU37" s="2" t="n">
         <v>87.2</v>
+      </c>
+      <c r="IV37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29671,8 +29782,11 @@
       <c r="IT38" s="2" t="n">
         <v>26.8</v>
       </c>
-      <c r="IU38" t="n">
+      <c r="IU38" s="2" t="n">
         <v>25.16</v>
+      </c>
+      <c r="IV38" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30440,8 +30554,11 @@
       <c r="IT39" s="2" t="n">
         <v>95.5</v>
       </c>
-      <c r="IU39" t="n">
+      <c r="IU39" s="2" t="n">
         <v>77.40000000000001</v>
+      </c>
+      <c r="IV39" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31209,8 +31326,11 @@
       <c r="IT40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU40" t="n">
+      <c r="IU40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IV40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -31978,7 +32098,10 @@
       <c r="IT41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU41" t="n">
+      <c r="IU41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IV41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32747,7 +32870,10 @@
       <c r="IT42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU42" t="n">
+      <c r="IU42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IV42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33516,8 +33642,11 @@
       <c r="IT43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU43" t="n">
+      <c r="IU43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -34285,8 +34414,11 @@
       <c r="IT44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IU44" t="n">
+      <c r="IU44" s="2" t="n">
         <v>119</v>
+      </c>
+      <c r="IV44" t="n">
+        <v>122</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35054,8 +35186,11 @@
       <c r="IT45" s="2" t="n">
         <v>236</v>
       </c>
-      <c r="IU45" t="n">
+      <c r="IU45" s="2" t="n">
         <v>215</v>
+      </c>
+      <c r="IV45" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35823,8 +35958,11 @@
       <c r="IT46" s="2" t="n">
         <v>287</v>
       </c>
-      <c r="IU46" t="n">
+      <c r="IU46" s="2" t="n">
         <v>263</v>
+      </c>
+      <c r="IV46" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36592,7 +36730,10 @@
       <c r="IT47" s="2" t="n">
         <v>76.5</v>
       </c>
-      <c r="IU47" t="n">
+      <c r="IU47" s="2" t="n">
+        <v>74.7</v>
+      </c>
+      <c r="IV47" t="n">
         <v>74.7</v>
       </c>
     </row>
@@ -37361,8 +37502,11 @@
       <c r="IT48" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IU48" t="n">
+      <c r="IU48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IV48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38130,8 +38274,11 @@
       <c r="IT49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IU49" t="n">
+      <c r="IU49" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -38899,8 +39046,11 @@
       <c r="IT50" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IU50" t="n">
+      <c r="IU50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IV50" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39668,8 +39818,11 @@
       <c r="IT51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="IU51" t="n">
+      <c r="IU51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IV51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40437,8 +40590,11 @@
       <c r="IT52" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IU52" t="n">
+      <c r="IU52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV52" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -41206,8 +41362,11 @@
       <c r="IT53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IU53" t="n">
+      <c r="IU53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IV53" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -41975,8 +42134,11 @@
       <c r="IT54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IU54" t="n">
+      <c r="IU54" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IV54" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42744,8 +42906,11 @@
       <c r="IT55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU55" t="n">
+      <c r="IU55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IV55" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43513,8 +43678,11 @@
       <c r="IT56" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="IU56" t="n">
+      <c r="IU56" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="IV56" t="n">
+        <v>66.7</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44282,8 +44450,11 @@
       <c r="IT57" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="IU57" t="n">
+      <c r="IU57" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="IV57" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45051,8 +45222,11 @@
       <c r="IT58" s="2" t="n">
         <v>101</v>
       </c>
-      <c r="IU58" t="n">
+      <c r="IU58" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="IV58" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45820,8 +45994,11 @@
       <c r="IT59" s="2" t="n">
         <v>318</v>
       </c>
-      <c r="IU59" t="n">
+      <c r="IU59" s="2" t="n">
         <v>373</v>
+      </c>
+      <c r="IV59" t="n">
+        <v>397</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46589,8 +46766,11 @@
       <c r="IT60" s="2" t="n">
         <v>2.15</v>
       </c>
-      <c r="IU60" t="n">
+      <c r="IU60" s="2" t="n">
         <v>1.38</v>
+      </c>
+      <c r="IV60" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -47358,8 +47538,11 @@
       <c r="IT61" s="2" t="n">
         <v>102</v>
       </c>
-      <c r="IU61" t="n">
+      <c r="IU61" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="IV61" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -48127,8 +48310,11 @@
       <c r="IT62" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU62" t="n">
+      <c r="IU62" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV62" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -48896,8 +49082,11 @@
       <c r="IT63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU63" t="n">
+      <c r="IU63" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IV63" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -49665,8 +49854,11 @@
       <c r="IT64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IU64" t="n">
+      <c r="IU64" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IV64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50434,8 +50626,11 @@
       <c r="IT65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IU65" t="n">
+      <c r="IU65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IV65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -51203,8 +51398,11 @@
       <c r="IT66" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IU66" t="n">
+      <c r="IU66" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IV66" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -51972,8 +52170,11 @@
       <c r="IT67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IU67" t="n">
+      <c r="IU67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV67" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -52741,8 +52942,11 @@
       <c r="IT68" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="IU68" t="n">
+      <c r="IU68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -53510,8 +53714,11 @@
       <c r="IT69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IU69" t="n">
+      <c r="IU69" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV69" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -54279,8 +54486,11 @@
       <c r="IT70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IU70" t="n">
+      <c r="IU70" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="IV70" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -55048,8 +55258,11 @@
       <c r="IT71" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="IU71" t="n">
+      <c r="IU71" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="IV71" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -55817,8 +56030,11 @@
       <c r="IT72" s="2" t="n">
         <v>26.5</v>
       </c>
-      <c r="IU72" t="n">
+      <c r="IU72" s="2" t="n">
         <v>26.64</v>
+      </c>
+      <c r="IV72" t="n">
+        <v>44.11</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -56586,8 +56802,11 @@
       <c r="IT73" s="2" t="n">
         <v>10.6</v>
       </c>
-      <c r="IU73" t="n">
+      <c r="IU73" s="2" t="n">
         <v>12.43</v>
+      </c>
+      <c r="IV73" t="n">
+        <v>13.69</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -57355,8 +57574,11 @@
       <c r="IT74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IU74" t="n">
+      <c r="IU74" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IV74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -58124,8 +58346,11 @@
       <c r="IT75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IU75" t="n">
+      <c r="IU75" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IV75" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -58893,8 +59118,11 @@
       <c r="IT76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IU76" t="n">
+      <c r="IU76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IV76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -59662,8 +59890,11 @@
       <c r="IT77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IU77" t="n">
+      <c r="IU77" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IV77" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -60431,8 +60662,11 @@
       <c r="IT78" s="2" t="n">
         <v>1.73</v>
       </c>
-      <c r="IU78" t="n">
+      <c r="IU78" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="IV78" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -61200,8 +61434,11 @@
       <c r="IT79" s="2" t="n">
         <v>4.33</v>
       </c>
-      <c r="IU79" t="n">
+      <c r="IU79" s="2" t="n">
         <v>4.14</v>
+      </c>
+      <c r="IV79" t="n">
+        <v>6.78</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -61969,8 +62206,11 @@
       <c r="IT80" s="2" t="n">
         <v>53.8</v>
       </c>
-      <c r="IU80" t="n">
+      <c r="IU80" s="2" t="n">
         <v>41.4</v>
+      </c>
+      <c r="IV80" t="n">
+        <v>34.4</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -62738,8 +62978,11 @@
       <c r="IT81" s="2" t="n">
         <v>23.1</v>
       </c>
-      <c r="IU81" t="n">
+      <c r="IU81" s="2" t="n">
         <v>24.1</v>
+      </c>
+      <c r="IV81" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63507,8 +63750,11 @@
       <c r="IT82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="IU82" t="n">
+      <c r="IU82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IV82" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -64276,8 +64522,11 @@
       <c r="IT83" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IU83" t="n">
+      <c r="IU83" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IV83" t="n">
+        <v>87.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -65045,8 +65294,11 @@
       <c r="IT84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="IU84" t="n">
+      <c r="IU84" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="IV84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -65814,8 +66066,11 @@
       <c r="IT85" s="2" t="n">
         <v>75.7</v>
       </c>
-      <c r="IU85" t="n">
+      <c r="IU85" s="2" t="n">
         <v>115.4</v>
+      </c>
+      <c r="IV85" t="n">
+        <v>86.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -66583,8 +66838,11 @@
       <c r="IT86" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IU86" t="n">
+      <c r="IU86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -67352,8 +67610,11 @@
       <c r="IT87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IU87" t="n">
+      <c r="IU87" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IV87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -68121,8 +68382,11 @@
       <c r="IT88" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IU88" t="n">
+      <c r="IU88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -68890,8 +69154,11 @@
       <c r="IT89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IU89" t="n">
+      <c r="IU89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IV89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -69659,8 +69926,11 @@
       <c r="IT90" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="IU90" t="n">
+      <c r="IU90" s="2" t="n">
         <v>125</v>
+      </c>
+      <c r="IV90" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -70428,8 +70698,11 @@
       <c r="IT91" s="2" t="n">
         <v>199</v>
       </c>
-      <c r="IU91" t="n">
+      <c r="IU91" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IV91" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -71197,8 +71470,11 @@
       <c r="IT92" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="IU92" t="n">
+      <c r="IU92" s="2" t="n">
         <v>285</v>
+      </c>
+      <c r="IV92" t="n">
+        <v>299</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -71966,8 +72242,11 @@
       <c r="IT93" s="2" t="n">
         <v>76.09999999999999</v>
       </c>
-      <c r="IU93" t="n">
+      <c r="IU93" s="2" t="n">
         <v>76.40000000000001</v>
+      </c>
+      <c r="IV93" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -72735,8 +73014,11 @@
       <c r="IT94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IU94" t="n">
+      <c r="IU94" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IV94" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -73504,8 +73786,11 @@
       <c r="IT95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IU95" t="n">
+      <c r="IU95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IV95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -74273,8 +74558,11 @@
       <c r="IT96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IU96" t="n">
+      <c r="IU96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="IV96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -75042,8 +75330,11 @@
       <c r="IT97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IU97" t="n">
+      <c r="IU97" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IV97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -75811,8 +76102,11 @@
       <c r="IT98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IU98" t="n">
+      <c r="IU98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IV98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -76580,8 +76874,11 @@
       <c r="IT99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IU99" t="n">
+      <c r="IU99" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IV99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -77349,8 +77646,11 @@
       <c r="IT100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IU100" t="n">
+      <c r="IU100" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IV100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -78118,8 +78418,11 @@
       <c r="IT101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IU101" t="n">
+      <c r="IU101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IV101" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -78887,8 +79190,11 @@
       <c r="IT102" s="2" t="n">
         <v>83.3</v>
       </c>
-      <c r="IU102" t="n">
+      <c r="IU102" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="IV102" t="n">
+        <v>55.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IV102"/>
+  <dimension ref="A1:IW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1221,8 +1221,11 @@
       <c r="IU1" s="2" t="n">
         <v>10768</v>
       </c>
-      <c r="IV1" t="n">
+      <c r="IV1" s="2" t="n">
         <v>10772</v>
+      </c>
+      <c r="IW1" t="n">
+        <v>10784</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1993,7 +1996,10 @@
       <c r="IU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="IV2" t="n">
+      <c r="IV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="IW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2765,8 +2771,11 @@
       <c r="IU3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV3" t="n">
+      <c r="IV3" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3537,8 +3546,11 @@
       <c r="IU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IV4" t="n">
+      <c r="IV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4309,8 +4321,11 @@
       <c r="IU5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IV5" t="n">
+      <c r="IV5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IW5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5081,8 +5096,11 @@
       <c r="IU6" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="IV6" t="n">
+      <c r="IV6" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IW6" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5853,8 +5871,11 @@
       <c r="IU7" s="2" t="n">
         <v>100</v>
       </c>
-      <c r="IV7" t="n">
+      <c r="IV7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="IW7" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6625,8 +6646,11 @@
       <c r="IU8" s="2" t="n">
         <v>-19</v>
       </c>
-      <c r="IV8" t="n">
+      <c r="IV8" s="2" t="n">
         <v>-10</v>
+      </c>
+      <c r="IW8" t="n">
+        <v>-13</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7397,7 +7421,10 @@
       <c r="IU9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IV9" t="n">
+      <c r="IV9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IW9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8169,8 +8196,11 @@
       <c r="IU10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IV10" t="n">
+      <c r="IV10" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8941,8 +8971,11 @@
       <c r="IU11" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="IV11" t="n">
+      <c r="IV11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IW11" t="n">
+        <v>235</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9713,8 +9746,11 @@
       <c r="IU12" s="2" t="n">
         <v>163</v>
       </c>
-      <c r="IV12" t="n">
+      <c r="IV12" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="IW12" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10485,8 +10521,11 @@
       <c r="IU13" s="2" t="n">
         <v>352</v>
       </c>
-      <c r="IV13" t="n">
+      <c r="IV13" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="IW13" t="n">
+        <v>393</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11257,8 +11296,11 @@
       <c r="IU14" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="IV14" t="n">
+      <c r="IV14" s="2" t="n">
         <v>1.28</v>
+      </c>
+      <c r="IW14" t="n">
+        <v>1.49</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12029,8 +12071,11 @@
       <c r="IU15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="IV15" t="n">
+      <c r="IV15" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="IW15" t="n">
+        <v>111</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12801,8 +12846,11 @@
       <c r="IU16" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="IV16" t="n">
+      <c r="IV16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IW16" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13573,8 +13621,11 @@
       <c r="IU17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="IV17" t="n">
+      <c r="IV17" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IW17" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14345,8 +14396,11 @@
       <c r="IU18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IV18" t="n">
+      <c r="IV18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IW18" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15117,8 +15171,11 @@
       <c r="IU19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IV19" t="n">
+      <c r="IV19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IW19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15889,8 +15946,11 @@
       <c r="IU20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV20" t="n">
+      <c r="IV20" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IW20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16661,8 +16721,11 @@
       <c r="IU21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV21" t="n">
+      <c r="IV21" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17433,8 +17496,11 @@
       <c r="IU22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IV22" t="n">
+      <c r="IV22" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18205,8 +18271,11 @@
       <c r="IU23" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IV23" t="n">
+      <c r="IV23" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -18977,8 +19046,11 @@
       <c r="IU24" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="IV24" t="n">
+      <c r="IV24" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IW24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19749,8 +19821,11 @@
       <c r="IU25" s="2" t="n">
         <v>42.3</v>
       </c>
-      <c r="IV25" t="n">
+      <c r="IV25" s="2" t="n">
         <v>47.4</v>
+      </c>
+      <c r="IW25" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20521,8 +20596,11 @@
       <c r="IU26" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IV26" t="n">
+      <c r="IV26" s="2" t="n">
         <v>42.22</v>
+      </c>
+      <c r="IW26" t="n">
+        <v>35.73</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21293,8 +21371,11 @@
       <c r="IU27" s="2" t="n">
         <v>13.54</v>
       </c>
-      <c r="IV27" t="n">
+      <c r="IV27" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IW27" t="n">
+        <v>19.65</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22065,8 +22146,11 @@
       <c r="IU28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IV28" t="n">
+      <c r="IV28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IW28" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22837,8 +22921,11 @@
       <c r="IU29" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IV29" t="n">
+      <c r="IV29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IW29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23609,8 +23696,11 @@
       <c r="IU30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV30" t="n">
+      <c r="IV30" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IW30" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24381,8 +24471,11 @@
       <c r="IU31" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IV31" t="n">
+      <c r="IV31" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IW31" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25153,8 +25246,11 @@
       <c r="IU32" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV32" t="n">
+      <c r="IV32" s="2" t="n">
         <v>2.84</v>
+      </c>
+      <c r="IW32" t="n">
+        <v>2.5</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -25925,8 +26021,11 @@
       <c r="IU33" s="2" t="n">
         <v>4.73</v>
       </c>
-      <c r="IV33" t="n">
+      <c r="IV33" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW33" t="n">
+        <v>4.55</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26697,8 +26796,11 @@
       <c r="IU34" s="2" t="n">
         <v>44.2</v>
       </c>
-      <c r="IV34" t="n">
+      <c r="IV34" s="2" t="n">
         <v>25.9</v>
+      </c>
+      <c r="IW34" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27469,8 +27571,11 @@
       <c r="IU35" s="2" t="n">
         <v>21.2</v>
       </c>
-      <c r="IV35" t="n">
+      <c r="IV35" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="IW35" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28241,7 +28346,10 @@
       <c r="IU36" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="IV36" t="n">
+      <c r="IV36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="IW36" t="n">
         <v>188.6</v>
       </c>
     </row>
@@ -29013,7 +29121,10 @@
       <c r="IU37" s="2" t="n">
         <v>87.2</v>
       </c>
-      <c r="IV37" t="n">
+      <c r="IV37" s="2" t="n">
+        <v>87.7</v>
+      </c>
+      <c r="IW37" t="n">
         <v>87.7</v>
       </c>
     </row>
@@ -29785,8 +29896,11 @@
       <c r="IU38" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="IV38" t="n">
+      <c r="IV38" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IW38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30557,8 +30671,11 @@
       <c r="IU39" s="2" t="n">
         <v>77.40000000000001</v>
       </c>
-      <c r="IV39" t="n">
+      <c r="IV39" s="2" t="n">
         <v>87.09999999999999</v>
+      </c>
+      <c r="IW39" t="n">
+        <v>93.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31329,8 +31446,11 @@
       <c r="IU40" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV40" t="n">
+      <c r="IV40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -32101,7 +32221,10 @@
       <c r="IU41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV41" t="n">
+      <c r="IV41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IW41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32873,7 +32996,10 @@
       <c r="IU42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IV42" t="n">
+      <c r="IV42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IW42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33645,8 +33771,11 @@
       <c r="IU43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV43" t="n">
+      <c r="IV43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -34417,8 +34546,11 @@
       <c r="IU44" s="2" t="n">
         <v>119</v>
       </c>
-      <c r="IV44" t="n">
+      <c r="IV44" s="2" t="n">
         <v>122</v>
+      </c>
+      <c r="IW44" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35189,8 +35321,11 @@
       <c r="IU45" s="2" t="n">
         <v>215</v>
       </c>
-      <c r="IV45" t="n">
+      <c r="IV45" s="2" t="n">
         <v>241</v>
+      </c>
+      <c r="IW45" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -35961,8 +36096,11 @@
       <c r="IU46" s="2" t="n">
         <v>263</v>
       </c>
-      <c r="IV46" t="n">
+      <c r="IV46" s="2" t="n">
         <v>284</v>
+      </c>
+      <c r="IW46" t="n">
+        <v>293</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36733,8 +36871,11 @@
       <c r="IU47" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IV47" t="n">
+      <c r="IV47" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="IW47" t="n">
+        <v>74.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37505,8 +37646,11 @@
       <c r="IU48" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IV48" t="n">
+      <c r="IV48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IW48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38277,8 +38421,11 @@
       <c r="IU49" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV49" t="n">
+      <c r="IV49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39049,8 +39196,11 @@
       <c r="IU50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IV50" t="n">
+      <c r="IV50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IW50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39821,8 +39971,11 @@
       <c r="IU51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IV51" t="n">
+      <c r="IV51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IW51" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40593,8 +40746,11 @@
       <c r="IU52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV52" t="n">
+      <c r="IV52" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IW52" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -41365,8 +41521,11 @@
       <c r="IU53" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="IV53" t="n">
+      <c r="IV53" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IW53" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -42137,8 +42296,11 @@
       <c r="IU54" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IV54" t="n">
+      <c r="IV54" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -42909,8 +43071,11 @@
       <c r="IU55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV55" t="n">
+      <c r="IV55" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IW55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43681,8 +43846,11 @@
       <c r="IU56" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="IV56" t="n">
+      <c r="IV56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="IW56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44453,8 +44621,11 @@
       <c r="IU57" s="2" t="n">
         <v>216</v>
       </c>
-      <c r="IV57" t="n">
+      <c r="IV57" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="IW57" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45225,8 +45396,11 @@
       <c r="IU58" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="IV58" t="n">
+      <c r="IV58" s="2" t="n">
         <v>162</v>
+      </c>
+      <c r="IW58" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -45997,8 +46171,11 @@
       <c r="IU59" s="2" t="n">
         <v>373</v>
       </c>
-      <c r="IV59" t="n">
+      <c r="IV59" s="2" t="n">
         <v>397</v>
+      </c>
+      <c r="IW59" t="n">
+        <v>381</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46769,8 +46946,11 @@
       <c r="IU60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="IV60" t="n">
+      <c r="IV60" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="IW60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -47541,8 +47721,11 @@
       <c r="IU61" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="IV61" t="n">
+      <c r="IV61" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IW61" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -48313,8 +48496,11 @@
       <c r="IU62" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV62" t="n">
+      <c r="IV62" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IW62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -49085,8 +49271,11 @@
       <c r="IU63" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IV63" t="n">
+      <c r="IV63" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IW63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -49857,8 +50046,11 @@
       <c r="IU64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IV64" t="n">
+      <c r="IV64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IW64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50629,8 +50821,11 @@
       <c r="IU65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IV65" t="n">
+      <c r="IV65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IW65" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -51401,8 +51596,11 @@
       <c r="IU66" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IV66" t="n">
+      <c r="IV66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IW66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -52173,8 +52371,11 @@
       <c r="IU67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV67" t="n">
+      <c r="IV67" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -52945,8 +53146,11 @@
       <c r="IU68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV68" t="n">
+      <c r="IV68" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IW68" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -53717,8 +53921,11 @@
       <c r="IU69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV69" t="n">
+      <c r="IV69" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -54489,8 +54696,11 @@
       <c r="IU70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="IV70" t="n">
+      <c r="IV70" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="IW70" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -55261,8 +55471,11 @@
       <c r="IU71" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="IV71" t="n">
+      <c r="IV71" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="IW71" t="n">
+        <v>33.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -56033,8 +56246,11 @@
       <c r="IU72" s="2" t="n">
         <v>26.64</v>
       </c>
-      <c r="IV72" t="n">
+      <c r="IV72" s="2" t="n">
         <v>44.11</v>
+      </c>
+      <c r="IW72" t="n">
+        <v>34.64</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -56805,8 +57021,11 @@
       <c r="IU73" s="2" t="n">
         <v>12.43</v>
       </c>
-      <c r="IV73" t="n">
+      <c r="IV73" s="2" t="n">
         <v>13.69</v>
+      </c>
+      <c r="IW73" t="n">
+        <v>11.55</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -57577,8 +57796,11 @@
       <c r="IU74" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IV74" t="n">
+      <c r="IV74" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IW74" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -58349,8 +58571,11 @@
       <c r="IU75" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IV75" t="n">
+      <c r="IV75" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IW75" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -59121,8 +59346,11 @@
       <c r="IU76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IV76" t="n">
+      <c r="IV76" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IW76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -59893,7 +60121,10 @@
       <c r="IU77" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IV77" t="n">
+      <c r="IV77" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="IW77" t="n">
         <v>61</v>
       </c>
     </row>
@@ -60665,8 +60896,11 @@
       <c r="IU78" s="2" t="n">
         <v>1.93</v>
       </c>
-      <c r="IV78" t="n">
+      <c r="IV78" s="2" t="n">
         <v>2.1</v>
+      </c>
+      <c r="IW78" t="n">
+        <v>1.85</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -61437,8 +61671,11 @@
       <c r="IU79" s="2" t="n">
         <v>4.14</v>
       </c>
-      <c r="IV79" t="n">
+      <c r="IV79" s="2" t="n">
         <v>6.78</v>
+      </c>
+      <c r="IW79" t="n">
+        <v>5.55</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -62209,8 +62446,11 @@
       <c r="IU80" s="2" t="n">
         <v>41.4</v>
       </c>
-      <c r="IV80" t="n">
+      <c r="IV80" s="2" t="n">
         <v>34.4</v>
+      </c>
+      <c r="IW80" t="n">
+        <v>49.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -62981,8 +63221,11 @@
       <c r="IU81" s="2" t="n">
         <v>24.1</v>
       </c>
-      <c r="IV81" t="n">
+      <c r="IV81" s="2" t="n">
         <v>14.8</v>
+      </c>
+      <c r="IW81" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63753,8 +63996,11 @@
       <c r="IU82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="IV82" t="n">
+      <c r="IV82" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="IW82" t="n">
+        <v>189.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -64525,7 +64771,10 @@
       <c r="IU83" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IV83" t="n">
+      <c r="IV83" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="IW83" t="n">
         <v>87.5</v>
       </c>
     </row>
@@ -65297,8 +65546,11 @@
       <c r="IU84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="IV84" t="n">
+      <c r="IV84" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IW84" t="n">
+        <v>25.24</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -66069,8 +66321,11 @@
       <c r="IU85" s="2" t="n">
         <v>115.4</v>
       </c>
-      <c r="IV85" t="n">
+      <c r="IV85" s="2" t="n">
         <v>86.8</v>
+      </c>
+      <c r="IW85" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -66841,8 +67096,11 @@
       <c r="IU86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV86" t="n">
+      <c r="IV86" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IW86" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -67613,8 +67871,11 @@
       <c r="IU87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IV87" t="n">
+      <c r="IV87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IW87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -68385,8 +68646,11 @@
       <c r="IU88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV88" t="n">
+      <c r="IV88" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -69157,8 +69421,11 @@
       <c r="IU89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IV89" t="n">
+      <c r="IV89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -69929,8 +70196,11 @@
       <c r="IU90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="IV90" t="n">
+      <c r="IV90" s="2" t="n">
         <v>147</v>
+      </c>
+      <c r="IW90" t="n">
+        <v>148</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -70701,8 +70971,11 @@
       <c r="IU91" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="IV91" t="n">
+      <c r="IV91" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="IW91" t="n">
+        <v>231</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -71473,8 +71746,11 @@
       <c r="IU92" s="2" t="n">
         <v>285</v>
       </c>
-      <c r="IV92" t="n">
+      <c r="IV92" s="2" t="n">
         <v>299</v>
+      </c>
+      <c r="IW92" t="n">
+        <v>281</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -72245,8 +72521,11 @@
       <c r="IU93" s="2" t="n">
         <v>76.40000000000001</v>
       </c>
-      <c r="IV93" t="n">
+      <c r="IV93" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="IW93" t="n">
+        <v>73.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -73017,8 +73296,11 @@
       <c r="IU94" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IV94" t="n">
+      <c r="IV94" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IW94" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -73789,7 +74071,10 @@
       <c r="IU95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IV95" t="n">
+      <c r="IV95" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="IW95" t="n">
         <v>14</v>
       </c>
     </row>
@@ -74561,8 +74846,11 @@
       <c r="IU96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="IV96" t="n">
+      <c r="IV96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IW96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -75333,8 +75621,11 @@
       <c r="IU97" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="IV97" t="n">
+      <c r="IV97" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="IW97" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -76105,8 +76396,11 @@
       <c r="IU98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IV98" t="n">
+      <c r="IV98" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="IW98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -76877,8 +77171,11 @@
       <c r="IU99" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IV99" t="n">
+      <c r="IV99" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="IW99" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -77649,8 +77946,11 @@
       <c r="IU100" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IV100" t="n">
+      <c r="IV100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IW100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -78421,8 +78721,11 @@
       <c r="IU101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IV101" t="n">
+      <c r="IV101" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IW101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -79193,8 +79496,11 @@
       <c r="IU102" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="IV102" t="n">
+      <c r="IV102" s="2" t="n">
         <v>55.6</v>
+      </c>
+      <c r="IW102" t="n">
+        <v>90.90000000000001</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IW102"/>
+  <dimension ref="A1:IX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1224,8 +1224,11 @@
       <c r="IV1" s="2" t="n">
         <v>10772</v>
       </c>
-      <c r="IW1" t="n">
+      <c r="IW1" s="2" t="n">
         <v>10784</v>
+      </c>
+      <c r="IX1" t="n">
+        <v>10960</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -1999,7 +2002,10 @@
       <c r="IV2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="IW2" t="n">
+      <c r="IW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="IX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2774,8 +2780,11 @@
       <c r="IV3" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IW3" t="n">
+      <c r="IW3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IX3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3549,8 +3558,11 @@
       <c r="IV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IW4" t="n">
+      <c r="IW4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4324,7 +4336,10 @@
       <c r="IV5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IW5" t="n">
+      <c r="IW5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IX5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5099,8 +5114,11 @@
       <c r="IV6" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="IW6" t="n">
+      <c r="IW6" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IX6" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5874,8 +5892,11 @@
       <c r="IV7" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="IW7" t="n">
+      <c r="IW7" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="IX7" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6649,8 +6670,11 @@
       <c r="IV8" s="2" t="n">
         <v>-10</v>
       </c>
-      <c r="IW8" t="n">
+      <c r="IW8" s="2" t="n">
         <v>-13</v>
+      </c>
+      <c r="IX8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7424,8 +7448,11 @@
       <c r="IV9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IW9" t="n">
+      <c r="IW9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IX9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8199,8 +8226,11 @@
       <c r="IV10" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IW10" t="n">
+      <c r="IW10" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IX10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -8974,8 +9004,11 @@
       <c r="IV11" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="IW11" t="n">
+      <c r="IW11" s="2" t="n">
         <v>235</v>
+      </c>
+      <c r="IX11" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9749,8 +9782,11 @@
       <c r="IV12" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="IW12" t="n">
+      <c r="IW12" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="IX12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10524,8 +10560,11 @@
       <c r="IV13" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="IW13" t="n">
+      <c r="IW13" s="2" t="n">
         <v>393</v>
+      </c>
+      <c r="IX13" t="n">
+        <v>388</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11299,8 +11338,11 @@
       <c r="IV14" s="2" t="n">
         <v>1.28</v>
       </c>
-      <c r="IW14" t="n">
+      <c r="IW14" s="2" t="n">
         <v>1.49</v>
+      </c>
+      <c r="IX14" t="n">
+        <v>1.22</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12074,8 +12116,11 @@
       <c r="IV15" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="IW15" t="n">
+      <c r="IW15" s="2" t="n">
         <v>111</v>
+      </c>
+      <c r="IX15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12849,8 +12894,11 @@
       <c r="IV16" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="IW16" t="n">
+      <c r="IW16" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="IX16" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13624,8 +13672,11 @@
       <c r="IV17" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IW17" t="n">
+      <c r="IW17" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="IX17" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14399,8 +14450,11 @@
       <c r="IV18" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IW18" t="n">
+      <c r="IW18" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IX18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15174,8 +15228,11 @@
       <c r="IV19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IW19" t="n">
+      <c r="IW19" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IX19" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -15949,8 +16006,11 @@
       <c r="IV20" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IW20" t="n">
+      <c r="IW20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IX20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16724,8 +16784,11 @@
       <c r="IV21" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW21" t="n">
+      <c r="IW21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IX21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17499,8 +17562,11 @@
       <c r="IV22" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW22" t="n">
+      <c r="IW22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="IX22" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18274,8 +18340,11 @@
       <c r="IV23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW23" t="n">
+      <c r="IW23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IX23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19049,8 +19118,11 @@
       <c r="IV24" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IW24" t="n">
+      <c r="IW24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IX24" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19824,8 +19896,11 @@
       <c r="IV25" s="2" t="n">
         <v>47.4</v>
       </c>
-      <c r="IW25" t="n">
+      <c r="IW25" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IX25" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20599,8 +20674,11 @@
       <c r="IV26" s="2" t="n">
         <v>42.22</v>
       </c>
-      <c r="IW26" t="n">
+      <c r="IW26" s="2" t="n">
         <v>35.73</v>
+      </c>
+      <c r="IX26" t="n">
+        <v>38.8</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21374,8 +21452,11 @@
       <c r="IV27" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IW27" t="n">
+      <c r="IW27" s="2" t="n">
         <v>19.65</v>
+      </c>
+      <c r="IX27" t="n">
+        <v>14.37</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22149,8 +22230,11 @@
       <c r="IV28" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IW28" t="n">
+      <c r="IW28" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IX28" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -22924,8 +23008,11 @@
       <c r="IV29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IW29" t="n">
+      <c r="IW29" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IX29" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23699,8 +23786,11 @@
       <c r="IV30" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IW30" t="n">
+      <c r="IW30" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IX30" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24474,8 +24564,11 @@
       <c r="IV31" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IW31" t="n">
+      <c r="IW31" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="IX31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25249,8 +25342,11 @@
       <c r="IV32" s="2" t="n">
         <v>2.84</v>
       </c>
-      <c r="IW32" t="n">
+      <c r="IW32" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="IX32" t="n">
+        <v>1.93</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26024,8 +26120,11 @@
       <c r="IV33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW33" t="n">
+      <c r="IW33" s="2" t="n">
         <v>4.55</v>
+      </c>
+      <c r="IX33" t="n">
+        <v>5.2</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26799,8 +26898,11 @@
       <c r="IV34" s="2" t="n">
         <v>25.9</v>
       </c>
-      <c r="IW34" t="n">
+      <c r="IW34" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IX34" t="n">
+        <v>44.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27574,8 +27676,11 @@
       <c r="IV35" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="IW35" t="n">
+      <c r="IW35" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="IX35" t="n">
+        <v>19.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28349,8 +28454,11 @@
       <c r="IV36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="IW36" t="n">
+      <c r="IW36" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="IX36" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29124,8 +29232,11 @@
       <c r="IV37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="IW37" t="n">
+      <c r="IW37" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="IX37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -29899,8 +30010,11 @@
       <c r="IV38" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="IW38" t="n">
+      <c r="IW38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="IX38" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30674,8 +30788,11 @@
       <c r="IV39" s="2" t="n">
         <v>87.09999999999999</v>
       </c>
-      <c r="IW39" t="n">
+      <c r="IW39" s="2" t="n">
         <v>93.8</v>
+      </c>
+      <c r="IX39" t="n">
+        <v>92.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31449,7 +31566,10 @@
       <c r="IV40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IW40" t="n">
+      <c r="IW40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IX40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -32224,7 +32344,10 @@
       <c r="IV41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW41" t="n">
+      <c r="IW41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IX41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -32999,7 +33122,10 @@
       <c r="IV42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IW42" t="n">
+      <c r="IW42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IX42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33774,7 +33900,10 @@
       <c r="IV43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW43" t="n">
+      <c r="IW43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IX43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34549,8 +34678,11 @@
       <c r="IV44" s="2" t="n">
         <v>122</v>
       </c>
-      <c r="IW44" t="n">
+      <c r="IW44" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="IX44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35324,8 +35456,11 @@
       <c r="IV45" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="IW45" t="n">
+      <c r="IW45" s="2" t="n">
         <v>247</v>
+      </c>
+      <c r="IX45" t="n">
+        <v>233</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36099,8 +36234,11 @@
       <c r="IV46" s="2" t="n">
         <v>284</v>
       </c>
-      <c r="IW46" t="n">
+      <c r="IW46" s="2" t="n">
         <v>293</v>
+      </c>
+      <c r="IX46" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -36874,8 +37012,11 @@
       <c r="IV47" s="2" t="n">
         <v>74.7</v>
       </c>
-      <c r="IW47" t="n">
+      <c r="IW47" s="2" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="IX47" t="n">
+        <v>71.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37649,8 +37790,11 @@
       <c r="IV48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IW48" t="n">
+      <c r="IW48" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="IX48" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38424,8 +38568,11 @@
       <c r="IV49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW49" t="n">
+      <c r="IW49" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IX49" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39199,8 +39346,11 @@
       <c r="IV50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IW50" t="n">
+      <c r="IW50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IX50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -39974,8 +40124,11 @@
       <c r="IV51" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="IW51" t="n">
+      <c r="IW51" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IX51" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40749,8 +40902,11 @@
       <c r="IV52" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="IW52" t="n">
+      <c r="IW52" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="IX52" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -41524,7 +41680,10 @@
       <c r="IV53" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IW53" t="n">
+      <c r="IW53" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="IX53" t="n">
         <v>58</v>
       </c>
     </row>
@@ -42299,8 +42458,11 @@
       <c r="IV54" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW54" t="n">
+      <c r="IW54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IX54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -43074,8 +43236,11 @@
       <c r="IV55" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IW55" t="n">
+      <c r="IW55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IX55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -43849,8 +44014,11 @@
       <c r="IV56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="IW56" t="n">
+      <c r="IW56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IX56" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44624,8 +44792,11 @@
       <c r="IV57" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="IW57" t="n">
+      <c r="IW57" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="IX57" t="n">
+        <v>201</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45399,8 +45570,11 @@
       <c r="IV58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="IW58" t="n">
+      <c r="IW58" s="2" t="n">
         <v>158</v>
+      </c>
+      <c r="IX58" t="n">
+        <v>178</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -46174,8 +46348,11 @@
       <c r="IV59" s="2" t="n">
         <v>397</v>
       </c>
-      <c r="IW59" t="n">
+      <c r="IW59" s="2" t="n">
         <v>381</v>
+      </c>
+      <c r="IX59" t="n">
+        <v>379</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -46949,8 +47126,11 @@
       <c r="IV60" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="IW60" t="n">
+      <c r="IW60" s="2" t="n">
         <v>1.41</v>
+      </c>
+      <c r="IX60" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -47724,8 +47904,11 @@
       <c r="IV61" s="2" t="n">
         <v>97</v>
       </c>
-      <c r="IW61" t="n">
+      <c r="IW61" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="IX61" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -48499,8 +48682,11 @@
       <c r="IV62" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IW62" t="n">
+      <c r="IW62" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IX62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -49274,8 +49460,11 @@
       <c r="IV63" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IW63" t="n">
+      <c r="IW63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IX63" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -50049,8 +50238,11 @@
       <c r="IV64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="IW64" t="n">
+      <c r="IW64" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IX64" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -50824,8 +51016,11 @@
       <c r="IV65" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IW65" t="n">
+      <c r="IW65" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IX65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -51599,7 +51794,10 @@
       <c r="IV66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IW66" t="n">
+      <c r="IW66" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IX66" t="n">
         <v>11</v>
       </c>
     </row>
@@ -52374,8 +52572,11 @@
       <c r="IV67" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW67" t="n">
+      <c r="IW67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IX67" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -53149,8 +53350,11 @@
       <c r="IV68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="IW68" t="n">
+      <c r="IW68" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="IX68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -53924,8 +54128,11 @@
       <c r="IV69" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW69" t="n">
+      <c r="IW69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IX69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -54699,8 +54906,11 @@
       <c r="IV70" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="IW70" t="n">
+      <c r="IW70" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="IX70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -55474,8 +55684,11 @@
       <c r="IV71" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="IW71" t="n">
+      <c r="IW71" s="2" t="n">
         <v>33.3</v>
+      </c>
+      <c r="IX71" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -56249,8 +56462,11 @@
       <c r="IV72" s="2" t="n">
         <v>44.11</v>
       </c>
-      <c r="IW72" t="n">
+      <c r="IW72" s="2" t="n">
         <v>34.64</v>
+      </c>
+      <c r="IX72" t="n">
+        <v>34.45</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -57024,8 +57240,11 @@
       <c r="IV73" s="2" t="n">
         <v>13.69</v>
       </c>
-      <c r="IW73" t="n">
+      <c r="IW73" s="2" t="n">
         <v>11.55</v>
+      </c>
+      <c r="IX73" t="n">
+        <v>18.95</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -57799,8 +58018,11 @@
       <c r="IV74" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IW74" t="n">
+      <c r="IW74" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IX74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -58574,8 +58796,11 @@
       <c r="IV75" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IW75" t="n">
+      <c r="IW75" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IX75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -59349,8 +59574,11 @@
       <c r="IV76" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IW76" t="n">
+      <c r="IW76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IX76" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -60124,8 +60352,11 @@
       <c r="IV77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IW77" t="n">
+      <c r="IW77" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IX77" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -60899,8 +61130,11 @@
       <c r="IV78" s="2" t="n">
         <v>2.1</v>
       </c>
-      <c r="IW78" t="n">
+      <c r="IW78" s="2" t="n">
         <v>1.85</v>
+      </c>
+      <c r="IX78" t="n">
+        <v>2.65</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -61674,8 +61908,11 @@
       <c r="IV79" s="2" t="n">
         <v>6.78</v>
       </c>
-      <c r="IW79" t="n">
+      <c r="IW79" s="2" t="n">
         <v>5.55</v>
+      </c>
+      <c r="IX79" t="n">
+        <v>4.82</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -62449,8 +62686,11 @@
       <c r="IV80" s="2" t="n">
         <v>34.4</v>
       </c>
-      <c r="IW80" t="n">
+      <c r="IW80" s="2" t="n">
         <v>49.2</v>
+      </c>
+      <c r="IX80" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -63224,8 +63464,11 @@
       <c r="IV81" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="IW81" t="n">
+      <c r="IW81" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IX81" t="n">
+        <v>20.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -63999,8 +64242,11 @@
       <c r="IV82" s="2" t="n">
         <v>188.4</v>
       </c>
-      <c r="IW82" t="n">
+      <c r="IW82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="IX82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -64774,8 +65020,11 @@
       <c r="IV83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="IW83" t="n">
+      <c r="IW83" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="IX83" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -65549,8 +65798,11 @@
       <c r="IV84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="IW84" t="n">
+      <c r="IW84" s="2" t="n">
         <v>25.24</v>
+      </c>
+      <c r="IX84" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -66324,8 +66576,11 @@
       <c r="IV85" s="2" t="n">
         <v>86.8</v>
       </c>
-      <c r="IW85" t="n">
+      <c r="IW85" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="IX85" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -67099,8 +67354,11 @@
       <c r="IV86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IW86" t="n">
+      <c r="IW86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IX86" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -67874,8 +68132,11 @@
       <c r="IV87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IW87" t="n">
+      <c r="IW87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="IX87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -68649,7 +68910,10 @@
       <c r="IV88" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW88" t="n">
+      <c r="IW88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IX88" t="n">
         <v>4</v>
       </c>
     </row>
@@ -69424,8 +69688,11 @@
       <c r="IV89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IW89" t="n">
+      <c r="IW89" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IX89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -70199,8 +70466,11 @@
       <c r="IV90" s="2" t="n">
         <v>147</v>
       </c>
-      <c r="IW90" t="n">
+      <c r="IW90" s="2" t="n">
         <v>148</v>
+      </c>
+      <c r="IX90" t="n">
+        <v>153</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -70974,8 +71244,11 @@
       <c r="IV91" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="IW91" t="n">
+      <c r="IW91" s="2" t="n">
         <v>231</v>
+      </c>
+      <c r="IX91" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -71749,8 +72022,11 @@
       <c r="IV92" s="2" t="n">
         <v>299</v>
       </c>
-      <c r="IW92" t="n">
+      <c r="IW92" s="2" t="n">
         <v>281</v>
+      </c>
+      <c r="IX92" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -72524,8 +72800,11 @@
       <c r="IV93" s="2" t="n">
         <v>75.3</v>
       </c>
-      <c r="IW93" t="n">
+      <c r="IW93" s="2" t="n">
         <v>73.8</v>
+      </c>
+      <c r="IX93" t="n">
+        <v>70.2</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -73299,8 +73578,11 @@
       <c r="IV94" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IW94" t="n">
+      <c r="IW94" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IX94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -74074,8 +74356,11 @@
       <c r="IV95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IW95" t="n">
+      <c r="IW95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IX95" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -74849,8 +75134,11 @@
       <c r="IV96" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IW96" t="n">
+      <c r="IW96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IX96" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -75624,8 +75912,11 @@
       <c r="IV97" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="IW97" t="n">
+      <c r="IW97" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IX97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -76399,8 +76690,11 @@
       <c r="IV98" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="IW98" t="n">
+      <c r="IW98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="IX98" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -77174,8 +77468,11 @@
       <c r="IV99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="IW99" t="n">
+      <c r="IW99" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="IX99" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -77949,8 +78246,11 @@
       <c r="IV100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IW100" t="n">
+      <c r="IW100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="IX100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -78724,8 +79024,11 @@
       <c r="IV101" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IW101" t="n">
+      <c r="IW101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IX101" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -79499,8 +79802,11 @@
       <c r="IV102" s="2" t="n">
         <v>55.6</v>
       </c>
-      <c r="IW102" t="n">
+      <c r="IW102" s="2" t="n">
         <v>90.90000000000001</v>
+      </c>
+      <c r="IX102" t="n">
+        <v>81.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:IX102"/>
+  <dimension ref="A1:JA102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1227,8 +1227,17 @@
       <c r="IW1" s="2" t="n">
         <v>10784</v>
       </c>
-      <c r="IX1" t="n">
+      <c r="IX1" s="2" t="n">
         <v>10960</v>
+      </c>
+      <c r="IY1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="IZ1" s="2" t="n">
+        <v>10798</v>
+      </c>
+      <c r="JA1" t="n">
+        <v>10798</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2005,7 +2014,16 @@
       <c r="IW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="IX2" t="n">
+      <c r="IX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="IY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="IZ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JA2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2783,8 +2801,17 @@
       <c r="IW3" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX3" t="n">
+      <c r="IX3" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="IY3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="IZ3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JA3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3561,7 +3588,16 @@
       <c r="IW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX4" t="n">
+      <c r="IX4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IY4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4339,8 +4375,17 @@
       <c r="IW5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX5" t="n">
+      <c r="IX5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="IY5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="1">
@@ -5117,8 +5162,17 @@
       <c r="IW6" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="IX6" t="n">
+      <c r="IX6" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="IY6" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="IZ6" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="JA6" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -5895,8 +5949,17 @@
       <c r="IW7" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="IX7" t="n">
+      <c r="IX7" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="IY7" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="IZ7" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="JA7" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6673,8 +6736,17 @@
       <c r="IW8" s="2" t="n">
         <v>-13</v>
       </c>
-      <c r="IX8" t="n">
+      <c r="IX8" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IY8" s="2" t="n">
+        <v>-21</v>
+      </c>
+      <c r="IZ8" s="2" t="n">
+        <v>-21</v>
+      </c>
+      <c r="JA8" t="n">
+        <v>-21</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7451,8 +7523,17 @@
       <c r="IW9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="IX9" t="n">
+      <c r="IX9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="IY9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="IZ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JA9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8229,8 +8310,17 @@
       <c r="IW10" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX10" t="n">
+      <c r="IX10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IY10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA10" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9007,8 +9097,17 @@
       <c r="IW11" s="2" t="n">
         <v>235</v>
       </c>
-      <c r="IX11" t="n">
+      <c r="IX11" s="2" t="n">
         <v>213</v>
+      </c>
+      <c r="IY11" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="IZ11" s="2" t="n">
+        <v>220</v>
+      </c>
+      <c r="JA11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -9785,8 +9884,17 @@
       <c r="IW12" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="IX12" t="n">
+      <c r="IX12" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="IY12" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="IZ12" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="JA12" t="n">
+        <v>194</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10563,8 +10671,17 @@
       <c r="IW13" s="2" t="n">
         <v>393</v>
       </c>
-      <c r="IX13" t="n">
+      <c r="IX13" s="2" t="n">
         <v>388</v>
+      </c>
+      <c r="IY13" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="IZ13" s="2" t="n">
+        <v>414</v>
+      </c>
+      <c r="JA13" t="n">
+        <v>414</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11341,8 +11458,17 @@
       <c r="IW14" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="IX14" t="n">
+      <c r="IX14" s="2" t="n">
         <v>1.22</v>
+      </c>
+      <c r="IY14" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="IZ14" s="2" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="JA14" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12119,8 +12245,17 @@
       <c r="IW15" s="2" t="n">
         <v>111</v>
       </c>
-      <c r="IX15" t="n">
+      <c r="IX15" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="IY15" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="IZ15" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="JA15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -12897,8 +13032,17 @@
       <c r="IW16" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="IX16" t="n">
+      <c r="IX16" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="IY16" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="IZ16" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="JA16" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -13675,8 +13819,17 @@
       <c r="IW17" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="IX17" t="n">
+      <c r="IX17" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IY17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="IZ17" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JA17" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14453,8 +14606,17 @@
       <c r="IW18" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX18" t="n">
+      <c r="IX18" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IY18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15231,8 +15393,17 @@
       <c r="IW19" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX19" t="n">
+      <c r="IX19" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IY19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA19" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16009,8 +16180,17 @@
       <c r="IW20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX20" t="n">
+      <c r="IX20" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IY20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="IZ20" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="JA20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -16787,8 +16967,17 @@
       <c r="IW21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX21" t="n">
+      <c r="IX21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -17565,8 +17754,17 @@
       <c r="IW22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="IX22" t="n">
+      <c r="IX22" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IY22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IZ22" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -18343,8 +18541,17 @@
       <c r="IW23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="IX23" t="n">
+      <c r="IX23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ23" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19121,8 +19328,17 @@
       <c r="IW24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="IX24" t="n">
+      <c r="IX24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="IY24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="IZ24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JA24" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="1">
@@ -19899,8 +20115,17 @@
       <c r="IW25" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IX25" t="n">
+      <c r="IX25" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="IY25" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="IZ25" s="2" t="n">
+        <v>59.1</v>
+      </c>
+      <c r="JA25" t="n">
+        <v>59.1</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -20677,8 +20902,17 @@
       <c r="IW26" s="2" t="n">
         <v>35.73</v>
       </c>
-      <c r="IX26" t="n">
+      <c r="IX26" s="2" t="n">
         <v>38.8</v>
+      </c>
+      <c r="IY26" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="IZ26" s="2" t="n">
+        <v>31.85</v>
+      </c>
+      <c r="JA26" t="n">
+        <v>31.85</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -21455,8 +21689,17 @@
       <c r="IW27" s="2" t="n">
         <v>19.65</v>
       </c>
-      <c r="IX27" t="n">
+      <c r="IX27" s="2" t="n">
         <v>14.37</v>
+      </c>
+      <c r="IY27" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="IZ27" s="2" t="n">
+        <v>18.82</v>
+      </c>
+      <c r="JA27" t="n">
+        <v>18.82</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -22233,8 +22476,17 @@
       <c r="IW28" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX28" t="n">
+      <c r="IX28" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IY28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IZ28" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23011,8 +23263,17 @@
       <c r="IW29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IX29" t="n">
+      <c r="IX29" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IY29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IZ29" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JA29" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -23789,8 +24050,17 @@
       <c r="IW30" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IX30" t="n">
+      <c r="IX30" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IY30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IZ30" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JA30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -24567,8 +24837,17 @@
       <c r="IW31" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="IX31" t="n">
+      <c r="IX31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="IY31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="IZ31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="JA31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -25345,8 +25624,17 @@
       <c r="IW32" s="2" t="n">
         <v>2.5</v>
       </c>
-      <c r="IX32" t="n">
+      <c r="IX32" s="2" t="n">
         <v>1.93</v>
+      </c>
+      <c r="IY32" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="IZ32" s="2" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="JA32" t="n">
+        <v>2.32</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -26123,8 +26411,17 @@
       <c r="IW33" s="2" t="n">
         <v>4.55</v>
       </c>
-      <c r="IX33" t="n">
+      <c r="IX33" s="2" t="n">
         <v>5.2</v>
+      </c>
+      <c r="IY33" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="IZ33" s="2" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="JA33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -26901,8 +27198,17 @@
       <c r="IW34" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IX34" t="n">
+      <c r="IX34" s="2" t="n">
         <v>44.2</v>
+      </c>
+      <c r="IY34" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="IZ34" s="2" t="n">
+        <v>41.2</v>
+      </c>
+      <c r="JA34" t="n">
+        <v>41.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -27679,8 +27985,17 @@
       <c r="IW35" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="IX35" t="n">
+      <c r="IX35" s="2" t="n">
         <v>19.2</v>
+      </c>
+      <c r="IY35" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="IZ35" s="2" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="JA35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -28457,8 +28772,17 @@
       <c r="IW36" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="IX36" t="n">
+      <c r="IX36" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="IY36" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="IZ36" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="JA36" t="n">
+        <v>188.2</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -29235,8 +29559,17 @@
       <c r="IW37" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="IX37" t="n">
+      <c r="IX37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="IY37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="IZ37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JA37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="1">
@@ -30013,8 +30346,17 @@
       <c r="IW38" s="2" t="n">
         <v>25.66</v>
       </c>
-      <c r="IX38" t="n">
+      <c r="IX38" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="IY38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="IZ38" s="2" t="n">
+        <v>25.33</v>
+      </c>
+      <c r="JA38" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -30791,8 +31133,17 @@
       <c r="IW39" s="2" t="n">
         <v>93.8</v>
       </c>
-      <c r="IX39" t="n">
+      <c r="IX39" s="2" t="n">
         <v>92.40000000000001</v>
+      </c>
+      <c r="IY39" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="IZ39" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="JA39" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -31569,7 +31920,16 @@
       <c r="IW40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX40" t="n">
+      <c r="IX40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA40" t="n">
         <v>9</v>
       </c>
     </row>
@@ -32347,7 +32707,16 @@
       <c r="IW41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="IX41" t="n">
+      <c r="IX41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IY41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -33125,7 +33494,16 @@
       <c r="IW42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="IX42" t="n">
+      <c r="IX42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IY42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -33903,7 +34281,16 @@
       <c r="IW43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IX43" t="n">
+      <c r="IX43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IY43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA43" t="n">
         <v>7</v>
       </c>
     </row>
@@ -34681,8 +35068,17 @@
       <c r="IW44" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="IX44" t="n">
+      <c r="IX44" s="2" t="n">
         <v>143</v>
+      </c>
+      <c r="IY44" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="IZ44" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="JA44" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -35459,8 +35855,17 @@
       <c r="IW45" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="IX45" t="n">
+      <c r="IX45" s="2" t="n">
         <v>233</v>
+      </c>
+      <c r="IY45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="IZ45" s="2" t="n">
+        <v>257</v>
+      </c>
+      <c r="JA45" t="n">
+        <v>257</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -36237,8 +36642,17 @@
       <c r="IW46" s="2" t="n">
         <v>293</v>
       </c>
-      <c r="IX46" t="n">
+      <c r="IX46" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="IY46" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="IZ46" s="2" t="n">
+        <v>296</v>
+      </c>
+      <c r="JA46" t="n">
+        <v>296</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -37015,8 +37429,17 @@
       <c r="IW47" s="2" t="n">
         <v>74.59999999999999</v>
       </c>
-      <c r="IX47" t="n">
+      <c r="IX47" s="2" t="n">
         <v>71.59999999999999</v>
+      </c>
+      <c r="IY47" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="IZ47" s="2" t="n">
+        <v>71.5</v>
+      </c>
+      <c r="JA47" t="n">
+        <v>71.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -37793,8 +38216,17 @@
       <c r="IW48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="IX48" t="n">
+      <c r="IX48" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="IY48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="IZ48" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="JA48" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -38571,8 +39003,17 @@
       <c r="IW49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX49" t="n">
+      <c r="IX49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="IY49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -39349,7 +39790,16 @@
       <c r="IW50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="IX50" t="n">
+      <c r="IX50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IY50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="IZ50" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="JA50" t="n">
         <v>12</v>
       </c>
     </row>
@@ -40127,8 +40577,17 @@
       <c r="IW51" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX51" t="n">
+      <c r="IX51" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="IY51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="IZ51" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="JA51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -40905,8 +41364,17 @@
       <c r="IW52" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="IX52" t="n">
+      <c r="IX52" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="IY52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="IZ52" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="JA52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -41683,8 +42151,17 @@
       <c r="IW53" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="IX53" t="n">
+      <c r="IX53" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="IY53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="IZ53" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="JA53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -42461,8 +42938,17 @@
       <c r="IW54" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="IX54" t="n">
+      <c r="IX54" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IY54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="IZ54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JA54" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -43239,8 +43725,17 @@
       <c r="IW55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX55" t="n">
+      <c r="IX55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -44017,8 +44512,17 @@
       <c r="IW56" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="IX56" t="n">
+      <c r="IX56" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="IY56" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="IZ56" s="2" t="n">
+        <v>76.90000000000001</v>
+      </c>
+      <c r="JA56" t="n">
+        <v>76.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -44795,8 +45299,17 @@
       <c r="IW57" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="IX57" t="n">
+      <c r="IX57" s="2" t="n">
         <v>201</v>
+      </c>
+      <c r="IY57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="IZ57" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="JA57" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -45573,8 +46086,17 @@
       <c r="IW58" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="IX58" t="n">
+      <c r="IX58" s="2" t="n">
         <v>178</v>
+      </c>
+      <c r="IY58" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="IZ58" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="JA58" t="n">
+        <v>109</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -46351,8 +46873,17 @@
       <c r="IW59" s="2" t="n">
         <v>381</v>
       </c>
-      <c r="IX59" t="n">
+      <c r="IX59" s="2" t="n">
         <v>379</v>
+      </c>
+      <c r="IY59" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="IZ59" s="2" t="n">
+        <v>317</v>
+      </c>
+      <c r="JA59" t="n">
+        <v>317</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -47129,8 +47660,17 @@
       <c r="IW60" s="2" t="n">
         <v>1.41</v>
       </c>
-      <c r="IX60" t="n">
+      <c r="IX60" s="2" t="n">
         <v>1.13</v>
+      </c>
+      <c r="IY60" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="IZ60" s="2" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="JA60" t="n">
+        <v>1.91</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -47907,8 +48447,17 @@
       <c r="IW61" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="IX61" t="n">
+      <c r="IX61" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="IY61" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="IZ61" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="JA61" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -48685,8 +49234,17 @@
       <c r="IW62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="IX62" t="n">
+      <c r="IX62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="IY62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="IZ62" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JA62" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -49463,8 +50021,17 @@
       <c r="IW63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="IX63" t="n">
+      <c r="IX63" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="IY63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IZ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JA63" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -50241,8 +50808,17 @@
       <c r="IW64" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX64" t="n">
+      <c r="IX64" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="IY64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="IZ64" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="JA64" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -51019,8 +51595,17 @@
       <c r="IW65" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX65" t="n">
+      <c r="IX65" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="IY65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="IZ65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="JA65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -51797,8 +52382,17 @@
       <c r="IW66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX66" t="n">
+      <c r="IX66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="IY66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="IZ66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JA66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="1">
@@ -52575,7 +53169,16 @@
       <c r="IW67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IX67" t="n">
+      <c r="IX67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ67" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA67" t="n">
         <v>9</v>
       </c>
     </row>
@@ -53353,8 +53956,17 @@
       <c r="IW68" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="IX68" t="n">
+      <c r="IX68" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="IY68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="IZ68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="JA68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -54131,8 +54743,17 @@
       <c r="IW69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="IX69" t="n">
+      <c r="IX69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="IY69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="IZ69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JA69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -54909,8 +55530,17 @@
       <c r="IW70" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="IX70" t="n">
+      <c r="IX70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="IY70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="IZ70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="JA70" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -55687,8 +56317,17 @@
       <c r="IW71" s="2" t="n">
         <v>33.3</v>
       </c>
-      <c r="IX71" t="n">
+      <c r="IX71" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="IY71" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="IZ71" s="2" t="n">
+        <v>57.1</v>
+      </c>
+      <c r="JA71" t="n">
+        <v>57.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -56465,8 +57104,17 @@
       <c r="IW72" s="2" t="n">
         <v>34.64</v>
       </c>
-      <c r="IX72" t="n">
+      <c r="IX72" s="2" t="n">
         <v>34.45</v>
+      </c>
+      <c r="IY72" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="IZ72" s="2" t="n">
+        <v>19.81</v>
+      </c>
+      <c r="JA72" t="n">
+        <v>19.81</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -57243,8 +57891,17 @@
       <c r="IW73" s="2" t="n">
         <v>11.55</v>
       </c>
-      <c r="IX73" t="n">
+      <c r="IX73" s="2" t="n">
         <v>18.95</v>
+      </c>
+      <c r="IY73" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="IZ73" s="2" t="n">
+        <v>11.32</v>
+      </c>
+      <c r="JA73" t="n">
+        <v>11.32</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -58021,8 +58678,17 @@
       <c r="IW74" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX74" t="n">
+      <c r="IX74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IY74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IZ74" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JA74" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -58799,8 +59465,17 @@
       <c r="IW75" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IX75" t="n">
+      <c r="IX75" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IY75" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ75" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA75" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -59577,8 +60252,17 @@
       <c r="IW76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IX76" t="n">
+      <c r="IX76" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IY76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IZ76" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JA76" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -60355,8 +61039,17 @@
       <c r="IW77" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="IX77" t="n">
+      <c r="IX77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="IY77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="IZ77" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="JA77" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -61133,8 +61826,17 @@
       <c r="IW78" s="2" t="n">
         <v>1.85</v>
       </c>
-      <c r="IX78" t="n">
+      <c r="IX78" s="2" t="n">
         <v>2.65</v>
+      </c>
+      <c r="IY78" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="IZ78" s="2" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="JA78" t="n">
+        <v>2.11</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -61911,8 +62613,17 @@
       <c r="IW79" s="2" t="n">
         <v>5.55</v>
       </c>
-      <c r="IX79" t="n">
+      <c r="IX79" s="2" t="n">
         <v>4.82</v>
+      </c>
+      <c r="IY79" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="IZ79" s="2" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="JA79" t="n">
+        <v>3.69</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -62689,8 +63400,17 @@
       <c r="IW80" s="2" t="n">
         <v>49.2</v>
       </c>
-      <c r="IX80" t="n">
+      <c r="IX80" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="IY80" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="IZ80" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="JA80" t="n">
+        <v>45.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -63467,8 +64187,17 @@
       <c r="IW81" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="IX81" t="n">
+      <c r="IX81" s="2" t="n">
         <v>20.8</v>
+      </c>
+      <c r="IY81" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="IZ81" s="2" t="n">
+        <v>27.1</v>
+      </c>
+      <c r="JA81" t="n">
+        <v>27.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -64245,8 +64974,17 @@
       <c r="IW82" s="2" t="n">
         <v>189.3</v>
       </c>
-      <c r="IX82" t="n">
+      <c r="IX82" s="2" t="n">
         <v>187.4</v>
+      </c>
+      <c r="IY82" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="IZ82" s="2" t="n">
+        <v>188.1</v>
+      </c>
+      <c r="JA82" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -65023,8 +65761,17 @@
       <c r="IW83" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="IX83" t="n">
+      <c r="IX83" s="2" t="n">
         <v>85.2</v>
+      </c>
+      <c r="IY83" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="IZ83" s="2" t="n">
+        <v>89.2</v>
+      </c>
+      <c r="JA83" t="n">
+        <v>89.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -65801,8 +66548,17 @@
       <c r="IW84" s="2" t="n">
         <v>25.24</v>
       </c>
-      <c r="IX84" t="n">
+      <c r="IX84" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="IY84" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="IZ84" s="2" t="n">
+        <v>26.66</v>
+      </c>
+      <c r="JA84" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -66579,8 +67335,17 @@
       <c r="IW85" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="IX85" t="n">
+      <c r="IX85" s="2" t="n">
         <v>71.5</v>
+      </c>
+      <c r="IY85" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="IZ85" s="2" t="n">
+        <v>124.1</v>
+      </c>
+      <c r="JA85" t="n">
+        <v>124.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -67357,8 +68122,17 @@
       <c r="IW86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX86" t="n">
+      <c r="IX86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="IY86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="IZ86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JA86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -68135,8 +68909,17 @@
       <c r="IW87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="IX87" t="n">
+      <c r="IX87" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="IZ87" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JA87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -68913,8 +69696,17 @@
       <c r="IW88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX88" t="n">
+      <c r="IX88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="IY88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="IZ88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JA88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -69691,8 +70483,17 @@
       <c r="IW89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="IX89" t="n">
+      <c r="IX89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IY89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="IZ89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JA89" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -70469,8 +71270,17 @@
       <c r="IW90" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="IX90" t="n">
+      <c r="IX90" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="IY90" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="IZ90" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="JA90" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -71247,8 +72057,17 @@
       <c r="IW91" s="2" t="n">
         <v>231</v>
       </c>
-      <c r="IX91" t="n">
+      <c r="IX91" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="IY91" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="IZ91" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="JA91" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -72025,8 +72844,17 @@
       <c r="IW92" s="2" t="n">
         <v>281</v>
       </c>
-      <c r="IX92" t="n">
+      <c r="IX92" s="2" t="n">
         <v>266</v>
+      </c>
+      <c r="IY92" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="IZ92" s="2" t="n">
+        <v>214</v>
+      </c>
+      <c r="JA92" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -72803,8 +73631,17 @@
       <c r="IW93" s="2" t="n">
         <v>73.8</v>
       </c>
-      <c r="IX93" t="n">
+      <c r="IX93" s="2" t="n">
         <v>70.2</v>
+      </c>
+      <c r="IY93" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="IZ93" s="2" t="n">
+        <v>67.5</v>
+      </c>
+      <c r="JA93" t="n">
+        <v>67.5</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -73581,8 +74418,17 @@
       <c r="IW94" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="IX94" t="n">
+      <c r="IX94" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="IY94" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="IZ94" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="JA94" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -74359,8 +75205,17 @@
       <c r="IW95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="IX95" t="n">
+      <c r="IX95" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="IY95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IZ95" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JA95" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -75137,8 +75992,17 @@
       <c r="IW96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="IX96" t="n">
+      <c r="IX96" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="IY96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="IZ96" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JA96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -75915,8 +76779,17 @@
       <c r="IW97" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="IX97" t="n">
+      <c r="IX97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="IY97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="IZ97" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="JA97" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -76693,8 +77566,17 @@
       <c r="IW98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="IX98" t="n">
+      <c r="IX98" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="IY98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="IZ98" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="JA98" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -77471,8 +78353,17 @@
       <c r="IW99" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="IX99" t="n">
+      <c r="IX99" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="IY99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="IZ99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="JA99" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -78249,8 +79140,17 @@
       <c r="IW100" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="IX100" t="n">
+      <c r="IX100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="IY100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="IZ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JA100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="1">
@@ -79027,7 +79927,16 @@
       <c r="IW101" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="IX101" t="n">
+      <c r="IX101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IY101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="IZ101" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JA101" t="n">
         <v>9</v>
       </c>
     </row>
@@ -79805,8 +80714,17 @@
       <c r="IW102" s="2" t="n">
         <v>90.90000000000001</v>
       </c>
-      <c r="IX102" t="n">
+      <c r="IX102" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="IY102" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="IZ102" s="2" t="n">
+        <v>56.2</v>
+      </c>
+      <c r="JA102" t="n">
+        <v>56.2</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -445,7 +445,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JH102"/>
+  <dimension ref="A1:JI102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="HR87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="HU104" activeCellId="0" sqref="HU104"/>
@@ -1257,8 +1257,11 @@
       <c r="JG1" s="2" t="n">
         <v>10798</v>
       </c>
-      <c r="JH1" t="n">
+      <c r="JH1" s="2" t="n">
         <v>10798</v>
+      </c>
+      <c r="JI1" t="n">
+        <v>10807</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="1">
@@ -2065,7 +2068,10 @@
       <c r="JG2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JH2" t="n">
+      <c r="JH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JI2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2873,8 +2879,11 @@
       <c r="JG3" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JH3" t="n">
+      <c r="JH3" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JI3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="1">
@@ -3681,8 +3690,11 @@
       <c r="JG4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JH4" t="n">
+      <c r="JH4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JI4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="1">
@@ -4489,7 +4501,10 @@
       <c r="JG5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JH5" t="n">
+      <c r="JH5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JI5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5297,8 +5312,11 @@
       <c r="JG6" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JH6" t="n">
+      <c r="JH6" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JI6" t="n">
+        <v>107</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="1">
@@ -6105,8 +6123,11 @@
       <c r="JG7" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="JH7" t="n">
+      <c r="JH7" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="JI7" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="1">
@@ -6913,8 +6934,11 @@
       <c r="JG8" s="2" t="n">
         <v>-21</v>
       </c>
-      <c r="JH8" t="n">
+      <c r="JH8" s="2" t="n">
         <v>-21</v>
+      </c>
+      <c r="JI8" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="1">
@@ -7721,8 +7745,11 @@
       <c r="JG9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JH9" t="n">
+      <c r="JH9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JI9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="1">
@@ -8529,8 +8556,11 @@
       <c r="JG10" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JH10" t="n">
+      <c r="JH10" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JI10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="1">
@@ -9337,8 +9367,11 @@
       <c r="JG11" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JH11" t="n">
+      <c r="JH11" s="2" t="n">
         <v>220</v>
+      </c>
+      <c r="JI11" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="1">
@@ -10145,8 +10178,11 @@
       <c r="JG12" s="2" t="n">
         <v>194</v>
       </c>
-      <c r="JH12" t="n">
+      <c r="JH12" s="2" t="n">
         <v>194</v>
+      </c>
+      <c r="JI12" t="n">
+        <v>168</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="1">
@@ -10953,8 +10989,11 @@
       <c r="JG13" s="2" t="n">
         <v>414</v>
       </c>
-      <c r="JH13" t="n">
+      <c r="JH13" s="2" t="n">
         <v>414</v>
+      </c>
+      <c r="JI13" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="1">
@@ -11761,8 +11800,11 @@
       <c r="JG14" s="2" t="n">
         <v>1.13</v>
       </c>
-      <c r="JH14" t="n">
+      <c r="JH14" s="2" t="n">
         <v>1.13</v>
+      </c>
+      <c r="JI14" t="n">
+        <v>1.29</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="1">
@@ -12569,8 +12611,11 @@
       <c r="JG15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JH15" t="n">
+      <c r="JH15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JI15" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="1">
@@ -13377,8 +13422,11 @@
       <c r="JG16" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JH16" t="n">
+      <c r="JH16" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JI16" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="1">
@@ -14185,8 +14233,11 @@
       <c r="JG17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JH17" t="n">
+      <c r="JH17" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JI17" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="1">
@@ -14993,8 +15044,11 @@
       <c r="JG18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JH18" t="n">
+      <c r="JH18" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JI18" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="1">
@@ -15801,8 +15855,11 @@
       <c r="JG19" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JH19" t="n">
+      <c r="JH19" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JI19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="1">
@@ -16609,8 +16666,11 @@
       <c r="JG20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JH20" t="n">
+      <c r="JH20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JI20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="1">
@@ -17417,8 +17477,11 @@
       <c r="JG21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JH21" t="n">
+      <c r="JH21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JI21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="1">
@@ -18225,8 +18288,11 @@
       <c r="JG22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JH22" t="n">
+      <c r="JH22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JI22" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="1">
@@ -19033,8 +19099,11 @@
       <c r="JG23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JH23" t="n">
+      <c r="JH23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JI23" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="1">
@@ -19841,7 +19910,10 @@
       <c r="JG24" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JH24" t="n">
+      <c r="JH24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="JI24" t="n">
         <v>22</v>
       </c>
     </row>
@@ -20649,8 +20721,11 @@
       <c r="JG25" s="2" t="n">
         <v>59.1</v>
       </c>
-      <c r="JH25" t="n">
+      <c r="JH25" s="2" t="n">
         <v>59.1</v>
+      </c>
+      <c r="JI25" t="n">
+        <v>77.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="1">
@@ -21457,8 +21532,11 @@
       <c r="JG26" s="2" t="n">
         <v>31.85</v>
       </c>
-      <c r="JH26" t="n">
+      <c r="JH26" s="2" t="n">
         <v>31.85</v>
+      </c>
+      <c r="JI26" t="n">
+        <v>22.65</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="1">
@@ -22265,8 +22343,11 @@
       <c r="JG27" s="2" t="n">
         <v>18.82</v>
       </c>
-      <c r="JH27" t="n">
+      <c r="JH27" s="2" t="n">
         <v>18.82</v>
+      </c>
+      <c r="JI27" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="1">
@@ -23073,8 +23154,11 @@
       <c r="JG28" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JH28" t="n">
+      <c r="JH28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JI28" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="1">
@@ -23881,8 +23965,11 @@
       <c r="JG29" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JH29" t="n">
+      <c r="JH29" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JI29" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="1">
@@ -24689,8 +24776,11 @@
       <c r="JG30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JH30" t="n">
+      <c r="JH30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JI30" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="1">
@@ -25497,8 +25587,11 @@
       <c r="JG31" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JH31" t="n">
+      <c r="JH31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JI31" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="1">
@@ -26305,8 +26398,11 @@
       <c r="JG32" s="2" t="n">
         <v>2.32</v>
       </c>
-      <c r="JH32" t="n">
+      <c r="JH32" s="2" t="n">
         <v>2.32</v>
+      </c>
+      <c r="JI32" t="n">
+        <v>2.18</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="1">
@@ -27113,8 +27209,11 @@
       <c r="JG33" s="2" t="n">
         <v>3.92</v>
       </c>
-      <c r="JH33" t="n">
+      <c r="JH33" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="JI33" t="n">
+        <v>2.82</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="1">
@@ -27921,8 +28020,11 @@
       <c r="JG34" s="2" t="n">
         <v>41.2</v>
       </c>
-      <c r="JH34" t="n">
+      <c r="JH34" s="2" t="n">
         <v>41.2</v>
+      </c>
+      <c r="JI34" t="n">
+        <v>39.6</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="1">
@@ -28729,8 +28831,11 @@
       <c r="JG35" s="2" t="n">
         <v>25.5</v>
       </c>
-      <c r="JH35" t="n">
+      <c r="JH35" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="JI35" t="n">
+        <v>35.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="1">
@@ -29537,8 +29642,11 @@
       <c r="JG36" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="JH36" t="n">
+      <c r="JH36" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JI36" t="n">
+        <v>187.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="1">
@@ -30345,7 +30453,10 @@
       <c r="JG37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="JH37" t="n">
+      <c r="JH37" s="2" t="n">
+        <v>86.7</v>
+      </c>
+      <c r="JI37" t="n">
         <v>86.7</v>
       </c>
     </row>
@@ -31153,8 +31264,11 @@
       <c r="JG38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JH38" t="n">
+      <c r="JH38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JI38" t="n">
+        <v>24.49</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="1">
@@ -31961,8 +32075,11 @@
       <c r="JG39" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JH39" t="n">
+      <c r="JH39" s="2" t="n">
         <v>94</v>
+      </c>
+      <c r="JI39" t="n">
+        <v>76.2</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="1">
@@ -32769,8 +32886,11 @@
       <c r="JG40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JH40" t="n">
+      <c r="JH40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JI40" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="1">
@@ -33577,7 +33697,10 @@
       <c r="JG41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JH41" t="n">
+      <c r="JH41" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JI41" t="n">
         <v>5</v>
       </c>
     </row>
@@ -34385,7 +34508,10 @@
       <c r="JG42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JH42" t="n">
+      <c r="JH42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JI42" t="n">
         <v>2</v>
       </c>
     </row>
@@ -35193,8 +35319,11 @@
       <c r="JG43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JH43" t="n">
+      <c r="JH43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JI43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="1">
@@ -36001,8 +36130,11 @@
       <c r="JG44" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="JH44" t="n">
+      <c r="JH44" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="JI44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="1">
@@ -36809,8 +36941,11 @@
       <c r="JG45" s="2" t="n">
         <v>257</v>
       </c>
-      <c r="JH45" t="n">
+      <c r="JH45" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="JI45" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="1">
@@ -37617,8 +37752,11 @@
       <c r="JG46" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="JH46" t="n">
+      <c r="JH46" s="2" t="n">
         <v>296</v>
+      </c>
+      <c r="JI46" t="n">
+        <v>287</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="1">
@@ -38425,8 +38563,11 @@
       <c r="JG47" s="2" t="n">
         <v>71.5</v>
       </c>
-      <c r="JH47" t="n">
+      <c r="JH47" s="2" t="n">
         <v>71.5</v>
+      </c>
+      <c r="JI47" t="n">
+        <v>74.5</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="1">
@@ -39233,8 +39374,11 @@
       <c r="JG48" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JH48" t="n">
+      <c r="JH48" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JI48" t="n">
+        <v>66</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="1">
@@ -40041,8 +40185,11 @@
       <c r="JG49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JH49" t="n">
+      <c r="JH49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JI49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="1">
@@ -40849,8 +40996,11 @@
       <c r="JG50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JH50" t="n">
+      <c r="JH50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JI50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="1">
@@ -41657,8 +41807,11 @@
       <c r="JG51" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JH51" t="n">
+      <c r="JH51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JI51" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="1">
@@ -42465,8 +42618,11 @@
       <c r="JG52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JH52" t="n">
+      <c r="JH52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JI52" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="1">
@@ -43273,8 +43429,11 @@
       <c r="JG53" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JH53" t="n">
+      <c r="JH53" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JI53" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="1">
@@ -44081,8 +44240,11 @@
       <c r="JG54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JH54" t="n">
+      <c r="JH54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JI54" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="1">
@@ -44889,8 +45051,11 @@
       <c r="JG55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JH55" t="n">
+      <c r="JH55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JI55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="1">
@@ -45697,8 +45862,11 @@
       <c r="JG56" s="2" t="n">
         <v>76.90000000000001</v>
       </c>
-      <c r="JH56" t="n">
+      <c r="JH56" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="JI56" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="1">
@@ -46505,8 +46673,11 @@
       <c r="JG57" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JH57" t="n">
+      <c r="JH57" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="JI57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="1">
@@ -47313,8 +47484,11 @@
       <c r="JG58" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="JH58" t="n">
+      <c r="JH58" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="JI58" t="n">
+        <v>135</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="1">
@@ -48121,8 +48295,11 @@
       <c r="JG59" s="2" t="n">
         <v>317</v>
       </c>
-      <c r="JH59" t="n">
+      <c r="JH59" s="2" t="n">
         <v>317</v>
+      </c>
+      <c r="JI59" t="n">
+        <v>353</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="1">
@@ -48929,8 +49106,11 @@
       <c r="JG60" s="2" t="n">
         <v>1.91</v>
       </c>
-      <c r="JH60" t="n">
+      <c r="JH60" s="2" t="n">
         <v>1.91</v>
+      </c>
+      <c r="JI60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="1">
@@ -49737,8 +49917,11 @@
       <c r="JG61" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JH61" t="n">
+      <c r="JH61" s="2" t="n">
         <v>84</v>
+      </c>
+      <c r="JI61" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="1">
@@ -50545,8 +50728,11 @@
       <c r="JG62" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JH62" t="n">
+      <c r="JH62" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JI62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="1">
@@ -51353,8 +51539,11 @@
       <c r="JG63" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JH63" t="n">
+      <c r="JH63" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JI63" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="1">
@@ -52161,8 +52350,11 @@
       <c r="JG64" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JH64" t="n">
+      <c r="JH64" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JI64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="1">
@@ -52969,8 +53161,11 @@
       <c r="JG65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JH65" t="n">
+      <c r="JH65" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JI65" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="1">
@@ -53777,7 +53972,10 @@
       <c r="JG66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JH66" t="n">
+      <c r="JH66" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="JI66" t="n">
         <v>16</v>
       </c>
     </row>
@@ -54585,8 +54783,11 @@
       <c r="JG67" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JH67" t="n">
+      <c r="JH67" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JI67" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="1">
@@ -55393,8 +55594,11 @@
       <c r="JG68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JH68" t="n">
+      <c r="JH68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JI68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="1">
@@ -56201,8 +56405,11 @@
       <c r="JG69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JH69" t="n">
+      <c r="JH69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JI69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="1">
@@ -57009,8 +57216,11 @@
       <c r="JG70" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JH70" t="n">
+      <c r="JH70" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JI70" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="1">
@@ -57817,8 +58027,11 @@
       <c r="JG71" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="JH71" t="n">
+      <c r="JH71" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JI71" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="1">
@@ -58625,8 +58838,11 @@
       <c r="JG72" s="2" t="n">
         <v>19.81</v>
       </c>
-      <c r="JH72" t="n">
+      <c r="JH72" s="2" t="n">
         <v>19.81</v>
+      </c>
+      <c r="JI72" t="n">
+        <v>22.06</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="1">
@@ -59433,8 +59649,11 @@
       <c r="JG73" s="2" t="n">
         <v>11.32</v>
       </c>
-      <c r="JH73" t="n">
+      <c r="JH73" s="2" t="n">
         <v>11.32</v>
+      </c>
+      <c r="JI73" t="n">
+        <v>13.58</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="1">
@@ -60241,8 +60460,11 @@
       <c r="JG74" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JH74" t="n">
+      <c r="JH74" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JI74" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="1">
@@ -61049,8 +61271,11 @@
       <c r="JG75" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JH75" t="n">
+      <c r="JH75" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JI75" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="1">
@@ -61857,8 +62082,11 @@
       <c r="JG76" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JH76" t="n">
+      <c r="JH76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JI76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="1">
@@ -62665,8 +62893,11 @@
       <c r="JG77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JH77" t="n">
+      <c r="JH77" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="JI77" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="1">
@@ -63473,8 +63704,11 @@
       <c r="JG78" s="2" t="n">
         <v>2.11</v>
       </c>
-      <c r="JH78" t="n">
+      <c r="JH78" s="2" t="n">
         <v>2.11</v>
+      </c>
+      <c r="JI78" t="n">
+        <v>2.42</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="1">
@@ -64281,8 +64515,11 @@
       <c r="JG79" s="2" t="n">
         <v>3.69</v>
       </c>
-      <c r="JH79" t="n">
+      <c r="JH79" s="2" t="n">
         <v>3.69</v>
+      </c>
+      <c r="JI79" t="n">
+        <v>3.94</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="1">
@@ -65089,8 +65326,11 @@
       <c r="JG80" s="2" t="n">
         <v>45.8</v>
       </c>
-      <c r="JH80" t="n">
+      <c r="JH80" s="2" t="n">
         <v>45.8</v>
+      </c>
+      <c r="JI80" t="n">
+        <v>36.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="1">
@@ -65897,8 +66137,11 @@
       <c r="JG81" s="2" t="n">
         <v>27.1</v>
       </c>
-      <c r="JH81" t="n">
+      <c r="JH81" s="2" t="n">
         <v>27.1</v>
+      </c>
+      <c r="JI81" t="n">
+        <v>25.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="1">
@@ -66705,8 +66948,11 @@
       <c r="JG82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="JH82" t="n">
+      <c r="JH82" s="2" t="n">
         <v>188.1</v>
+      </c>
+      <c r="JI82" t="n">
+        <v>186.8</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="1">
@@ -67513,8 +67759,11 @@
       <c r="JG83" s="2" t="n">
         <v>89.2</v>
       </c>
-      <c r="JH83" t="n">
+      <c r="JH83" s="2" t="n">
         <v>89.2</v>
+      </c>
+      <c r="JI83" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="1">
@@ -68321,8 +68570,11 @@
       <c r="JG84" s="2" t="n">
         <v>26.66</v>
       </c>
-      <c r="JH84" t="n">
+      <c r="JH84" s="2" t="n">
         <v>26.66</v>
+      </c>
+      <c r="JI84" t="n">
+        <v>24.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="1">
@@ -69129,8 +69381,11 @@
       <c r="JG85" s="2" t="n">
         <v>124.1</v>
       </c>
-      <c r="JH85" t="n">
+      <c r="JH85" s="2" t="n">
         <v>124.1</v>
+      </c>
+      <c r="JI85" t="n">
+        <v>103</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="1">
@@ -69937,8 +70192,11 @@
       <c r="JG86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JH86" t="n">
+      <c r="JH86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JI86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="1">
@@ -70745,8 +71003,11 @@
       <c r="JG87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JH87" t="n">
+      <c r="JH87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JI87" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="1">
@@ -71553,8 +71814,11 @@
       <c r="JG88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JH88" t="n">
+      <c r="JH88" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JI88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="1">
@@ -72361,8 +72625,11 @@
       <c r="JG89" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JH89" t="n">
+      <c r="JH89" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JI89" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="1">
@@ -73169,8 +73436,11 @@
       <c r="JG90" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JH90" t="n">
+      <c r="JH90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JI90" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="1">
@@ -73977,8 +74247,11 @@
       <c r="JG91" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="JH91" t="n">
+      <c r="JH91" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="JI91" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="1">
@@ -74785,8 +75058,11 @@
       <c r="JG92" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="JH92" t="n">
+      <c r="JH92" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="JI92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="1">
@@ -75593,8 +75869,11 @@
       <c r="JG93" s="2" t="n">
         <v>67.5</v>
       </c>
-      <c r="JH93" t="n">
+      <c r="JH93" s="2" t="n">
         <v>67.5</v>
+      </c>
+      <c r="JI93" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="1">
@@ -76401,8 +76680,11 @@
       <c r="JG94" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JH94" t="n">
+      <c r="JH94" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JI94" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="1">
@@ -77209,8 +77491,11 @@
       <c r="JG95" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JH95" t="n">
+      <c r="JH95" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JI95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="1">
@@ -78017,8 +78302,11 @@
       <c r="JG96" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JH96" t="n">
+      <c r="JH96" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JI96" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="1">
@@ -78825,8 +79113,11 @@
       <c r="JG97" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JH97" t="n">
+      <c r="JH97" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JI97" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="1">
@@ -79633,8 +79924,11 @@
       <c r="JG98" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JH98" t="n">
+      <c r="JH98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JI98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="1">
@@ -80441,8 +80735,11 @@
       <c r="JG99" s="2" t="n">
         <v>41</v>
       </c>
-      <c r="JH99" t="n">
+      <c r="JH99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JI99" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="1">
@@ -81249,7 +81546,10 @@
       <c r="JG100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JH100" t="n">
+      <c r="JH100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JI100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -82057,8 +82357,11 @@
       <c r="JG101" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JH101" t="n">
+      <c r="JH101" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JI101" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="1">
@@ -82865,8 +83168,11 @@
       <c r="JG102" s="2" t="n">
         <v>56.2</v>
       </c>
-      <c r="JH102" t="n">
+      <c r="JH102" s="2" t="n">
         <v>56.2</v>
+      </c>
+      <c r="JI102" t="n">
+        <v>62.5</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JO102"/>
+  <dimension ref="A1:JP102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1284,8 +1284,11 @@
       <c r="JN1" s="2" t="n">
         <v>10840</v>
       </c>
-      <c r="JO1" t="n">
+      <c r="JO1" s="2" t="n">
         <v>10844</v>
+      </c>
+      <c r="JP1" t="n">
+        <v>10855</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2113,7 +2116,10 @@
       <c r="JN2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JO2" t="n">
+      <c r="JO2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JP2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2942,8 +2948,11 @@
       <c r="JN3" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JO3" t="n">
+      <c r="JO3" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JP3" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3771,8 +3780,11 @@
       <c r="JN4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO4" t="n">
+      <c r="JO4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4600,7 +4612,10 @@
       <c r="JN5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JO5" t="n">
+      <c r="JO5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JP5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5429,8 +5444,11 @@
       <c r="JN6" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JO6" t="n">
+      <c r="JO6" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="JP6" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6258,8 +6276,11 @@
       <c r="JN7" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="JO7" t="n">
+      <c r="JO7" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JP7" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7087,8 +7108,11 @@
       <c r="JN8" s="2" t="n">
         <v>-12</v>
       </c>
-      <c r="JO8" t="n">
+      <c r="JO8" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JP8" t="n">
+        <v>-6</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7916,8 +7940,11 @@
       <c r="JN9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO9" t="n">
+      <c r="JO9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8745,8 +8772,11 @@
       <c r="JN10" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JO10" t="n">
+      <c r="JO10" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JP10" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9574,8 +9604,11 @@
       <c r="JN11" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="JO11" t="n">
+      <c r="JO11" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="JP11" t="n">
+        <v>214</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10403,8 +10436,11 @@
       <c r="JN12" s="2" t="n">
         <v>172</v>
       </c>
-      <c r="JO12" t="n">
+      <c r="JO12" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JP12" t="n">
+        <v>171</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11232,8 +11268,11 @@
       <c r="JN13" s="2" t="n">
         <v>353</v>
       </c>
-      <c r="JO13" t="n">
+      <c r="JO13" s="2" t="n">
         <v>360</v>
+      </c>
+      <c r="JP13" t="n">
+        <v>385</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12061,8 +12100,11 @@
       <c r="JN14" s="2" t="n">
         <v>1.05</v>
       </c>
-      <c r="JO14" t="n">
+      <c r="JO14" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="JP14" t="n">
+        <v>1.25</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12890,7 +12932,10 @@
       <c r="JN15" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JO15" t="n">
+      <c r="JO15" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="JP15" t="n">
         <v>81</v>
       </c>
     </row>
@@ -13719,8 +13764,11 @@
       <c r="JN16" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JO16" t="n">
+      <c r="JO16" s="2" t="n">
         <v>76</v>
+      </c>
+      <c r="JP16" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14548,8 +14596,11 @@
       <c r="JN17" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JO17" t="n">
+      <c r="JO17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JP17" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15377,7 +15428,10 @@
       <c r="JN18" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JO18" t="n">
+      <c r="JO18" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP18" t="n">
         <v>15</v>
       </c>
     </row>
@@ -16206,8 +16260,11 @@
       <c r="JN19" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JO19" t="n">
+      <c r="JO19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JP19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17035,8 +17092,11 @@
       <c r="JN20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO20" t="n">
+      <c r="JO20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JP20" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17864,8 +17924,11 @@
       <c r="JN21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO21" t="n">
+      <c r="JO21" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18693,8 +18756,11 @@
       <c r="JN22" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO22" t="n">
+      <c r="JO22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19522,8 +19588,11 @@
       <c r="JN23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO23" t="n">
+      <c r="JO23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20351,8 +20420,11 @@
       <c r="JN24" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JO24" t="n">
+      <c r="JO24" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JP24" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21180,8 +21252,11 @@
       <c r="JN25" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JO25" t="n">
+      <c r="JO25" s="2" t="n">
         <v>57.1</v>
+      </c>
+      <c r="JP25" t="n">
+        <v>51.7</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22009,8 +22084,11 @@
       <c r="JN26" s="2" t="n">
         <v>29.42</v>
       </c>
-      <c r="JO26" t="n">
+      <c r="JO26" s="2" t="n">
         <v>30</v>
+      </c>
+      <c r="JP26" t="n">
+        <v>25.67</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -22838,8 +22916,11 @@
       <c r="JN27" s="2" t="n">
         <v>17.65</v>
       </c>
-      <c r="JO27" t="n">
+      <c r="JO27" s="2" t="n">
         <v>17.14</v>
+      </c>
+      <c r="JP27" t="n">
+        <v>13.28</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23667,8 +23748,11 @@
       <c r="JN28" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JO28" t="n">
+      <c r="JO28" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JP28" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24496,8 +24580,11 @@
       <c r="JN29" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JO29" t="n">
+      <c r="JO29" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JP29" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25325,8 +25412,11 @@
       <c r="JN30" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JO30" t="n">
+      <c r="JO30" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JP30" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26154,8 +26244,11 @@
       <c r="JN31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JO31" t="n">
+      <c r="JO31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JP31" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -26983,8 +27076,11 @@
       <c r="JN32" s="2" t="n">
         <v>2.45</v>
       </c>
-      <c r="JO32" t="n">
+      <c r="JO32" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="JP32" t="n">
+        <v>2.41</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -27812,8 +27908,11 @@
       <c r="JN33" s="2" t="n">
         <v>4.08</v>
       </c>
-      <c r="JO33" t="n">
+      <c r="JO33" s="2" t="n">
         <v>4.25</v>
+      </c>
+      <c r="JP33" t="n">
+        <v>4.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28641,8 +28740,11 @@
       <c r="JN34" s="2" t="n">
         <v>36.7</v>
       </c>
-      <c r="JO34" t="n">
+      <c r="JO34" s="2" t="n">
         <v>39.2</v>
+      </c>
+      <c r="JP34" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29470,8 +29572,11 @@
       <c r="JN35" s="2" t="n">
         <v>24.5</v>
       </c>
-      <c r="JO35" t="n">
+      <c r="JO35" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="JP35" t="n">
+        <v>21.4</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30299,8 +30404,11 @@
       <c r="JN36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="JO36" t="n">
+      <c r="JO36" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="JP36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31128,8 +31236,11 @@
       <c r="JN37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="JO37" t="n">
+      <c r="JO37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="JP37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -31957,8 +32068,11 @@
       <c r="JN38" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="JO38" t="n">
+      <c r="JO38" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JP38" t="n">
+        <v>25.8</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -32786,8 +32900,11 @@
       <c r="JN39" s="2" t="n">
         <v>87.90000000000001</v>
       </c>
-      <c r="JO39" t="n">
+      <c r="JO39" s="2" t="n">
         <v>74.90000000000001</v>
+      </c>
+      <c r="JP39" t="n">
+        <v>80.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33615,8 +33732,11 @@
       <c r="JN40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JO40" t="n">
+      <c r="JO40" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JP40" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34444,7 +34564,10 @@
       <c r="JN41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JO41" t="n">
+      <c r="JO41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JP41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35273,8 +35396,11 @@
       <c r="JN42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JO42" t="n">
+      <c r="JO42" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JP42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36102,7 +36228,10 @@
       <c r="JN43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO43" t="n">
+      <c r="JO43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JP43" t="n">
         <v>4</v>
       </c>
     </row>
@@ -36931,8 +37060,11 @@
       <c r="JN44" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="JO44" t="n">
+      <c r="JO44" s="2" t="n">
         <v>153</v>
+      </c>
+      <c r="JP44" t="n">
+        <v>142</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -37760,8 +37892,11 @@
       <c r="JN45" s="2" t="n">
         <v>206</v>
       </c>
-      <c r="JO45" t="n">
+      <c r="JO45" s="2" t="n">
         <v>195</v>
+      </c>
+      <c r="JP45" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38589,8 +38724,11 @@
       <c r="JN46" s="2" t="n">
         <v>264</v>
       </c>
-      <c r="JO46" t="n">
+      <c r="JO46" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="JP46" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39418,8 +39556,11 @@
       <c r="JN47" s="2" t="n">
         <v>74.8</v>
       </c>
-      <c r="JO47" t="n">
+      <c r="JO47" s="2" t="n">
         <v>64.40000000000001</v>
+      </c>
+      <c r="JP47" t="n">
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40247,8 +40388,11 @@
       <c r="JN48" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JO48" t="n">
+      <c r="JO48" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JP48" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41076,8 +41220,11 @@
       <c r="JN49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO49" t="n">
+      <c r="JO49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JP49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -41905,8 +42052,11 @@
       <c r="JN50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JO50" t="n">
+      <c r="JO50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JP50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -42734,8 +42884,11 @@
       <c r="JN51" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JO51" t="n">
+      <c r="JO51" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JP51" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43563,8 +43716,11 @@
       <c r="JN52" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JO52" t="n">
+      <c r="JO52" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JP52" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44392,8 +44548,11 @@
       <c r="JN53" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JO53" t="n">
+      <c r="JO53" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JP53" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45221,8 +45380,11 @@
       <c r="JN54" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JO54" t="n">
+      <c r="JO54" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JP54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46050,8 +46212,11 @@
       <c r="JN55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JO55" t="n">
+      <c r="JO55" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JP55" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -46879,7 +47044,10 @@
       <c r="JN56" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JO56" t="n">
+      <c r="JO56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="JP56" t="n">
         <v>66.7</v>
       </c>
     </row>
@@ -47708,8 +47876,11 @@
       <c r="JN57" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="JO57" t="n">
+      <c r="JO57" s="2" t="n">
         <v>205</v>
+      </c>
+      <c r="JP57" t="n">
+        <v>213</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48537,8 +48708,11 @@
       <c r="JN58" s="2" t="n">
         <v>162</v>
       </c>
-      <c r="JO58" t="n">
+      <c r="JO58" s="2" t="n">
         <v>150</v>
+      </c>
+      <c r="JP58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49366,8 +49540,11 @@
       <c r="JN59" s="2" t="n">
         <v>404</v>
       </c>
-      <c r="JO59" t="n">
+      <c r="JO59" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="JP59" t="n">
+        <v>362</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50195,8 +50372,11 @@
       <c r="JN60" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="JO60" t="n">
+      <c r="JO60" s="2" t="n">
         <v>1.37</v>
+      </c>
+      <c r="JP60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51024,8 +51204,11 @@
       <c r="JN61" s="2" t="n">
         <v>113</v>
       </c>
-      <c r="JO61" t="n">
+      <c r="JO61" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JP61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -51853,8 +52036,11 @@
       <c r="JN62" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JO62" t="n">
+      <c r="JO62" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JP62" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -52682,8 +52868,11 @@
       <c r="JN63" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JO63" t="n">
+      <c r="JO63" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JP63" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -53511,8 +53700,11 @@
       <c r="JN64" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JO64" t="n">
+      <c r="JO64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JP64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54340,7 +54532,10 @@
       <c r="JN65" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JO65" t="n">
+      <c r="JO65" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="JP65" t="n">
         <v>15</v>
       </c>
     </row>
@@ -55169,8 +55364,11 @@
       <c r="JN66" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JO66" t="n">
+      <c r="JO66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JP66" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -55998,8 +56196,11 @@
       <c r="JN67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO67" t="n">
+      <c r="JO67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -56827,8 +57028,11 @@
       <c r="JN68" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JO68" t="n">
+      <c r="JO68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP68" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -57656,8 +57860,11 @@
       <c r="JN69" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO69" t="n">
+      <c r="JO69" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JP69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58485,8 +58692,11 @@
       <c r="JN70" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="JO70" t="n">
+      <c r="JO70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JP70" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59314,8 +59524,11 @@
       <c r="JN71" s="2" t="n">
         <v>48.1</v>
       </c>
-      <c r="JO71" t="n">
+      <c r="JO71" s="2" t="n">
         <v>41.7</v>
+      </c>
+      <c r="JP71" t="n">
+        <v>53.3</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60143,8 +60356,11 @@
       <c r="JN72" s="2" t="n">
         <v>31.08</v>
       </c>
-      <c r="JO72" t="n">
+      <c r="JO72" s="2" t="n">
         <v>35.5</v>
+      </c>
+      <c r="JP72" t="n">
+        <v>22.62</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -60972,8 +61188,11 @@
       <c r="JN73" s="2" t="n">
         <v>14.96</v>
       </c>
-      <c r="JO73" t="n">
+      <c r="JO73" s="2" t="n">
         <v>14.79</v>
+      </c>
+      <c r="JP73" t="n">
+        <v>12.07</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -61801,8 +62020,11 @@
       <c r="JN74" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JO74" t="n">
+      <c r="JO74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JP74" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -62630,8 +62852,11 @@
       <c r="JN75" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JO75" t="n">
+      <c r="JO75" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JP75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63459,8 +63684,11 @@
       <c r="JN76" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JO76" t="n">
+      <c r="JO76" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JP76" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64288,8 +64516,11 @@
       <c r="JN77" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JO77" t="n">
+      <c r="JO77" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JP77" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65117,8 +65348,11 @@
       <c r="JN78" s="2" t="n">
         <v>2.19</v>
       </c>
-      <c r="JO78" t="n">
+      <c r="JO78" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP78" t="n">
+        <v>1.57</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -65946,8 +66180,11 @@
       <c r="JN79" s="2" t="n">
         <v>4.54</v>
       </c>
-      <c r="JO79" t="n">
+      <c r="JO79" s="2" t="n">
         <v>4.8</v>
+      </c>
+      <c r="JP79" t="n">
+        <v>2.94</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -66775,8 +67012,11 @@
       <c r="JN80" s="2" t="n">
         <v>35.6</v>
       </c>
-      <c r="JO80" t="n">
+      <c r="JO80" s="2" t="n">
         <v>39.6</v>
+      </c>
+      <c r="JP80" t="n">
+        <v>59.6</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -67604,8 +67844,11 @@
       <c r="JN81" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="JO81" t="n">
+      <c r="JO81" s="2" t="n">
         <v>20.8</v>
+      </c>
+      <c r="JP81" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68433,8 +68676,11 @@
       <c r="JN82" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="JO82" t="n">
+      <c r="JO82" s="2" t="n">
         <v>189.3</v>
+      </c>
+      <c r="JP82" t="n">
+        <v>186.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69262,8 +69508,11 @@
       <c r="JN83" s="2" t="n">
         <v>85.5</v>
       </c>
-      <c r="JO83" t="n">
+      <c r="JO83" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="JP83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70091,8 +70340,11 @@
       <c r="JN84" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JO84" t="n">
+      <c r="JO84" s="2" t="n">
         <v>26.91</v>
+      </c>
+      <c r="JP84" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -70920,8 +71172,11 @@
       <c r="JN85" s="2" t="n">
         <v>93.40000000000001</v>
       </c>
-      <c r="JO85" t="n">
+      <c r="JO85" s="2" t="n">
         <v>120.3</v>
+      </c>
+      <c r="JP85" t="n">
+        <v>120.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -71749,7 +72004,10 @@
       <c r="JN86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JO86" t="n">
+      <c r="JO86" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JP86" t="n">
         <v>6</v>
       </c>
     </row>
@@ -72578,8 +72836,11 @@
       <c r="JN87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO87" t="n">
+      <c r="JO87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73407,8 +73668,11 @@
       <c r="JN88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JO88" t="n">
+      <c r="JO88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JP88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74236,8 +74500,11 @@
       <c r="JN89" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JO89" t="n">
+      <c r="JO89" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JP89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75065,8 +75332,11 @@
       <c r="JN90" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="JO90" t="n">
+      <c r="JO90" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="JP90" t="n">
+        <v>139</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -75894,8 +76164,11 @@
       <c r="JN91" s="2" t="n">
         <v>246</v>
       </c>
-      <c r="JO91" t="n">
+      <c r="JO91" s="2" t="n">
         <v>193</v>
+      </c>
+      <c r="JP91" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -76723,8 +76996,11 @@
       <c r="JN92" s="2" t="n">
         <v>296</v>
       </c>
-      <c r="JO92" t="n">
+      <c r="JO92" s="2" t="n">
         <v>246</v>
+      </c>
+      <c r="JP92" t="n">
+        <v>250</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -77552,8 +77828,11 @@
       <c r="JN93" s="2" t="n">
         <v>73.3</v>
       </c>
-      <c r="JO93" t="n">
+      <c r="JO93" s="2" t="n">
         <v>69.3</v>
+      </c>
+      <c r="JP93" t="n">
+        <v>69.09999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78381,8 +78660,11 @@
       <c r="JN94" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JO94" t="n">
+      <c r="JO94" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JP94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79210,8 +79492,11 @@
       <c r="JN95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JO95" t="n">
+      <c r="JO95" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JP95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80039,8 +80324,11 @@
       <c r="JN96" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JO96" t="n">
+      <c r="JO96" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JP96" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -80868,8 +81156,11 @@
       <c r="JN97" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JO97" t="n">
+      <c r="JO97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JP97" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -81697,8 +81988,11 @@
       <c r="JN98" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JO98" t="n">
+      <c r="JO98" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JP98" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -82526,8 +82820,11 @@
       <c r="JN99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JO99" t="n">
+      <c r="JO99" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JP99" t="n">
+        <v>42</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83355,8 +83652,11 @@
       <c r="JN100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JO100" t="n">
+      <c r="JO100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JP100" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84184,8 +84484,11 @@
       <c r="JN101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JO101" t="n">
+      <c r="JO101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JP101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85013,8 +85316,11 @@
       <c r="JN102" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="JO102" t="n">
+      <c r="JO102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JP102" t="n">
+        <v>68.8</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JQ102"/>
+  <dimension ref="A1:JR102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1290,8 +1290,11 @@
       <c r="JP1" s="2" t="n">
         <v>10855</v>
       </c>
-      <c r="JQ1" t="n">
+      <c r="JQ1" s="2" t="n">
         <v>10862</v>
+      </c>
+      <c r="JR1" t="n">
+        <v>10867</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2125,7 +2128,10 @@
       <c r="JP2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JQ2" t="n">
+      <c r="JQ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JR2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2960,8 +2966,11 @@
       <c r="JP3" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JQ3" t="n">
+      <c r="JQ3" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JR3" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3795,8 +3804,11 @@
       <c r="JP4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ4" t="n">
+      <c r="JQ4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4630,8 +4642,11 @@
       <c r="JP5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JQ5" t="n">
+      <c r="JQ5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JR5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5465,8 +5480,11 @@
       <c r="JP6" s="2" t="n">
         <v>104</v>
       </c>
-      <c r="JQ6" t="n">
+      <c r="JQ6" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="JR6" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6300,8 +6318,11 @@
       <c r="JP7" s="2" t="n">
         <v>110</v>
       </c>
-      <c r="JQ7" t="n">
+      <c r="JQ7" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JR7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7135,8 +7156,11 @@
       <c r="JP8" s="2" t="n">
         <v>-6</v>
       </c>
-      <c r="JQ8" t="n">
+      <c r="JQ8" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JR8" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7970,7 +7994,10 @@
       <c r="JP9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JQ9" t="n">
+      <c r="JQ9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JR9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8805,8 +8832,11 @@
       <c r="JP10" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JQ10" t="n">
+      <c r="JQ10" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JR10" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9640,8 +9670,11 @@
       <c r="JP11" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="JQ11" t="n">
+      <c r="JQ11" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="JR11" t="n">
+        <v>227</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10475,8 +10508,11 @@
       <c r="JP12" s="2" t="n">
         <v>171</v>
       </c>
-      <c r="JQ12" t="n">
+      <c r="JQ12" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="JR12" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11310,8 +11346,11 @@
       <c r="JP13" s="2" t="n">
         <v>385</v>
       </c>
-      <c r="JQ13" t="n">
+      <c r="JQ13" s="2" t="n">
         <v>380</v>
+      </c>
+      <c r="JR13" t="n">
+        <v>383</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12145,8 +12184,11 @@
       <c r="JP14" s="2" t="n">
         <v>1.25</v>
       </c>
-      <c r="JQ14" t="n">
+      <c r="JQ14" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="JR14" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -12980,8 +13022,11 @@
       <c r="JP15" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JQ15" t="n">
+      <c r="JQ15" s="2" t="n">
         <v>86</v>
+      </c>
+      <c r="JR15" t="n">
+        <v>110</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13815,8 +13860,11 @@
       <c r="JP16" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JQ16" t="n">
+      <c r="JQ16" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="JR16" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14650,8 +14698,11 @@
       <c r="JP17" s="2" t="n">
         <v>32</v>
       </c>
-      <c r="JQ17" t="n">
+      <c r="JQ17" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JR17" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15485,8 +15536,11 @@
       <c r="JP18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JQ18" t="n">
+      <c r="JQ18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16320,8 +16374,11 @@
       <c r="JP19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ19" t="n">
+      <c r="JQ19" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17155,8 +17212,11 @@
       <c r="JP20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JQ20" t="n">
+      <c r="JQ20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR20" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -17990,8 +18050,11 @@
       <c r="JP21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ21" t="n">
+      <c r="JQ21" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18825,8 +18888,11 @@
       <c r="JP22" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ22" t="n">
+      <c r="JQ22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JR22" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19660,8 +19726,11 @@
       <c r="JP23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ23" t="n">
+      <c r="JQ23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20495,8 +20564,11 @@
       <c r="JP24" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JQ24" t="n">
+      <c r="JQ24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JR24" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21330,8 +21402,11 @@
       <c r="JP25" s="2" t="n">
         <v>51.7</v>
       </c>
-      <c r="JQ25" t="n">
+      <c r="JQ25" s="2" t="n">
         <v>53.6</v>
+      </c>
+      <c r="JR25" t="n">
+        <v>61.5</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22165,8 +22240,11 @@
       <c r="JP26" s="2" t="n">
         <v>25.67</v>
       </c>
-      <c r="JQ26" t="n">
+      <c r="JQ26" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JR26" t="n">
+        <v>23.94</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23000,8 +23078,11 @@
       <c r="JP27" s="2" t="n">
         <v>13.28</v>
       </c>
-      <c r="JQ27" t="n">
+      <c r="JQ27" s="2" t="n">
         <v>13.57</v>
+      </c>
+      <c r="JR27" t="n">
+        <v>14.73</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23835,8 +23916,11 @@
       <c r="JP28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JQ28" t="n">
+      <c r="JQ28" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JR28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24670,8 +24754,11 @@
       <c r="JP29" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JQ29" t="n">
+      <c r="JQ29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JR29" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25505,8 +25592,11 @@
       <c r="JP30" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JQ30" t="n">
+      <c r="JQ30" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JR30" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26340,8 +26430,11 @@
       <c r="JP31" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JQ31" t="n">
+      <c r="JQ31" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JR31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27175,8 +27268,11 @@
       <c r="JP32" s="2" t="n">
         <v>2.41</v>
       </c>
-      <c r="JQ32" t="n">
+      <c r="JQ32" s="2" t="n">
         <v>2.25</v>
+      </c>
+      <c r="JR32" t="n">
+        <v>2.62</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28010,8 +28106,11 @@
       <c r="JP33" s="2" t="n">
         <v>4.67</v>
       </c>
-      <c r="JQ33" t="n">
+      <c r="JQ33" s="2" t="n">
         <v>4.2</v>
+      </c>
+      <c r="JR33" t="n">
+        <v>4.25</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28845,8 +28944,11 @@
       <c r="JP34" s="2" t="n">
         <v>35.7</v>
       </c>
-      <c r="JQ34" t="n">
+      <c r="JQ34" s="2" t="n">
         <v>38.1</v>
+      </c>
+      <c r="JR34" t="n">
+        <v>38.2</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29680,8 +29782,11 @@
       <c r="JP35" s="2" t="n">
         <v>21.4</v>
       </c>
-      <c r="JQ35" t="n">
+      <c r="JQ35" s="2" t="n">
         <v>23.8</v>
+      </c>
+      <c r="JR35" t="n">
+        <v>23.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30515,8 +30620,11 @@
       <c r="JP36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="JQ36" t="n">
+      <c r="JQ36" s="2" t="n">
         <v>189.4</v>
+      </c>
+      <c r="JR36" t="n">
+        <v>189.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31350,8 +31458,11 @@
       <c r="JP37" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="JQ37" t="n">
+      <c r="JQ37" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="JR37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32185,8 +32296,11 @@
       <c r="JP38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JQ38" t="n">
+      <c r="JQ38" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="JR38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33020,8 +33134,11 @@
       <c r="JP39" s="2" t="n">
         <v>80.7</v>
       </c>
-      <c r="JQ39" t="n">
+      <c r="JQ39" s="2" t="n">
         <v>86.90000000000001</v>
+      </c>
+      <c r="JR39" t="n">
+        <v>93.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33855,8 +33972,11 @@
       <c r="JP40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ40" t="n">
+      <c r="JQ40" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34690,8 +34810,11 @@
       <c r="JP41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ41" t="n">
+      <c r="JQ41" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35525,8 +35648,11 @@
       <c r="JP42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ42" t="n">
+      <c r="JQ42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36360,8 +36486,11 @@
       <c r="JP43" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ43" t="n">
+      <c r="JQ43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37195,8 +37324,11 @@
       <c r="JP44" s="2" t="n">
         <v>142</v>
       </c>
-      <c r="JQ44" t="n">
+      <c r="JQ44" s="2" t="n">
         <v>155</v>
+      </c>
+      <c r="JR44" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38030,8 +38162,11 @@
       <c r="JP45" s="2" t="n">
         <v>227</v>
       </c>
-      <c r="JQ45" t="n">
+      <c r="JQ45" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="JR45" t="n">
+        <v>238</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -38865,8 +39000,11 @@
       <c r="JP46" s="2" t="n">
         <v>266</v>
       </c>
-      <c r="JQ46" t="n">
+      <c r="JQ46" s="2" t="n">
         <v>269</v>
+      </c>
+      <c r="JR46" t="n">
+        <v>286</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39700,8 +39838,11 @@
       <c r="JP47" s="2" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="JQ47" t="n">
+      <c r="JQ47" s="2" t="n">
         <v>70.8</v>
+      </c>
+      <c r="JR47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40535,8 +40676,11 @@
       <c r="JP48" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JQ48" t="n">
+      <c r="JQ48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JR48" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41370,8 +41514,11 @@
       <c r="JP49" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ49" t="n">
+      <c r="JQ49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JR49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42205,8 +42352,11 @@
       <c r="JP50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JQ50" t="n">
+      <c r="JQ50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JR50" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43040,8 +43190,11 @@
       <c r="JP51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JQ51" t="n">
+      <c r="JQ51" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JR51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -43875,8 +44028,11 @@
       <c r="JP52" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JQ52" t="n">
+      <c r="JQ52" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JR52" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44710,8 +44866,11 @@
       <c r="JP53" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JQ53" t="n">
+      <c r="JQ53" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JR53" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45545,8 +45704,11 @@
       <c r="JP54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ54" t="n">
+      <c r="JQ54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46380,8 +46542,11 @@
       <c r="JP55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ55" t="n">
+      <c r="JQ55" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JR55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47215,8 +47380,11 @@
       <c r="JP56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JQ56" t="n">
+      <c r="JQ56" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="JR56" t="n">
+        <v>81.2</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48050,8 +48218,11 @@
       <c r="JP57" s="2" t="n">
         <v>213</v>
       </c>
-      <c r="JQ57" t="n">
+      <c r="JQ57" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JR57" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -48885,8 +49056,11 @@
       <c r="JP58" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JQ58" t="n">
+      <c r="JQ58" s="2" t="n">
         <v>173</v>
+      </c>
+      <c r="JR58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49720,8 +49894,11 @@
       <c r="JP59" s="2" t="n">
         <v>362</v>
       </c>
-      <c r="JQ59" t="n">
+      <c r="JQ59" s="2" t="n">
         <v>375</v>
+      </c>
+      <c r="JR59" t="n">
+        <v>337</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50555,8 +50732,11 @@
       <c r="JP60" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="JQ60" t="n">
+      <c r="JQ60" s="2" t="n">
         <v>1.17</v>
+      </c>
+      <c r="JR60" t="n">
+        <v>1.46</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51390,8 +51570,11 @@
       <c r="JP61" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="JQ61" t="n">
+      <c r="JQ61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="JR61" t="n">
+        <v>95</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52225,8 +52408,11 @@
       <c r="JP62" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JQ62" t="n">
+      <c r="JQ62" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JR62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53060,7 +53246,10 @@
       <c r="JP63" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JQ63" t="n">
+      <c r="JQ63" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="JR63" t="n">
         <v>29</v>
       </c>
     </row>
@@ -53895,8 +54084,11 @@
       <c r="JP64" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JQ64" t="n">
+      <c r="JQ64" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR64" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54730,8 +54922,11 @@
       <c r="JP65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JQ65" t="n">
+      <c r="JQ65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JR65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55565,8 +55760,11 @@
       <c r="JP66" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JQ66" t="n">
+      <c r="JQ66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JR66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -56400,8 +56598,11 @@
       <c r="JP67" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ67" t="n">
+      <c r="JQ67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57235,8 +57436,11 @@
       <c r="JP68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JQ68" t="n">
+      <c r="JQ68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR68" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58070,8 +58274,11 @@
       <c r="JP69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JQ69" t="n">
+      <c r="JQ69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -58905,8 +59112,11 @@
       <c r="JP70" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="JQ70" t="n">
+      <c r="JQ70" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JR70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59740,8 +59950,11 @@
       <c r="JP71" s="2" t="n">
         <v>53.3</v>
       </c>
-      <c r="JQ71" t="n">
+      <c r="JQ71" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JR71" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60575,8 +60788,11 @@
       <c r="JP72" s="2" t="n">
         <v>22.62</v>
       </c>
-      <c r="JQ72" t="n">
+      <c r="JQ72" s="2" t="n">
         <v>34.09</v>
+      </c>
+      <c r="JR72" t="n">
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61410,8 +61626,11 @@
       <c r="JP73" s="2" t="n">
         <v>12.07</v>
       </c>
-      <c r="JQ73" t="n">
+      <c r="JQ73" s="2" t="n">
         <v>18.75</v>
+      </c>
+      <c r="JR73" t="n">
+        <v>30.64</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62245,8 +62464,11 @@
       <c r="JP74" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JQ74" t="n">
+      <c r="JQ74" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JR74" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63080,8 +63302,11 @@
       <c r="JP75" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JQ75" t="n">
+      <c r="JQ75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JR75" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -63915,8 +64140,11 @@
       <c r="JP76" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JQ76" t="n">
+      <c r="JQ76" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JR76" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64750,8 +64978,11 @@
       <c r="JP77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JQ77" t="n">
+      <c r="JQ77" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JR77" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65585,8 +65816,11 @@
       <c r="JP78" s="2" t="n">
         <v>1.57</v>
       </c>
-      <c r="JQ78" t="n">
+      <c r="JQ78" s="2" t="n">
         <v>2.35</v>
+      </c>
+      <c r="JR78" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66420,8 +66654,11 @@
       <c r="JP79" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="JQ79" t="n">
+      <c r="JQ79" s="2" t="n">
         <v>4.27</v>
+      </c>
+      <c r="JR79" t="n">
+        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67255,8 +67492,11 @@
       <c r="JP80" s="2" t="n">
         <v>59.6</v>
       </c>
-      <c r="JQ80" t="n">
+      <c r="JQ80" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="JR80" t="n">
+        <v>22.7</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68090,8 +68330,11 @@
       <c r="JP81" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JQ81" t="n">
+      <c r="JQ81" s="2" t="n">
         <v>23.4</v>
+      </c>
+      <c r="JR81" t="n">
+        <v>11.4</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -68925,8 +69168,11 @@
       <c r="JP82" s="2" t="n">
         <v>186.4</v>
       </c>
-      <c r="JQ82" t="n">
+      <c r="JQ82" s="2" t="n">
         <v>188.6</v>
+      </c>
+      <c r="JR82" t="n">
+        <v>187.9</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -69760,8 +70006,11 @@
       <c r="JP83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JQ83" t="n">
+      <c r="JQ83" s="2" t="n">
         <v>84.90000000000001</v>
+      </c>
+      <c r="JR83" t="n">
+        <v>86.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70595,8 +70844,11 @@
       <c r="JP84" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="JQ84" t="n">
+      <c r="JQ84" s="2" t="n">
         <v>24.91</v>
+      </c>
+      <c r="JR84" t="n">
+        <v>24.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71430,8 +71682,11 @@
       <c r="JP85" s="2" t="n">
         <v>120.2</v>
       </c>
-      <c r="JQ85" t="n">
+      <c r="JQ85" s="2" t="n">
         <v>92.90000000000001</v>
+      </c>
+      <c r="JR85" t="n">
+        <v>75.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72265,7 +72520,10 @@
       <c r="JP86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ86" t="n">
+      <c r="JQ86" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="JR86" t="n">
         <v>9</v>
       </c>
     </row>
@@ -73100,8 +73358,11 @@
       <c r="JP87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JQ87" t="n">
+      <c r="JQ87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JR87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -73935,8 +74196,11 @@
       <c r="JP88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JQ88" t="n">
+      <c r="JQ88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JR88" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -74770,8 +75034,11 @@
       <c r="JP89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JQ89" t="n">
+      <c r="JQ89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JR89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75605,8 +75872,11 @@
       <c r="JP90" s="2" t="n">
         <v>139</v>
       </c>
-      <c r="JQ90" t="n">
+      <c r="JQ90" s="2" t="n">
         <v>129</v>
+      </c>
+      <c r="JR90" t="n">
+        <v>116</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76440,8 +76710,11 @@
       <c r="JP91" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="JQ91" t="n">
+      <c r="JQ91" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="JR91" t="n">
+        <v>216</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77275,8 +77548,11 @@
       <c r="JP92" s="2" t="n">
         <v>250</v>
       </c>
-      <c r="JQ92" t="n">
+      <c r="JQ92" s="2" t="n">
         <v>276</v>
+      </c>
+      <c r="JR92" t="n">
+        <v>254</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78110,8 +78386,11 @@
       <c r="JP93" s="2" t="n">
         <v>69.09999999999999</v>
       </c>
-      <c r="JQ93" t="n">
+      <c r="JQ93" s="2" t="n">
         <v>73.59999999999999</v>
+      </c>
+      <c r="JR93" t="n">
+        <v>75.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -78945,8 +79224,11 @@
       <c r="JP94" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JQ94" t="n">
+      <c r="JQ94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JR94" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -79780,7 +80062,10 @@
       <c r="JP95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ95" t="n">
+      <c r="JQ95" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JR95" t="n">
         <v>7</v>
       </c>
     </row>
@@ -80615,8 +80900,11 @@
       <c r="JP96" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JQ96" t="n">
+      <c r="JQ96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JR96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81450,8 +81738,11 @@
       <c r="JP97" s="2" t="n">
         <v>33</v>
       </c>
-      <c r="JQ97" t="n">
+      <c r="JQ97" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JR97" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82285,8 +82576,11 @@
       <c r="JP98" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JQ98" t="n">
+      <c r="JQ98" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JR98" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83120,8 +83414,11 @@
       <c r="JP99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JQ99" t="n">
+      <c r="JQ99" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JR99" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -83955,8 +84252,11 @@
       <c r="JP100" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JQ100" t="n">
+      <c r="JQ100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JR100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -84790,8 +85090,11 @@
       <c r="JP101" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JQ101" t="n">
+      <c r="JQ101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JR101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85625,8 +85928,11 @@
       <c r="JP102" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="JQ102" t="n">
+      <c r="JQ102" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="JR102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JR102"/>
+  <dimension ref="A1:JS102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1293,8 +1293,11 @@
       <c r="JQ1" s="2" t="n">
         <v>10862</v>
       </c>
-      <c r="JR1" t="n">
+      <c r="JR1" s="2" t="n">
         <v>10867</v>
+      </c>
+      <c r="JS1" t="n">
+        <v>10884</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2131,7 +2134,10 @@
       <c r="JQ2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JR2" t="n">
+      <c r="JR2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JS2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2969,8 +2975,11 @@
       <c r="JQ3" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JR3" t="n">
+      <c r="JR3" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JS3" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3807,8 +3816,11 @@
       <c r="JQ4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR4" t="n">
+      <c r="JR4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JS4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4645,8 +4657,11 @@
       <c r="JQ5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR5" t="n">
+      <c r="JR5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JS5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5483,8 +5498,11 @@
       <c r="JQ6" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JR6" t="n">
+      <c r="JR6" s="2" t="n">
         <v>106</v>
+      </c>
+      <c r="JS6" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6321,8 +6339,11 @@
       <c r="JQ7" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="JR7" t="n">
+      <c r="JR7" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JS7" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7159,8 +7180,11 @@
       <c r="JQ8" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JR8" t="n">
+      <c r="JR8" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JS8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -7997,7 +8021,10 @@
       <c r="JQ9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JR9" t="n">
+      <c r="JR9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8835,8 +8862,11 @@
       <c r="JQ10" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR10" t="n">
+      <c r="JR10" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS10" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9673,8 +9703,11 @@
       <c r="JQ11" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="JR11" t="n">
+      <c r="JR11" s="2" t="n">
         <v>227</v>
+      </c>
+      <c r="JS11" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10511,8 +10544,11 @@
       <c r="JQ12" s="2" t="n">
         <v>161</v>
       </c>
-      <c r="JR12" t="n">
+      <c r="JR12" s="2" t="n">
         <v>156</v>
+      </c>
+      <c r="JS12" t="n">
+        <v>152</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11349,8 +11385,11 @@
       <c r="JQ13" s="2" t="n">
         <v>380</v>
       </c>
-      <c r="JR13" t="n">
+      <c r="JR13" s="2" t="n">
         <v>383</v>
+      </c>
+      <c r="JS13" t="n">
+        <v>372</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12187,8 +12226,11 @@
       <c r="JQ14" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="JR14" t="n">
+      <c r="JR14" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JS14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13025,8 +13067,11 @@
       <c r="JQ15" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JR15" t="n">
+      <c r="JR15" s="2" t="n">
         <v>110</v>
+      </c>
+      <c r="JS15" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13863,8 +13908,11 @@
       <c r="JQ16" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JR16" t="n">
+      <c r="JR16" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JS16" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14701,8 +14749,11 @@
       <c r="JQ17" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JR17" t="n">
+      <c r="JR17" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JS17" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15539,8 +15590,11 @@
       <c r="JQ18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR18" t="n">
+      <c r="JR18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JS18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16377,8 +16431,11 @@
       <c r="JQ19" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR19" t="n">
+      <c r="JR19" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JS19" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17215,8 +17272,11 @@
       <c r="JQ20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR20" t="n">
+      <c r="JR20" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JS20" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18053,8 +18113,11 @@
       <c r="JQ21" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR21" t="n">
+      <c r="JR21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JS21" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -18891,8 +18954,11 @@
       <c r="JQ22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JR22" t="n">
+      <c r="JR22" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JS22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19729,8 +19795,11 @@
       <c r="JQ23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR23" t="n">
+      <c r="JR23" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JS23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20567,8 +20636,11 @@
       <c r="JQ24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JR24" t="n">
+      <c r="JR24" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JS24" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21405,8 +21477,11 @@
       <c r="JQ25" s="2" t="n">
         <v>53.6</v>
       </c>
-      <c r="JR25" t="n">
+      <c r="JR25" s="2" t="n">
         <v>61.5</v>
+      </c>
+      <c r="JS25" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22243,8 +22318,11 @@
       <c r="JQ26" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JR26" t="n">
+      <c r="JR26" s="2" t="n">
         <v>23.94</v>
+      </c>
+      <c r="JS26" t="n">
+        <v>53.14</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23081,8 +23159,11 @@
       <c r="JQ27" s="2" t="n">
         <v>13.57</v>
       </c>
-      <c r="JR27" t="n">
+      <c r="JR27" s="2" t="n">
         <v>14.73</v>
+      </c>
+      <c r="JS27" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -23919,8 +24000,11 @@
       <c r="JQ28" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR28" t="n">
+      <c r="JR28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JS28" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24757,8 +24841,11 @@
       <c r="JQ29" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JR29" t="n">
+      <c r="JR29" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS29" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25595,8 +25682,11 @@
       <c r="JQ30" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JR30" t="n">
+      <c r="JR30" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JS30" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26433,8 +26523,11 @@
       <c r="JQ31" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JR31" t="n">
+      <c r="JR31" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JS31" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27271,8 +27364,11 @@
       <c r="JQ32" s="2" t="n">
         <v>2.25</v>
       </c>
-      <c r="JR32" t="n">
+      <c r="JR32" s="2" t="n">
         <v>2.62</v>
+      </c>
+      <c r="JS32" t="n">
+        <v>3.83</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28109,8 +28205,11 @@
       <c r="JQ33" s="2" t="n">
         <v>4.2</v>
       </c>
-      <c r="JR33" t="n">
+      <c r="JR33" s="2" t="n">
         <v>4.25</v>
+      </c>
+      <c r="JS33" t="n">
+        <v>6.57</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -28947,8 +29046,11 @@
       <c r="JQ34" s="2" t="n">
         <v>38.1</v>
       </c>
-      <c r="JR34" t="n">
+      <c r="JR34" s="2" t="n">
         <v>38.2</v>
+      </c>
+      <c r="JS34" t="n">
+        <v>23.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29785,8 +29887,11 @@
       <c r="JQ35" s="2" t="n">
         <v>23.8</v>
       </c>
-      <c r="JR35" t="n">
+      <c r="JR35" s="2" t="n">
         <v>23.5</v>
+      </c>
+      <c r="JS35" t="n">
+        <v>15.2</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30623,8 +30728,11 @@
       <c r="JQ36" s="2" t="n">
         <v>189.4</v>
       </c>
-      <c r="JR36" t="n">
+      <c r="JR36" s="2" t="n">
         <v>189.8</v>
+      </c>
+      <c r="JS36" t="n">
+        <v>189.9</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31461,8 +31569,11 @@
       <c r="JQ37" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="JR37" t="n">
+      <c r="JR37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="JS37" t="n">
+        <v>89.09999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32299,8 +32410,11 @@
       <c r="JQ38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="JR38" t="n">
+      <c r="JR38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="JS38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33137,8 +33251,11 @@
       <c r="JQ39" s="2" t="n">
         <v>86.90000000000001</v>
       </c>
-      <c r="JR39" t="n">
+      <c r="JR39" s="2" t="n">
         <v>93.7</v>
+      </c>
+      <c r="JS39" t="n">
+        <v>94.09999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -33975,8 +34092,11 @@
       <c r="JQ40" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR40" t="n">
+      <c r="JR40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -34813,8 +34933,11 @@
       <c r="JQ41" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR41" t="n">
+      <c r="JR41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -35651,8 +35774,11 @@
       <c r="JQ42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR42" t="n">
+      <c r="JR42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JS42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36489,8 +36615,11 @@
       <c r="JQ43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR43" t="n">
+      <c r="JR43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JS43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37327,8 +37456,11 @@
       <c r="JQ44" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="JR44" t="n">
+      <c r="JR44" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="JS44" t="n">
+        <v>143</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38165,8 +38297,11 @@
       <c r="JQ45" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="JR45" t="n">
+      <c r="JR45" s="2" t="n">
         <v>238</v>
+      </c>
+      <c r="JS45" t="n">
+        <v>220</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39003,8 +39138,11 @@
       <c r="JQ46" s="2" t="n">
         <v>269</v>
       </c>
-      <c r="JR46" t="n">
+      <c r="JR46" s="2" t="n">
         <v>286</v>
+      </c>
+      <c r="JS46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -39841,8 +39979,11 @@
       <c r="JQ47" s="2" t="n">
         <v>70.8</v>
       </c>
-      <c r="JR47" t="n">
+      <c r="JR47" s="2" t="n">
         <v>74.7</v>
+      </c>
+      <c r="JS47" t="n">
+        <v>66.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40679,8 +40820,11 @@
       <c r="JQ48" s="2" t="n">
         <v>66</v>
       </c>
-      <c r="JR48" t="n">
+      <c r="JR48" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS48" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41517,8 +41661,11 @@
       <c r="JQ49" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JR49" t="n">
+      <c r="JR49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS49" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42355,8 +42502,11 @@
       <c r="JQ50" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JR50" t="n">
+      <c r="JR50" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JS50" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43193,8 +43343,11 @@
       <c r="JQ51" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JR51" t="n">
+      <c r="JR51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JS51" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44031,8 +44184,11 @@
       <c r="JQ52" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JR52" t="n">
+      <c r="JR52" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JS52" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -44869,8 +45025,11 @@
       <c r="JQ53" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JR53" t="n">
+      <c r="JR53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JS53" t="n">
+        <v>94</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -45707,8 +45866,11 @@
       <c r="JQ54" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR54" t="n">
+      <c r="JR54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46545,8 +46707,11 @@
       <c r="JQ55" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JR55" t="n">
+      <c r="JR55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JS55" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47383,8 +47548,11 @@
       <c r="JQ56" s="2" t="n">
         <v>66.7</v>
       </c>
-      <c r="JR56" t="n">
+      <c r="JR56" s="2" t="n">
         <v>81.2</v>
+      </c>
+      <c r="JS56" t="n">
+        <v>42.9</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48221,8 +48389,11 @@
       <c r="JQ57" s="2" t="n">
         <v>202</v>
       </c>
-      <c r="JR57" t="n">
+      <c r="JR57" s="2" t="n">
         <v>200</v>
+      </c>
+      <c r="JS57" t="n">
+        <v>258</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49059,8 +49230,11 @@
       <c r="JQ58" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="JR58" t="n">
+      <c r="JR58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JS58" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -49897,8 +50071,11 @@
       <c r="JQ59" s="2" t="n">
         <v>375</v>
       </c>
-      <c r="JR59" t="n">
+      <c r="JR59" s="2" t="n">
         <v>337</v>
+      </c>
+      <c r="JS59" t="n">
+        <v>439</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -50735,8 +50912,11 @@
       <c r="JQ60" s="2" t="n">
         <v>1.17</v>
       </c>
-      <c r="JR60" t="n">
+      <c r="JR60" s="2" t="n">
         <v>1.46</v>
+      </c>
+      <c r="JS60" t="n">
+        <v>1.43</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51573,8 +51753,11 @@
       <c r="JQ61" s="2" t="n">
         <v>81</v>
       </c>
-      <c r="JR61" t="n">
+      <c r="JR61" s="2" t="n">
         <v>95</v>
+      </c>
+      <c r="JS61" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52411,8 +52594,11 @@
       <c r="JQ62" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JR62" t="n">
+      <c r="JR62" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JS62" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53249,8 +53435,11 @@
       <c r="JQ63" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="JR63" t="n">
+      <c r="JR63" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JS63" t="n">
+        <v>34</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54087,8 +54276,11 @@
       <c r="JQ64" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR64" t="n">
+      <c r="JR64" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JS64" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -54925,8 +55117,11 @@
       <c r="JQ65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JR65" t="n">
+      <c r="JR65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JS65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -55763,7 +55958,10 @@
       <c r="JQ66" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JR66" t="n">
+      <c r="JR66" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JS66" t="n">
         <v>5</v>
       </c>
     </row>
@@ -56601,8 +56799,11 @@
       <c r="JQ67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR67" t="n">
+      <c r="JR67" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57439,8 +57640,11 @@
       <c r="JQ68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR68" t="n">
+      <c r="JR68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JS68" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58277,7 +58481,10 @@
       <c r="JQ69" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR69" t="n">
+      <c r="JR69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -59115,8 +59322,11 @@
       <c r="JQ70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JR70" t="n">
+      <c r="JR70" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JS70" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -59953,8 +60163,11 @@
       <c r="JQ71" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="JR71" t="n">
+      <c r="JR71" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JS71" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -60791,8 +61004,11 @@
       <c r="JQ72" s="2" t="n">
         <v>34.09</v>
       </c>
-      <c r="JR72" t="n">
+      <c r="JR72" s="2" t="n">
         <v>67.40000000000001</v>
+      </c>
+      <c r="JS72" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -61629,8 +61845,11 @@
       <c r="JQ73" s="2" t="n">
         <v>18.75</v>
       </c>
-      <c r="JR73" t="n">
+      <c r="JR73" s="2" t="n">
         <v>30.64</v>
+      </c>
+      <c r="JS73" t="n">
+        <v>21.95</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62467,8 +62686,11 @@
       <c r="JQ74" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JR74" t="n">
+      <c r="JR74" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JS74" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63305,8 +63527,11 @@
       <c r="JQ75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JR75" t="n">
+      <c r="JR75" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JS75" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -64143,8 +64368,11 @@
       <c r="JQ76" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JR76" t="n">
+      <c r="JR76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -64981,8 +65209,11 @@
       <c r="JQ77" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JR77" t="n">
+      <c r="JR77" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JS77" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -65819,8 +66050,11 @@
       <c r="JQ78" s="2" t="n">
         <v>2.35</v>
       </c>
-      <c r="JR78" t="n">
+      <c r="JR78" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS78" t="n">
+        <v>3.65</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -66657,8 +66891,11 @@
       <c r="JQ79" s="2" t="n">
         <v>4.27</v>
       </c>
-      <c r="JR79" t="n">
+      <c r="JR79" s="2" t="n">
         <v>8.800000000000001</v>
+      </c>
+      <c r="JS79" t="n">
+        <v>14.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67495,8 +67732,11 @@
       <c r="JQ80" s="2" t="n">
         <v>36.2</v>
       </c>
-      <c r="JR80" t="n">
+      <c r="JR80" s="2" t="n">
         <v>22.7</v>
+      </c>
+      <c r="JS80" t="n">
+        <v>26</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68333,8 +68573,11 @@
       <c r="JQ81" s="2" t="n">
         <v>23.4</v>
       </c>
-      <c r="JR81" t="n">
+      <c r="JR81" s="2" t="n">
         <v>11.4</v>
+      </c>
+      <c r="JS81" t="n">
+        <v>6.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -69171,8 +69414,11 @@
       <c r="JQ82" s="2" t="n">
         <v>188.6</v>
       </c>
-      <c r="JR82" t="n">
+      <c r="JR82" s="2" t="n">
         <v>187.9</v>
+      </c>
+      <c r="JS82" t="n">
+        <v>187.4</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -70009,8 +70255,11 @@
       <c r="JQ83" s="2" t="n">
         <v>84.90000000000001</v>
       </c>
-      <c r="JR83" t="n">
+      <c r="JR83" s="2" t="n">
         <v>86.2</v>
+      </c>
+      <c r="JS83" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -70847,8 +71096,11 @@
       <c r="JQ84" s="2" t="n">
         <v>24.91</v>
       </c>
-      <c r="JR84" t="n">
+      <c r="JR84" s="2" t="n">
         <v>24.33</v>
+      </c>
+      <c r="JS84" t="n">
+        <v>26.66</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -71685,8 +71937,11 @@
       <c r="JQ85" s="2" t="n">
         <v>92.90000000000001</v>
       </c>
-      <c r="JR85" t="n">
+      <c r="JR85" s="2" t="n">
         <v>75.3</v>
+      </c>
+      <c r="JS85" t="n">
+        <v>126.2</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -72523,8 +72778,11 @@
       <c r="JQ86" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JR86" t="n">
+      <c r="JR86" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73361,8 +73619,11 @@
       <c r="JQ87" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JR87" t="n">
+      <c r="JR87" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JS87" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -74199,8 +74460,11 @@
       <c r="JQ88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JR88" t="n">
+      <c r="JR88" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JS88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -75037,8 +75301,11 @@
       <c r="JQ89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JR89" t="n">
+      <c r="JR89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JS89" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -75875,8 +76142,11 @@
       <c r="JQ90" s="2" t="n">
         <v>129</v>
       </c>
-      <c r="JR90" t="n">
+      <c r="JR90" s="2" t="n">
         <v>116</v>
+      </c>
+      <c r="JS90" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -76713,8 +76983,11 @@
       <c r="JQ91" s="2" t="n">
         <v>239</v>
       </c>
-      <c r="JR91" t="n">
+      <c r="JR91" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="JS91" t="n">
+        <v>241</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -77551,8 +77824,11 @@
       <c r="JQ92" s="2" t="n">
         <v>276</v>
       </c>
-      <c r="JR92" t="n">
+      <c r="JR92" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="JS92" t="n">
+        <v>277</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78389,8 +78665,11 @@
       <c r="JQ93" s="2" t="n">
         <v>73.59999999999999</v>
       </c>
-      <c r="JR93" t="n">
+      <c r="JR93" s="2" t="n">
         <v>75.40000000000001</v>
+      </c>
+      <c r="JS93" t="n">
+        <v>63.1</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -79227,8 +79506,11 @@
       <c r="JQ94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JR94" t="n">
+      <c r="JR94" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JS94" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -80065,8 +80347,11 @@
       <c r="JQ95" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR95" t="n">
+      <c r="JR95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -80903,8 +81188,11 @@
       <c r="JQ96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JR96" t="n">
+      <c r="JR96" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JS96" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -81741,8 +82029,11 @@
       <c r="JQ97" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JR97" t="n">
+      <c r="JR97" s="2" t="n">
         <v>29</v>
+      </c>
+      <c r="JS97" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -82579,8 +82870,11 @@
       <c r="JQ98" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JR98" t="n">
+      <c r="JR98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JS98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -83417,8 +83711,11 @@
       <c r="JQ99" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JR99" t="n">
+      <c r="JR99" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JS99" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -84255,7 +84552,10 @@
       <c r="JQ100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JR100" t="n">
+      <c r="JR100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JS100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -85093,8 +85393,11 @@
       <c r="JQ101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JR101" t="n">
+      <c r="JR101" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JS101" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -85931,8 +86234,11 @@
       <c r="JQ102" s="2" t="n">
         <v>63.6</v>
       </c>
-      <c r="JR102" t="n">
+      <c r="JR102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JS102" t="n">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JT102"/>
+  <dimension ref="A1:JU102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1299,8 +1299,11 @@
       <c r="JS1" s="2" t="n">
         <v>10884</v>
       </c>
-      <c r="JT1" t="n">
+      <c r="JT1" s="2" t="n">
         <v>10889</v>
+      </c>
+      <c r="JU1" t="n">
+        <v>10902</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2143,7 +2146,10 @@
       <c r="JS2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JT2" t="n">
+      <c r="JT2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JU2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -2987,8 +2993,11 @@
       <c r="JS3" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JT3" t="n">
+      <c r="JT3" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JU3" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3831,8 +3840,11 @@
       <c r="JS4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT4" t="n">
+      <c r="JT4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JU4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4675,8 +4687,11 @@
       <c r="JS5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT5" t="n">
+      <c r="JT5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JU5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5519,8 +5534,11 @@
       <c r="JS6" s="2" t="n">
         <v>47</v>
       </c>
-      <c r="JT6" t="n">
+      <c r="JT6" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="JU6" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6363,8 +6381,11 @@
       <c r="JS7" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JT7" t="n">
+      <c r="JT7" s="2" t="n">
         <v>72</v>
+      </c>
+      <c r="JU7" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7207,8 +7228,11 @@
       <c r="JS8" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JT8" t="n">
+      <c r="JT8" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JU8" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8051,7 +8075,10 @@
       <c r="JS9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT9" t="n">
+      <c r="JT9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JU9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8895,8 +8922,11 @@
       <c r="JS10" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JT10" t="n">
+      <c r="JT10" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JU10" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9739,7 +9769,10 @@
       <c r="JS11" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JT11" t="n">
+      <c r="JT11" s="2" t="n">
+        <v>218</v>
+      </c>
+      <c r="JU11" t="n">
         <v>218</v>
       </c>
     </row>
@@ -10583,8 +10616,11 @@
       <c r="JS12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="JT12" t="n">
+      <c r="JT12" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="JU12" t="n">
+        <v>140</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11427,8 +11463,11 @@
       <c r="JS13" s="2" t="n">
         <v>372</v>
       </c>
-      <c r="JT13" t="n">
+      <c r="JT13" s="2" t="n">
         <v>351</v>
+      </c>
+      <c r="JU13" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12271,8 +12310,11 @@
       <c r="JS14" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="JT14" t="n">
+      <c r="JT14" s="2" t="n">
         <v>1.64</v>
+      </c>
+      <c r="JU14" t="n">
+        <v>1.56</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13115,8 +13157,11 @@
       <c r="JS15" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JT15" t="n">
+      <c r="JT15" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="JU15" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -13959,8 +14004,11 @@
       <c r="JS16" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="JT16" t="n">
+      <c r="JT16" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JU16" t="n">
+        <v>86</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14803,8 +14851,11 @@
       <c r="JS17" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="JT17" t="n">
+      <c r="JT17" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JU17" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15647,8 +15698,11 @@
       <c r="JS18" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JT18" t="n">
+      <c r="JT18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JU18" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16491,8 +16545,11 @@
       <c r="JS19" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JT19" t="n">
+      <c r="JT19" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JU19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17335,8 +17392,11 @@
       <c r="JS20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JT20" t="n">
+      <c r="JT20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JU20" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18179,8 +18239,11 @@
       <c r="JS21" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT21" t="n">
+      <c r="JT21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JU21" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19023,8 +19086,11 @@
       <c r="JS22" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JT22" t="n">
+      <c r="JT22" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JU22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -19867,8 +19933,11 @@
       <c r="JS23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT23" t="n">
+      <c r="JT23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JU23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20711,8 +20780,11 @@
       <c r="JS24" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JT24" t="n">
+      <c r="JT24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JU24" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21555,8 +21627,11 @@
       <c r="JS25" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="JT25" t="n">
+      <c r="JT25" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JU25" t="n">
+        <v>47.6</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22399,8 +22474,11 @@
       <c r="JS26" s="2" t="n">
         <v>53.14</v>
       </c>
-      <c r="JT26" t="n">
+      <c r="JT26" s="2" t="n">
         <v>29.25</v>
+      </c>
+      <c r="JU26" t="n">
+        <v>35.8</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23243,8 +23321,11 @@
       <c r="JS27" s="2" t="n">
         <v>31</v>
       </c>
-      <c r="JT27" t="n">
+      <c r="JT27" s="2" t="n">
         <v>14.04</v>
+      </c>
+      <c r="JU27" t="n">
+        <v>17.05</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24087,8 +24168,11 @@
       <c r="JS28" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JT28" t="n">
+      <c r="JT28" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JU28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -24931,8 +25015,11 @@
       <c r="JS29" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="JT29" t="n">
+      <c r="JT29" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JU29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25775,7 +25862,10 @@
       <c r="JS30" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JT30" t="n">
+      <c r="JT30" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JU30" t="n">
         <v>44</v>
       </c>
     </row>
@@ -26619,7 +26709,10 @@
       <c r="JS31" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JT31" t="n">
+      <c r="JT31" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="JU31" t="n">
         <v>60</v>
       </c>
     </row>
@@ -27463,8 +27556,11 @@
       <c r="JS32" s="2" t="n">
         <v>3.83</v>
       </c>
-      <c r="JT32" t="n">
+      <c r="JT32" s="2" t="n">
         <v>2.4</v>
+      </c>
+      <c r="JU32" t="n">
+        <v>2.86</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28307,8 +28403,11 @@
       <c r="JS33" s="2" t="n">
         <v>6.57</v>
       </c>
-      <c r="JT33" t="n">
+      <c r="JT33" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JU33" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29151,8 +29250,11 @@
       <c r="JS34" s="2" t="n">
         <v>23.9</v>
       </c>
-      <c r="JT34" t="n">
+      <c r="JT34" s="2" t="n">
         <v>38.3</v>
+      </c>
+      <c r="JU34" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -29995,8 +30097,11 @@
       <c r="JS35" s="2" t="n">
         <v>15.2</v>
       </c>
-      <c r="JT35" t="n">
+      <c r="JT35" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JU35" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -30839,8 +30944,11 @@
       <c r="JS36" s="2" t="n">
         <v>189.9</v>
       </c>
-      <c r="JT36" t="n">
+      <c r="JT36" s="2" t="n">
         <v>189.9</v>
+      </c>
+      <c r="JU36" t="n">
+        <v>188.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31683,8 +31791,11 @@
       <c r="JS37" s="2" t="n">
         <v>89.09999999999999</v>
       </c>
-      <c r="JT37" t="n">
+      <c r="JT37" s="2" t="n">
         <v>89.2</v>
+      </c>
+      <c r="JU37" t="n">
+        <v>86.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32527,8 +32638,11 @@
       <c r="JS38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="JT38" t="n">
+      <c r="JT38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="JU38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33371,8 +33485,11 @@
       <c r="JS39" s="2" t="n">
         <v>94.09999999999999</v>
       </c>
-      <c r="JT39" t="n">
+      <c r="JT39" s="2" t="n">
         <v>103.2</v>
+      </c>
+      <c r="JU39" t="n">
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34215,8 +34332,11 @@
       <c r="JS40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JT40" t="n">
+      <c r="JT40" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JU40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -35059,7 +35179,10 @@
       <c r="JS41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JT41" t="n">
+      <c r="JT41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JU41" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35903,8 +36026,11 @@
       <c r="JS42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT42" t="n">
+      <c r="JT42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JU42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -36747,8 +36873,11 @@
       <c r="JS43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JT43" t="n">
+      <c r="JT43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -37591,8 +37720,11 @@
       <c r="JS44" s="2" t="n">
         <v>143</v>
       </c>
-      <c r="JT44" t="n">
+      <c r="JT44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JU44" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38435,8 +38567,11 @@
       <c r="JS45" s="2" t="n">
         <v>220</v>
       </c>
-      <c r="JT45" t="n">
+      <c r="JT45" s="2" t="n">
         <v>202</v>
+      </c>
+      <c r="JU45" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39279,8 +39414,11 @@
       <c r="JS46" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JT46" t="n">
+      <c r="JT46" s="2" t="n">
         <v>257</v>
+      </c>
+      <c r="JU46" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40123,8 +40261,11 @@
       <c r="JS47" s="2" t="n">
         <v>66.40000000000001</v>
       </c>
-      <c r="JT47" t="n">
+      <c r="JT47" s="2" t="n">
         <v>73.2</v>
+      </c>
+      <c r="JU47" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -40967,8 +41108,11 @@
       <c r="JS48" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="JT48" t="n">
+      <c r="JT48" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JU48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -41811,8 +41955,11 @@
       <c r="JS49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JT49" t="n">
+      <c r="JT49" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JU49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42655,8 +42802,11 @@
       <c r="JS50" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT50" t="n">
+      <c r="JT50" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JU50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43499,8 +43649,11 @@
       <c r="JS51" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JT51" t="n">
+      <c r="JT51" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JU51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44343,7 +44496,10 @@
       <c r="JS52" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JT52" t="n">
+      <c r="JT52" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="JU52" t="n">
         <v>44</v>
       </c>
     </row>
@@ -45187,8 +45343,11 @@
       <c r="JS53" s="2" t="n">
         <v>94</v>
       </c>
-      <c r="JT53" t="n">
+      <c r="JT53" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="JU53" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -46031,8 +46190,11 @@
       <c r="JS54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JT54" t="n">
+      <c r="JT54" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="JU54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -46875,8 +47037,11 @@
       <c r="JS55" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT55" t="n">
+      <c r="JT55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JU55" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -47719,8 +47884,11 @@
       <c r="JS56" s="2" t="n">
         <v>42.9</v>
       </c>
-      <c r="JT56" t="n">
+      <c r="JT56" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="JU56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48563,8 +48731,11 @@
       <c r="JS57" s="2" t="n">
         <v>258</v>
       </c>
-      <c r="JT57" t="n">
+      <c r="JT57" s="2" t="n">
         <v>182</v>
+      </c>
+      <c r="JU57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49407,8 +49578,11 @@
       <c r="JS58" s="2" t="n">
         <v>181</v>
       </c>
-      <c r="JT58" t="n">
+      <c r="JT58" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="JU58" t="n">
+        <v>149</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50251,8 +50425,11 @@
       <c r="JS59" s="2" t="n">
         <v>439</v>
       </c>
-      <c r="JT59" t="n">
+      <c r="JT59" s="2" t="n">
         <v>370</v>
+      </c>
+      <c r="JU59" t="n">
+        <v>354</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51095,8 +51272,11 @@
       <c r="JS60" s="2" t="n">
         <v>1.43</v>
       </c>
-      <c r="JT60" t="n">
+      <c r="JT60" s="2" t="n">
         <v>0.97</v>
+      </c>
+      <c r="JU60" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -51939,8 +52119,11 @@
       <c r="JS61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JT61" t="n">
+      <c r="JT61" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JU61" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -52783,8 +52966,11 @@
       <c r="JS62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JT62" t="n">
+      <c r="JT62" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="JU62" t="n">
+        <v>84</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -53627,8 +53813,11 @@
       <c r="JS63" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JT63" t="n">
+      <c r="JT63" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JU63" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54471,8 +54660,11 @@
       <c r="JS64" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JT64" t="n">
+      <c r="JT64" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JU64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -55315,7 +55507,10 @@
       <c r="JS65" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JT65" t="n">
+      <c r="JT65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="JU65" t="n">
         <v>19</v>
       </c>
     </row>
@@ -56159,8 +56354,11 @@
       <c r="JS66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JT66" t="n">
+      <c r="JT66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JU66" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -57003,8 +57201,11 @@
       <c r="JS67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT67" t="n">
+      <c r="JT67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -57847,8 +58048,11 @@
       <c r="JS68" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JT68" t="n">
+      <c r="JT68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JU68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -58691,8 +58895,11 @@
       <c r="JS69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT69" t="n">
+      <c r="JT69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JU69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -59535,8 +59742,11 @@
       <c r="JS70" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JT70" t="n">
+      <c r="JT70" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JU70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -60379,8 +60589,11 @@
       <c r="JS71" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JT71" t="n">
+      <c r="JT71" s="2" t="n">
         <v>45.5</v>
+      </c>
+      <c r="JU71" t="n">
+        <v>47.1</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -61223,8 +61436,11 @@
       <c r="JS72" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="JT72" t="n">
+      <c r="JT72" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JU72" t="n">
+        <v>44.25</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -62067,8 +62283,11 @@
       <c r="JS73" s="2" t="n">
         <v>21.95</v>
       </c>
-      <c r="JT73" t="n">
+      <c r="JT73" s="2" t="n">
         <v>16.82</v>
+      </c>
+      <c r="JU73" t="n">
+        <v>20.82</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -62911,8 +63130,11 @@
       <c r="JS74" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JT74" t="n">
+      <c r="JT74" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JU74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -63755,8 +63977,11 @@
       <c r="JS75" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JT75" t="n">
+      <c r="JT75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JU75" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -64599,8 +64824,11 @@
       <c r="JS76" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JT76" t="n">
+      <c r="JT76" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JU76" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -65443,8 +65671,11 @@
       <c r="JS77" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JT77" t="n">
+      <c r="JT77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JU77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -66287,8 +66518,11 @@
       <c r="JS78" s="2" t="n">
         <v>3.65</v>
       </c>
-      <c r="JT78" t="n">
+      <c r="JT78" s="2" t="n">
         <v>2.5</v>
+      </c>
+      <c r="JU78" t="n">
+        <v>3.18</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -67131,8 +67365,11 @@
       <c r="JS79" s="2" t="n">
         <v>14.6</v>
       </c>
-      <c r="JT79" t="n">
+      <c r="JT79" s="2" t="n">
         <v>5.5</v>
+      </c>
+      <c r="JU79" t="n">
+        <v>6.75</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -67975,8 +68212,11 @@
       <c r="JS80" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JT80" t="n">
+      <c r="JT80" s="2" t="n">
         <v>36.4</v>
+      </c>
+      <c r="JU80" t="n">
+        <v>31.5</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -68819,8 +69059,11 @@
       <c r="JS81" s="2" t="n">
         <v>6.8</v>
       </c>
-      <c r="JT81" t="n">
+      <c r="JT81" s="2" t="n">
         <v>18.2</v>
+      </c>
+      <c r="JU81" t="n">
+        <v>14.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -69663,8 +69906,11 @@
       <c r="JS82" s="2" t="n">
         <v>187.4</v>
       </c>
-      <c r="JT82" t="n">
+      <c r="JT82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JU82" t="n">
+        <v>187.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -70507,8 +70753,11 @@
       <c r="JS83" s="2" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="JT83" t="n">
+      <c r="JT83" s="2" t="n">
         <v>85.5</v>
+      </c>
+      <c r="JU83" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -71351,8 +71600,11 @@
       <c r="JS84" s="2" t="n">
         <v>26.66</v>
       </c>
-      <c r="JT84" t="n">
+      <c r="JT84" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="JU84" t="n">
+        <v>25.16</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -72195,8 +72447,11 @@
       <c r="JS85" s="2" t="n">
         <v>126.2</v>
       </c>
-      <c r="JT85" t="n">
+      <c r="JT85" s="2" t="n">
         <v>68.5</v>
+      </c>
+      <c r="JU85" t="n">
+        <v>90.40000000000001</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -73039,8 +73294,11 @@
       <c r="JS86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JT86" t="n">
+      <c r="JT86" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JU86" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -73883,8 +74141,11 @@
       <c r="JS87" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JT87" t="n">
+      <c r="JT87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU87" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -74727,7 +74988,10 @@
       <c r="JS88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JT88" t="n">
+      <c r="JT88" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JU88" t="n">
         <v>2</v>
       </c>
     </row>
@@ -75571,8 +75835,11 @@
       <c r="JS89" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JT89" t="n">
+      <c r="JT89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JU89" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -76415,8 +76682,11 @@
       <c r="JS90" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="JT90" t="n">
+      <c r="JT90" s="2" t="n">
         <v>149</v>
+      </c>
+      <c r="JU90" t="n">
+        <v>158</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -77259,8 +77529,11 @@
       <c r="JS91" s="2" t="n">
         <v>241</v>
       </c>
-      <c r="JT91" t="n">
+      <c r="JT91" s="2" t="n">
         <v>210</v>
+      </c>
+      <c r="JU91" t="n">
+        <v>187</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -78103,8 +78376,11 @@
       <c r="JS92" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="JT92" t="n">
+      <c r="JT92" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="JU92" t="n">
+        <v>247</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -78947,8 +79223,11 @@
       <c r="JS93" s="2" t="n">
         <v>63.1</v>
       </c>
-      <c r="JT93" t="n">
+      <c r="JT93" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="JU93" t="n">
+        <v>69.8</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -79791,8 +80070,11 @@
       <c r="JS94" s="2" t="n">
         <v>74</v>
       </c>
-      <c r="JT94" t="n">
+      <c r="JT94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JU94" t="n">
+        <v>59</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -80635,8 +80917,11 @@
       <c r="JS95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JT95" t="n">
+      <c r="JT95" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JU95" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -81479,8 +81764,11 @@
       <c r="JS96" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JT96" t="n">
+      <c r="JT96" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JU96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -82323,8 +82611,11 @@
       <c r="JS97" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JT97" t="n">
+      <c r="JT97" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="JU97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -83167,8 +83458,11 @@
       <c r="JS98" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JT98" t="n">
+      <c r="JT98" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JU98" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -84011,8 +84305,11 @@
       <c r="JS99" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JT99" t="n">
+      <c r="JT99" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="JU99" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -84855,8 +85152,11 @@
       <c r="JS100" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JT100" t="n">
+      <c r="JT100" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JU100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -85699,8 +85999,11 @@
       <c r="JS101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JT101" t="n">
+      <c r="JT101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JU101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -86543,8 +86846,11 @@
       <c r="JS102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JT102" t="n">
+      <c r="JT102" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JU102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JV102"/>
+  <dimension ref="A1:JW102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1305,8 +1305,11 @@
       <c r="JU1" s="2" t="n">
         <v>10902</v>
       </c>
-      <c r="JV1" t="n">
+      <c r="JV1" s="2" t="n">
         <v>10907</v>
+      </c>
+      <c r="JW1" t="n">
+        <v>10919</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2155,7 +2158,10 @@
       <c r="JU2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JV2" t="n">
+      <c r="JV2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JW2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3005,8 +3011,11 @@
       <c r="JU3" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JV3" t="n">
+      <c r="JV3" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="JW3" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3855,8 +3864,11 @@
       <c r="JU4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV4" t="n">
+      <c r="JV4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JW4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4705,8 +4717,11 @@
       <c r="JU5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV5" t="n">
+      <c r="JV5" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JW5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5555,8 +5570,11 @@
       <c r="JU6" s="2" t="n">
         <v>71</v>
       </c>
-      <c r="JV6" t="n">
+      <c r="JV6" s="2" t="n">
         <v>103</v>
+      </c>
+      <c r="JW6" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6405,8 +6423,11 @@
       <c r="JU7" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JV7" t="n">
+      <c r="JV7" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JW7" t="n">
+        <v>73</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7255,8 +7276,11 @@
       <c r="JU8" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JV8" t="n">
+      <c r="JV8" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JW8" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8105,7 +8129,10 @@
       <c r="JU9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV9" t="n">
+      <c r="JV9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JW9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8955,8 +8982,11 @@
       <c r="JU10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JV10" t="n">
+      <c r="JV10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW10" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9805,8 +9835,11 @@
       <c r="JU11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JV11" t="n">
+      <c r="JV11" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="JW11" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10655,8 +10688,11 @@
       <c r="JU12" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="JV12" t="n">
+      <c r="JV12" s="2" t="n">
         <v>164</v>
+      </c>
+      <c r="JW12" t="n">
+        <v>191</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11505,8 +11541,11 @@
       <c r="JU13" s="2" t="n">
         <v>358</v>
       </c>
-      <c r="JV13" t="n">
+      <c r="JV13" s="2" t="n">
         <v>387</v>
+      </c>
+      <c r="JW13" t="n">
+        <v>409</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12355,8 +12394,11 @@
       <c r="JU14" s="2" t="n">
         <v>1.56</v>
       </c>
-      <c r="JV14" t="n">
+      <c r="JV14" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="JW14" t="n">
+        <v>1.14</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13205,8 +13247,11 @@
       <c r="JU15" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JV15" t="n">
+      <c r="JV15" s="2" t="n">
         <v>108</v>
+      </c>
+      <c r="JW15" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14055,8 +14100,11 @@
       <c r="JU16" s="2" t="n">
         <v>86</v>
       </c>
-      <c r="JV16" t="n">
+      <c r="JV16" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="JW16" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14905,8 +14953,11 @@
       <c r="JU17" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JV17" t="n">
+      <c r="JV17" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="JW17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15755,8 +15806,11 @@
       <c r="JU18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JV18" t="n">
+      <c r="JV18" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JW18" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16605,8 +16659,11 @@
       <c r="JU19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JV19" t="n">
+      <c r="JV19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JW19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17455,8 +17512,11 @@
       <c r="JU20" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV20" t="n">
+      <c r="JV20" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JW20" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18305,8 +18365,11 @@
       <c r="JU21" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV21" t="n">
+      <c r="JV21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW21" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19155,8 +19218,11 @@
       <c r="JU22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV22" t="n">
+      <c r="JV22" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JW22" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20005,8 +20071,11 @@
       <c r="JU23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV23" t="n">
+      <c r="JV23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JW23" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20855,8 +20924,11 @@
       <c r="JU24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JV24" t="n">
+      <c r="JV24" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="JW24" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21705,8 +21777,11 @@
       <c r="JU25" s="2" t="n">
         <v>47.6</v>
       </c>
-      <c r="JV25" t="n">
+      <c r="JV25" s="2" t="n">
         <v>53.6</v>
+      </c>
+      <c r="JW25" t="n">
+        <v>47.8</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22555,8 +22630,11 @@
       <c r="JU26" s="2" t="n">
         <v>35.8</v>
       </c>
-      <c r="JV26" t="n">
+      <c r="JV26" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="JW26" t="n">
+        <v>37.18</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23405,8 +23483,11 @@
       <c r="JU27" s="2" t="n">
         <v>17.05</v>
       </c>
-      <c r="JV27" t="n">
+      <c r="JV27" s="2" t="n">
         <v>13.82</v>
+      </c>
+      <c r="JW27" t="n">
+        <v>17.78</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24255,7 +24336,10 @@
       <c r="JU28" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JV28" t="n">
+      <c r="JV28" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JW28" t="n">
         <v>35</v>
       </c>
     </row>
@@ -25105,8 +25189,11 @@
       <c r="JU29" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JV29" t="n">
+      <c r="JV29" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JW29" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -25955,8 +26042,11 @@
       <c r="JU30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JV30" t="n">
+      <c r="JV30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JW30" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26805,8 +26895,11 @@
       <c r="JU31" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JV31" t="n">
+      <c r="JV31" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JW31" t="n">
+        <v>56</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27655,8 +27748,11 @@
       <c r="JU32" s="2" t="n">
         <v>2.86</v>
       </c>
-      <c r="JV32" t="n">
+      <c r="JV32" s="2" t="n">
         <v>1.75</v>
+      </c>
+      <c r="JW32" t="n">
+        <v>2.43</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28505,8 +28601,11 @@
       <c r="JU33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JV33" t="n">
+      <c r="JV33" s="2" t="n">
         <v>3.27</v>
+      </c>
+      <c r="JW33" t="n">
+        <v>5.09</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29355,8 +29454,11 @@
       <c r="JU34" s="2" t="n">
         <v>28.3</v>
       </c>
-      <c r="JV34" t="n">
+      <c r="JV34" s="2" t="n">
         <v>55.1</v>
+      </c>
+      <c r="JW34" t="n">
+        <v>33.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -30205,8 +30307,11 @@
       <c r="JU35" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="JV35" t="n">
+      <c r="JV35" s="2" t="n">
         <v>30.6</v>
+      </c>
+      <c r="JW35" t="n">
+        <v>19.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31055,8 +31160,11 @@
       <c r="JU36" s="2" t="n">
         <v>188.1</v>
       </c>
-      <c r="JV36" t="n">
+      <c r="JV36" s="2" t="n">
         <v>188.3</v>
+      </c>
+      <c r="JW36" t="n">
+        <v>189.1</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -31905,8 +32013,11 @@
       <c r="JU37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="JV37" t="n">
+      <c r="JV37" s="2" t="n">
         <v>86.7</v>
+      </c>
+      <c r="JW37" t="n">
+        <v>87.8</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32755,8 +32866,11 @@
       <c r="JU38" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="JV38" t="n">
+      <c r="JV38" s="2" t="n">
         <v>25.33</v>
+      </c>
+      <c r="JW38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33605,8 +33719,11 @@
       <c r="JU39" s="2" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="JV39" t="n">
+      <c r="JV39" s="2" t="n">
         <v>94.5</v>
+      </c>
+      <c r="JW39" t="n">
+        <v>99.8</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34455,8 +34572,11 @@
       <c r="JU40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV40" t="n">
+      <c r="JV40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -35305,7 +35425,10 @@
       <c r="JU41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV41" t="n">
+      <c r="JV41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW41" t="n">
         <v>6</v>
       </c>
     </row>
@@ -36155,8 +36278,11 @@
       <c r="JU42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JV42" t="n">
+      <c r="JV42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JW42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -37005,7 +37131,10 @@
       <c r="JU43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JV43" t="n">
+      <c r="JV43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JW43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37855,8 +37984,11 @@
       <c r="JU44" s="2" t="n">
         <v>155</v>
       </c>
-      <c r="JV44" t="n">
+      <c r="JV44" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JW44" t="n">
+        <v>144</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38705,7 +38837,10 @@
       <c r="JU45" s="2" t="n">
         <v>188</v>
       </c>
-      <c r="JV45" t="n">
+      <c r="JV45" s="2" t="n">
+        <v>254</v>
+      </c>
+      <c r="JW45" t="n">
         <v>254</v>
       </c>
     </row>
@@ -39555,8 +39690,11 @@
       <c r="JU46" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JV46" t="n">
+      <c r="JV46" s="2" t="n">
         <v>299</v>
+      </c>
+      <c r="JW46" t="n">
+        <v>295</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40405,8 +40543,11 @@
       <c r="JU47" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JV47" t="n">
+      <c r="JV47" s="2" t="n">
         <v>77.3</v>
+      </c>
+      <c r="JW47" t="n">
+        <v>72.09999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -41255,8 +41396,11 @@
       <c r="JU48" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JV48" t="n">
+      <c r="JV48" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JW48" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -42105,8 +42249,11 @@
       <c r="JU49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV49" t="n">
+      <c r="JV49" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JW49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -42955,8 +43102,11 @@
       <c r="JU50" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JV50" t="n">
+      <c r="JV50" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JW50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43805,7 +43955,10 @@
       <c r="JU51" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JV51" t="n">
+      <c r="JV51" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="JW51" t="n">
         <v>35</v>
       </c>
     </row>
@@ -44655,8 +44808,11 @@
       <c r="JU52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JV52" t="n">
+      <c r="JV52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JW52" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45505,7 +45661,10 @@
       <c r="JU53" s="2" t="n">
         <v>62</v>
       </c>
-      <c r="JV53" t="n">
+      <c r="JV53" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="JW53" t="n">
         <v>49</v>
       </c>
     </row>
@@ -46355,8 +46514,11 @@
       <c r="JU54" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JV54" t="n">
+      <c r="JV54" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JW54" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -47205,8 +47367,11 @@
       <c r="JU55" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV55" t="n">
+      <c r="JV55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JW55" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -48055,8 +48220,11 @@
       <c r="JU56" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JV56" t="n">
+      <c r="JV56" s="2" t="n">
         <v>46.7</v>
+      </c>
+      <c r="JW56" t="n">
+        <v>81.8</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -48905,8 +49073,11 @@
       <c r="JU57" s="2" t="n">
         <v>205</v>
       </c>
-      <c r="JV57" t="n">
+      <c r="JV57" s="2" t="n">
         <v>214</v>
+      </c>
+      <c r="JW57" t="n">
+        <v>217</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49755,8 +49926,11 @@
       <c r="JU58" s="2" t="n">
         <v>149</v>
       </c>
-      <c r="JV58" t="n">
+      <c r="JV58" s="2" t="n">
         <v>120</v>
+      </c>
+      <c r="JW58" t="n">
+        <v>167</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50605,8 +50779,11 @@
       <c r="JU59" s="2" t="n">
         <v>354</v>
       </c>
-      <c r="JV59" t="n">
+      <c r="JV59" s="2" t="n">
         <v>334</v>
+      </c>
+      <c r="JW59" t="n">
+        <v>384</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51455,8 +51632,11 @@
       <c r="JU60" s="2" t="n">
         <v>1.38</v>
       </c>
-      <c r="JV60" t="n">
+      <c r="JV60" s="2" t="n">
         <v>1.78</v>
+      </c>
+      <c r="JW60" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -52305,8 +52485,11 @@
       <c r="JU61" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JV61" t="n">
+      <c r="JV61" s="2" t="n">
         <v>99</v>
+      </c>
+      <c r="JW61" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -53155,8 +53338,11 @@
       <c r="JU62" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="JV62" t="n">
+      <c r="JV62" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JW62" t="n">
+        <v>67</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -54005,8 +54191,11 @@
       <c r="JU63" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="JV63" t="n">
+      <c r="JV63" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JW63" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -54855,8 +55044,11 @@
       <c r="JU64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JV64" t="n">
+      <c r="JV64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JW64" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -55705,8 +55897,11 @@
       <c r="JU65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JV65" t="n">
+      <c r="JV65" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JW65" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -56555,8 +56750,11 @@
       <c r="JU66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV66" t="n">
+      <c r="JV66" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW66" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -57405,7 +57603,10 @@
       <c r="JU67" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV67" t="n">
+      <c r="JV67" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW67" t="n">
         <v>8</v>
       </c>
     </row>
@@ -58255,8 +58456,11 @@
       <c r="JU68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV68" t="n">
+      <c r="JV68" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JW68" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -59105,8 +59309,11 @@
       <c r="JU69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JV69" t="n">
+      <c r="JV69" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW69" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -59955,8 +60162,11 @@
       <c r="JU70" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JV70" t="n">
+      <c r="JV70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JW70" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -60805,8 +61015,11 @@
       <c r="JU71" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="JV71" t="n">
+      <c r="JV71" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JW71" t="n">
+        <v>43.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -61655,8 +61868,11 @@
       <c r="JU72" s="2" t="n">
         <v>44.25</v>
       </c>
-      <c r="JV72" t="n">
+      <c r="JV72" s="2" t="n">
         <v>37.11</v>
+      </c>
+      <c r="JW72" t="n">
+        <v>38.4</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -62505,8 +62721,11 @@
       <c r="JU73" s="2" t="n">
         <v>20.82</v>
       </c>
-      <c r="JV73" t="n">
+      <c r="JV73" s="2" t="n">
         <v>18.56</v>
+      </c>
+      <c r="JW73" t="n">
+        <v>16.7</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -63355,8 +63574,11 @@
       <c r="JU74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JV74" t="n">
+      <c r="JV74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JW74" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -64205,8 +64427,11 @@
       <c r="JU75" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JV75" t="n">
+      <c r="JV75" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JW75" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -65055,8 +65280,11 @@
       <c r="JU76" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JV76" t="n">
+      <c r="JV76" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JW76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -65905,8 +66133,11 @@
       <c r="JU77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JV77" t="n">
+      <c r="JV77" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JW77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -66755,8 +66986,11 @@
       <c r="JU78" s="2" t="n">
         <v>3.18</v>
       </c>
-      <c r="JV78" t="n">
+      <c r="JV78" s="2" t="n">
         <v>2.94</v>
+      </c>
+      <c r="JW78" t="n">
+        <v>2.48</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -67605,8 +67839,11 @@
       <c r="JU79" s="2" t="n">
         <v>6.75</v>
       </c>
-      <c r="JV79" t="n">
+      <c r="JV79" s="2" t="n">
         <v>5.89</v>
+      </c>
+      <c r="JW79" t="n">
+        <v>5.7</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -68455,8 +68692,11 @@
       <c r="JU80" s="2" t="n">
         <v>31.5</v>
       </c>
-      <c r="JV80" t="n">
+      <c r="JV80" s="2" t="n">
         <v>26.4</v>
+      </c>
+      <c r="JW80" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -69305,8 +69545,11 @@
       <c r="JU81" s="2" t="n">
         <v>14.8</v>
       </c>
-      <c r="JV81" t="n">
+      <c r="JV81" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JW81" t="n">
+        <v>17.5</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -70155,8 +70398,11 @@
       <c r="JU82" s="2" t="n">
         <v>187.7</v>
       </c>
-      <c r="JV82" t="n">
+      <c r="JV82" s="2" t="n">
         <v>188.2</v>
+      </c>
+      <c r="JW82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -71005,8 +71251,11 @@
       <c r="JU83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="JV83" t="n">
+      <c r="JV83" s="2" t="n">
         <v>86.09999999999999</v>
+      </c>
+      <c r="JW83" t="n">
+        <v>87</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -71855,8 +72104,11 @@
       <c r="JU84" s="2" t="n">
         <v>25.16</v>
       </c>
-      <c r="JV84" t="n">
+      <c r="JV84" s="2" t="n">
         <v>25.41</v>
+      </c>
+      <c r="JW84" t="n">
+        <v>26.74</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -72705,8 +72957,11 @@
       <c r="JU85" s="2" t="n">
         <v>90.40000000000001</v>
       </c>
-      <c r="JV85" t="n">
+      <c r="JV85" s="2" t="n">
         <v>96.40000000000001</v>
+      </c>
+      <c r="JW85" t="n">
+        <v>118.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -73555,8 +73810,11 @@
       <c r="JU86" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JV86" t="n">
+      <c r="JV86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JW86" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -74405,8 +74663,11 @@
       <c r="JU87" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JV87" t="n">
+      <c r="JV87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -75255,8 +75516,11 @@
       <c r="JU88" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JV88" t="n">
+      <c r="JV88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JW88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -76105,8 +76369,11 @@
       <c r="JU89" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV89" t="n">
+      <c r="JV89" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JW89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -76955,8 +77222,11 @@
       <c r="JU90" s="2" t="n">
         <v>158</v>
       </c>
-      <c r="JV90" t="n">
+      <c r="JV90" s="2" t="n">
         <v>109</v>
+      </c>
+      <c r="JW90" t="n">
+        <v>151</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -77805,8 +78075,11 @@
       <c r="JU91" s="2" t="n">
         <v>187</v>
       </c>
-      <c r="JV91" t="n">
+      <c r="JV91" s="2" t="n">
         <v>207</v>
+      </c>
+      <c r="JW91" t="n">
+        <v>232</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -78655,8 +78928,11 @@
       <c r="JU92" s="2" t="n">
         <v>247</v>
       </c>
-      <c r="JV92" t="n">
+      <c r="JV92" s="2" t="n">
         <v>251</v>
+      </c>
+      <c r="JW92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -79505,8 +79781,11 @@
       <c r="JU93" s="2" t="n">
         <v>69.8</v>
       </c>
-      <c r="JV93" t="n">
+      <c r="JV93" s="2" t="n">
         <v>75.09999999999999</v>
+      </c>
+      <c r="JW93" t="n">
+        <v>70.59999999999999</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -80355,8 +80634,11 @@
       <c r="JU94" s="2" t="n">
         <v>59</v>
       </c>
-      <c r="JV94" t="n">
+      <c r="JV94" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="JW94" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -81205,8 +81487,11 @@
       <c r="JU95" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="JV95" t="n">
+      <c r="JV95" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JW95" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -82055,8 +82340,11 @@
       <c r="JU96" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JV96" t="n">
+      <c r="JV96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JW96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -82905,8 +83193,11 @@
       <c r="JU97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JV97" t="n">
+      <c r="JV97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JW97" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -83755,8 +84046,11 @@
       <c r="JU98" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JV98" t="n">
+      <c r="JV98" s="2" t="n">
         <v>34</v>
+      </c>
+      <c r="JW98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -84605,8 +84899,11 @@
       <c r="JU99" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JV99" t="n">
+      <c r="JV99" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JW99" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -85455,7 +85752,10 @@
       <c r="JU100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JV100" t="n">
+      <c r="JV100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="JW100" t="n">
         <v>2</v>
       </c>
     </row>
@@ -86305,7 +86605,10 @@
       <c r="JU101" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JV101" t="n">
+      <c r="JV101" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="JW101" t="n">
         <v>8</v>
       </c>
     </row>
@@ -87155,8 +87458,11 @@
       <c r="JU102" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JV102" t="n">
+      <c r="JV102" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="JW102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JW102"/>
+  <dimension ref="A1:JX102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1308,8 +1308,11 @@
       <c r="JV1" s="2" t="n">
         <v>10907</v>
       </c>
-      <c r="JW1" t="n">
+      <c r="JW1" s="2" t="n">
         <v>10919</v>
+      </c>
+      <c r="JX1" t="n">
+        <v>10924</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2161,7 +2164,10 @@
       <c r="JV2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JW2" t="n">
+      <c r="JW2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JX2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3014,8 +3020,11 @@
       <c r="JV3" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="JW3" t="n">
+      <c r="JW3" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JX3" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3867,8 +3876,11 @@
       <c r="JV4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JW4" t="n">
+      <c r="JW4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JX4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4720,7 +4732,10 @@
       <c r="JV5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JW5" t="n">
+      <c r="JW5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="JX5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5573,8 +5588,11 @@
       <c r="JV6" s="2" t="n">
         <v>103</v>
       </c>
-      <c r="JW6" t="n">
+      <c r="JW6" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="JX6" t="n">
+        <v>85</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6426,8 +6444,11 @@
       <c r="JV7" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="JW7" t="n">
+      <c r="JW7" s="2" t="n">
         <v>73</v>
+      </c>
+      <c r="JX7" t="n">
+        <v>96</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7279,8 +7300,11 @@
       <c r="JV8" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JW8" t="n">
+      <c r="JW8" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JX8" t="n">
+        <v>-11</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8132,8 +8156,11 @@
       <c r="JV9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JW9" t="n">
+      <c r="JW9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JX9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -8985,8 +9012,11 @@
       <c r="JV10" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW10" t="n">
+      <c r="JW10" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JX10" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9838,8 +9868,11 @@
       <c r="JV11" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="JW11" t="n">
+      <c r="JW11" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="JX11" t="n">
+        <v>223</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10691,8 +10724,11 @@
       <c r="JV12" s="2" t="n">
         <v>164</v>
       </c>
-      <c r="JW12" t="n">
+      <c r="JW12" s="2" t="n">
         <v>191</v>
+      </c>
+      <c r="JX12" t="n">
+        <v>154</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11544,8 +11580,11 @@
       <c r="JV13" s="2" t="n">
         <v>387</v>
       </c>
-      <c r="JW13" t="n">
+      <c r="JW13" s="2" t="n">
         <v>409</v>
+      </c>
+      <c r="JX13" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12397,8 +12436,11 @@
       <c r="JV14" s="2" t="n">
         <v>1.36</v>
       </c>
-      <c r="JW14" t="n">
+      <c r="JW14" s="2" t="n">
         <v>1.14</v>
+      </c>
+      <c r="JX14" t="n">
+        <v>1.45</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13250,8 +13292,11 @@
       <c r="JV15" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="JW15" t="n">
+      <c r="JW15" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JX15" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14103,8 +14148,11 @@
       <c r="JV16" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="JW16" t="n">
+      <c r="JW16" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JX16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -14956,8 +15004,11 @@
       <c r="JV17" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="JW17" t="n">
+      <c r="JW17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JX17" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15809,8 +15860,11 @@
       <c r="JV18" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JW18" t="n">
+      <c r="JW18" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JX18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16662,8 +16716,11 @@
       <c r="JV19" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JW19" t="n">
+      <c r="JW19" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX19" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17515,8 +17572,11 @@
       <c r="JV20" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JW20" t="n">
+      <c r="JW20" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JX20" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18368,8 +18428,11 @@
       <c r="JV21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW21" t="n">
+      <c r="JW21" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JX21" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19221,8 +19284,11 @@
       <c r="JV22" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JW22" t="n">
+      <c r="JW22" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JX22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20074,7 +20140,10 @@
       <c r="JV23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JW23" t="n">
+      <c r="JW23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JX23" t="n">
         <v>4</v>
       </c>
     </row>
@@ -20927,8 +20996,11 @@
       <c r="JV24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="JW24" t="n">
+      <c r="JW24" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JX24" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21780,8 +21852,11 @@
       <c r="JV25" s="2" t="n">
         <v>53.6</v>
       </c>
-      <c r="JW25" t="n">
+      <c r="JW25" s="2" t="n">
         <v>47.8</v>
+      </c>
+      <c r="JX25" t="n">
+        <v>48</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22633,8 +22708,11 @@
       <c r="JV26" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="JW26" t="n">
+      <c r="JW26" s="2" t="n">
         <v>37.18</v>
+      </c>
+      <c r="JX26" t="n">
+        <v>31.42</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23486,8 +23564,11 @@
       <c r="JV27" s="2" t="n">
         <v>13.82</v>
       </c>
-      <c r="JW27" t="n">
+      <c r="JW27" s="2" t="n">
         <v>17.78</v>
+      </c>
+      <c r="JX27" t="n">
+        <v>15.08</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24339,8 +24420,11 @@
       <c r="JV28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JW28" t="n">
+      <c r="JW28" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JX28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25192,8 +25276,11 @@
       <c r="JV29" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JW29" t="n">
+      <c r="JW29" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JX29" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26045,8 +26132,11 @@
       <c r="JV30" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JW30" t="n">
+      <c r="JW30" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JX30" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26898,8 +26988,11 @@
       <c r="JV31" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JW31" t="n">
+      <c r="JW31" s="2" t="n">
         <v>56</v>
+      </c>
+      <c r="JX31" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27751,8 +27844,11 @@
       <c r="JV32" s="2" t="n">
         <v>1.75</v>
       </c>
-      <c r="JW32" t="n">
+      <c r="JW32" s="2" t="n">
         <v>2.43</v>
+      </c>
+      <c r="JX32" t="n">
+        <v>2.72</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28604,8 +28700,11 @@
       <c r="JV33" s="2" t="n">
         <v>3.27</v>
       </c>
-      <c r="JW33" t="n">
+      <c r="JW33" s="2" t="n">
         <v>5.09</v>
+      </c>
+      <c r="JX33" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29457,8 +29556,11 @@
       <c r="JV34" s="2" t="n">
         <v>55.1</v>
       </c>
-      <c r="JW34" t="n">
+      <c r="JW34" s="2" t="n">
         <v>33.9</v>
+      </c>
+      <c r="JX34" t="n">
+        <v>30.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -30310,8 +30412,11 @@
       <c r="JV35" s="2" t="n">
         <v>30.6</v>
       </c>
-      <c r="JW35" t="n">
+      <c r="JW35" s="2" t="n">
         <v>19.6</v>
+      </c>
+      <c r="JX35" t="n">
+        <v>17.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31163,7 +31268,10 @@
       <c r="JV36" s="2" t="n">
         <v>188.3</v>
       </c>
-      <c r="JW36" t="n">
+      <c r="JW36" s="2" t="n">
+        <v>189.1</v>
+      </c>
+      <c r="JX36" t="n">
         <v>189.1</v>
       </c>
     </row>
@@ -32016,8 +32124,11 @@
       <c r="JV37" s="2" t="n">
         <v>86.7</v>
       </c>
-      <c r="JW37" t="n">
+      <c r="JW37" s="2" t="n">
         <v>87.8</v>
+      </c>
+      <c r="JX37" t="n">
+        <v>88.5</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32869,8 +32980,11 @@
       <c r="JV38" s="2" t="n">
         <v>25.33</v>
       </c>
-      <c r="JW38" t="n">
+      <c r="JW38" s="2" t="n">
         <v>25.91</v>
+      </c>
+      <c r="JX38" t="n">
+        <v>26.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33722,8 +33836,11 @@
       <c r="JV39" s="2" t="n">
         <v>94.5</v>
       </c>
-      <c r="JW39" t="n">
+      <c r="JW39" s="2" t="n">
         <v>99.8</v>
+      </c>
+      <c r="JX39" t="n">
+        <v>107.7</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34575,8 +34692,11 @@
       <c r="JV40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JW40" t="n">
+      <c r="JW40" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JX40" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -35428,8 +35548,11 @@
       <c r="JV41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JW41" t="n">
+      <c r="JW41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JX41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -36281,8 +36404,11 @@
       <c r="JV42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JW42" t="n">
+      <c r="JW42" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JX42" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -37134,7 +37260,10 @@
       <c r="JV43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JW43" t="n">
+      <c r="JW43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JX43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -37987,8 +38116,11 @@
       <c r="JV44" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JW44" t="n">
+      <c r="JW44" s="2" t="n">
         <v>144</v>
+      </c>
+      <c r="JX44" t="n">
+        <v>157</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38840,8 +38972,11 @@
       <c r="JV45" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="JW45" t="n">
+      <c r="JW45" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="JX45" t="n">
+        <v>208</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39693,8 +39828,11 @@
       <c r="JV46" s="2" t="n">
         <v>299</v>
       </c>
-      <c r="JW46" t="n">
+      <c r="JW46" s="2" t="n">
         <v>295</v>
+      </c>
+      <c r="JX46" t="n">
+        <v>255</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40546,8 +40684,11 @@
       <c r="JV47" s="2" t="n">
         <v>77.3</v>
       </c>
-      <c r="JW47" t="n">
+      <c r="JW47" s="2" t="n">
         <v>72.09999999999999</v>
+      </c>
+      <c r="JX47" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -41399,8 +41540,11 @@
       <c r="JV48" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JW48" t="n">
+      <c r="JW48" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JX48" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -42252,8 +42396,11 @@
       <c r="JV49" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JW49" t="n">
+      <c r="JW49" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JX49" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -43105,8 +43252,11 @@
       <c r="JV50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JW50" t="n">
+      <c r="JW50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JX50" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -43958,8 +44108,11 @@
       <c r="JV51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JW51" t="n">
+      <c r="JW51" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JX51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44811,8 +44964,11 @@
       <c r="JV52" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="JW52" t="n">
+      <c r="JW52" s="2" t="n">
         <v>46</v>
+      </c>
+      <c r="JX52" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45664,8 +45820,11 @@
       <c r="JV53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JW53" t="n">
+      <c r="JW53" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="JX53" t="n">
+        <v>79</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -46517,8 +46676,11 @@
       <c r="JV54" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JW54" t="n">
+      <c r="JW54" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX54" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -47370,8 +47532,11 @@
       <c r="JV55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JW55" t="n">
+      <c r="JW55" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JX55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -48223,8 +48388,11 @@
       <c r="JV56" s="2" t="n">
         <v>46.7</v>
       </c>
-      <c r="JW56" t="n">
+      <c r="JW56" s="2" t="n">
         <v>81.8</v>
+      </c>
+      <c r="JX56" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -49076,8 +49244,11 @@
       <c r="JV57" s="2" t="n">
         <v>214</v>
       </c>
-      <c r="JW57" t="n">
+      <c r="JW57" s="2" t="n">
         <v>217</v>
+      </c>
+      <c r="JX57" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -49929,8 +50100,11 @@
       <c r="JV58" s="2" t="n">
         <v>120</v>
       </c>
-      <c r="JW58" t="n">
+      <c r="JW58" s="2" t="n">
         <v>167</v>
+      </c>
+      <c r="JX58" t="n">
+        <v>130</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50782,8 +50956,11 @@
       <c r="JV59" s="2" t="n">
         <v>334</v>
       </c>
-      <c r="JW59" t="n">
+      <c r="JW59" s="2" t="n">
         <v>384</v>
+      </c>
+      <c r="JX59" t="n">
+        <v>339</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51635,8 +51812,11 @@
       <c r="JV60" s="2" t="n">
         <v>1.78</v>
       </c>
-      <c r="JW60" t="n">
+      <c r="JW60" s="2" t="n">
         <v>1.3</v>
+      </c>
+      <c r="JX60" t="n">
+        <v>1.61</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -52488,8 +52668,11 @@
       <c r="JV61" s="2" t="n">
         <v>99</v>
       </c>
-      <c r="JW61" t="n">
+      <c r="JW61" s="2" t="n">
         <v>78</v>
+      </c>
+      <c r="JX61" t="n">
+        <v>61</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -53341,8 +53524,11 @@
       <c r="JV62" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JW62" t="n">
+      <c r="JW62" s="2" t="n">
         <v>67</v>
+      </c>
+      <c r="JX62" t="n">
+        <v>64</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -54194,8 +54380,11 @@
       <c r="JV63" s="2" t="n">
         <v>37</v>
       </c>
-      <c r="JW63" t="n">
+      <c r="JW63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JX63" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -55047,8 +55236,11 @@
       <c r="JV64" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JW64" t="n">
+      <c r="JW64" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX64" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -55900,8 +56092,11 @@
       <c r="JV65" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JW65" t="n">
+      <c r="JW65" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JX65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -56753,8 +56948,11 @@
       <c r="JV66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JW66" t="n">
+      <c r="JW66" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="JX66" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -57606,8 +57804,11 @@
       <c r="JV67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW67" t="n">
+      <c r="JW67" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JX67" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -58459,8 +58660,11 @@
       <c r="JV68" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JW68" t="n">
+      <c r="JW68" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JX68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -59312,8 +59516,11 @@
       <c r="JV69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JW69" t="n">
+      <c r="JW69" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JX69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -60165,8 +60372,11 @@
       <c r="JV70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JW70" t="n">
+      <c r="JW70" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JX70" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -61018,8 +61228,11 @@
       <c r="JV71" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="JW71" t="n">
+      <c r="JW71" s="2" t="n">
         <v>43.5</v>
+      </c>
+      <c r="JX71" t="n">
+        <v>71.40000000000001</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -61871,8 +62084,11 @@
       <c r="JV72" s="2" t="n">
         <v>37.11</v>
       </c>
-      <c r="JW72" t="n">
+      <c r="JW72" s="2" t="n">
         <v>38.4</v>
+      </c>
+      <c r="JX72" t="n">
+        <v>22.6</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -62724,8 +62940,11 @@
       <c r="JV73" s="2" t="n">
         <v>18.56</v>
       </c>
-      <c r="JW73" t="n">
+      <c r="JW73" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="JX73" t="n">
+        <v>16.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -63577,8 +63796,11 @@
       <c r="JV74" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JW74" t="n">
+      <c r="JW74" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JX74" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -64430,8 +64652,11 @@
       <c r="JV75" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JW75" t="n">
+      <c r="JW75" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JX75" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -65283,8 +65508,11 @@
       <c r="JV76" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JW76" t="n">
+      <c r="JW76" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JX76" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -66136,8 +66364,11 @@
       <c r="JV77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JW77" t="n">
+      <c r="JW77" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="JX77" t="n">
+        <v>54</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -66989,8 +67220,11 @@
       <c r="JV78" s="2" t="n">
         <v>2.94</v>
       </c>
-      <c r="JW78" t="n">
+      <c r="JW78" s="2" t="n">
         <v>2.48</v>
+      </c>
+      <c r="JX78" t="n">
+        <v>2.57</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -67842,8 +68076,11 @@
       <c r="JV79" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="JW79" t="n">
+      <c r="JW79" s="2" t="n">
         <v>5.7</v>
+      </c>
+      <c r="JX79" t="n">
+        <v>3.6</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -68695,8 +68932,11 @@
       <c r="JV80" s="2" t="n">
         <v>26.4</v>
       </c>
-      <c r="JW80" t="n">
+      <c r="JW80" s="2" t="n">
         <v>36.8</v>
+      </c>
+      <c r="JX80" t="n">
+        <v>38.9</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -69548,8 +69788,11 @@
       <c r="JV81" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="JW81" t="n">
+      <c r="JW81" s="2" t="n">
         <v>17.5</v>
+      </c>
+      <c r="JX81" t="n">
+        <v>27.8</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -70401,8 +70644,11 @@
       <c r="JV82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="JW82" t="n">
+      <c r="JW82" s="2" t="n">
         <v>189</v>
+      </c>
+      <c r="JX82" t="n">
+        <v>186.7</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -71254,8 +71500,11 @@
       <c r="JV83" s="2" t="n">
         <v>86.09999999999999</v>
       </c>
-      <c r="JW83" t="n">
+      <c r="JW83" s="2" t="n">
         <v>87</v>
+      </c>
+      <c r="JX83" t="n">
+        <v>85.8</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -72107,8 +72356,11 @@
       <c r="JV84" s="2" t="n">
         <v>25.41</v>
       </c>
-      <c r="JW84" t="n">
+      <c r="JW84" s="2" t="n">
         <v>26.74</v>
+      </c>
+      <c r="JX84" t="n">
+        <v>25.49</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -72960,8 +73212,11 @@
       <c r="JV85" s="2" t="n">
         <v>96.40000000000001</v>
       </c>
-      <c r="JW85" t="n">
+      <c r="JW85" s="2" t="n">
         <v>118.1</v>
+      </c>
+      <c r="JX85" t="n">
+        <v>107.9</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -73813,8 +74068,11 @@
       <c r="JV86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JW86" t="n">
+      <c r="JW86" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JX86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -74666,8 +74924,11 @@
       <c r="JV87" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW87" t="n">
+      <c r="JW87" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JX87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -75519,8 +75780,11 @@
       <c r="JV88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JW88" t="n">
+      <c r="JW88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JX88" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -76372,8 +76636,11 @@
       <c r="JV89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JW89" t="n">
+      <c r="JW89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JX89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -77225,8 +77492,11 @@
       <c r="JV90" s="2" t="n">
         <v>109</v>
       </c>
-      <c r="JW90" t="n">
+      <c r="JW90" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="JX90" t="n">
+        <v>141</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -78078,8 +78348,11 @@
       <c r="JV91" s="2" t="n">
         <v>207</v>
       </c>
-      <c r="JW91" t="n">
+      <c r="JW91" s="2" t="n">
         <v>232</v>
+      </c>
+      <c r="JX91" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -78931,8 +79204,11 @@
       <c r="JV92" s="2" t="n">
         <v>251</v>
       </c>
-      <c r="JW92" t="n">
+      <c r="JW92" s="2" t="n">
         <v>271</v>
+      </c>
+      <c r="JX92" t="n">
+        <v>243</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -79784,8 +80060,11 @@
       <c r="JV93" s="2" t="n">
         <v>75.09999999999999</v>
       </c>
-      <c r="JW93" t="n">
+      <c r="JW93" s="2" t="n">
         <v>70.59999999999999</v>
+      </c>
+      <c r="JX93" t="n">
+        <v>71.7</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -80637,8 +80916,11 @@
       <c r="JV94" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="JW94" t="n">
+      <c r="JW94" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="JX94" t="n">
+        <v>68</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -81490,8 +81772,11 @@
       <c r="JV95" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JW95" t="n">
+      <c r="JW95" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JX95" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -82343,8 +82628,11 @@
       <c r="JV96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW96" t="n">
+      <c r="JW96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JX96" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -83196,8 +83484,11 @@
       <c r="JV97" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JW97" t="n">
+      <c r="JW97" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JX97" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -84049,8 +84340,11 @@
       <c r="JV98" s="2" t="n">
         <v>34</v>
       </c>
-      <c r="JW98" t="n">
+      <c r="JW98" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JX98" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -84902,8 +85196,11 @@
       <c r="JV99" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JW99" t="n">
+      <c r="JW99" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JX99" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -85755,8 +86052,11 @@
       <c r="JV100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JW100" t="n">
+      <c r="JW100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="JX100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -86608,8 +86908,11 @@
       <c r="JV101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JW101" t="n">
+      <c r="JW101" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="JX101" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -87461,7 +87764,10 @@
       <c r="JV102" s="2" t="n">
         <v>88.90000000000001</v>
       </c>
-      <c r="JW102" t="n">
+      <c r="JW102" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="JX102" t="n">
         <v>80</v>
       </c>
     </row>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JX102"/>
+  <dimension ref="A1:JY102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1311,8 +1311,11 @@
       <c r="JW1" s="2" t="n">
         <v>10919</v>
       </c>
-      <c r="JX1" t="n">
+      <c r="JX1" s="2" t="n">
         <v>10924</v>
+      </c>
+      <c r="JY1" t="n">
+        <v>10938</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2167,7 +2170,10 @@
       <c r="JW2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JX2" t="n">
+      <c r="JX2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JY2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3023,8 +3029,11 @@
       <c r="JW3" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JX3" t="n">
+      <c r="JX3" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JY3" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3879,8 +3888,11 @@
       <c r="JW4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JX4" t="n">
+      <c r="JX4" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JY4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4735,8 +4747,11 @@
       <c r="JW5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JX5" t="n">
+      <c r="JX5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JY5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5591,7 +5606,10 @@
       <c r="JW6" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="JX6" t="n">
+      <c r="JX6" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="JY6" t="n">
         <v>85</v>
       </c>
     </row>
@@ -6447,8 +6465,11 @@
       <c r="JW7" s="2" t="n">
         <v>73</v>
       </c>
-      <c r="JX7" t="n">
+      <c r="JX7" s="2" t="n">
         <v>96</v>
+      </c>
+      <c r="JY7" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7303,8 +7324,11 @@
       <c r="JW8" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX8" t="n">
+      <c r="JX8" s="2" t="n">
         <v>-11</v>
+      </c>
+      <c r="JY8" t="n">
+        <v>-51</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8159,7 +8183,10 @@
       <c r="JW9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JX9" t="n">
+      <c r="JX9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JY9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9015,8 +9042,11 @@
       <c r="JW10" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="JX10" t="n">
+      <c r="JX10" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JY10" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9871,8 +9901,11 @@
       <c r="JW11" s="2" t="n">
         <v>218</v>
       </c>
-      <c r="JX11" t="n">
+      <c r="JX11" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="JY11" t="n">
+        <v>183</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10727,8 +10760,11 @@
       <c r="JW12" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="JX12" t="n">
+      <c r="JX12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="JY12" t="n">
+        <v>175</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11583,8 +11619,11 @@
       <c r="JW13" s="2" t="n">
         <v>409</v>
       </c>
-      <c r="JX13" t="n">
+      <c r="JX13" s="2" t="n">
         <v>377</v>
+      </c>
+      <c r="JY13" t="n">
+        <v>358</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12439,8 +12478,11 @@
       <c r="JW14" s="2" t="n">
         <v>1.14</v>
       </c>
-      <c r="JX14" t="n">
+      <c r="JX14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="JY14" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13295,8 +13337,11 @@
       <c r="JW15" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JX15" t="n">
+      <c r="JX15" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JY15" t="n">
+        <v>77</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14151,8 +14196,11 @@
       <c r="JW16" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JX16" t="n">
+      <c r="JX16" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="JY16" t="n">
+        <v>53</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15007,8 +15055,11 @@
       <c r="JW17" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="JX17" t="n">
+      <c r="JX17" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JY17" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15863,8 +15914,11 @@
       <c r="JW18" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JX18" t="n">
+      <c r="JX18" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JY18" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16719,8 +16773,11 @@
       <c r="JW19" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JX19" t="n">
+      <c r="JX19" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JY19" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17575,8 +17632,11 @@
       <c r="JW20" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JX20" t="n">
+      <c r="JX20" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY20" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18431,8 +18491,11 @@
       <c r="JW21" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JX21" t="n">
+      <c r="JX21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JY21" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19287,8 +19350,11 @@
       <c r="JW22" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX22" t="n">
+      <c r="JX22" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JY22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20143,8 +20209,11 @@
       <c r="JW23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JX23" t="n">
+      <c r="JX23" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -20999,8 +21068,11 @@
       <c r="JW24" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JX24" t="n">
+      <c r="JX24" s="2" t="n">
         <v>25</v>
+      </c>
+      <c r="JY24" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21855,8 +21927,11 @@
       <c r="JW25" s="2" t="n">
         <v>47.8</v>
       </c>
-      <c r="JX25" t="n">
+      <c r="JX25" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="JY25" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22711,8 +22786,11 @@
       <c r="JW26" s="2" t="n">
         <v>37.18</v>
       </c>
-      <c r="JX26" t="n">
+      <c r="JX26" s="2" t="n">
         <v>31.42</v>
+      </c>
+      <c r="JY26" t="n">
+        <v>27.54</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23567,8 +23645,11 @@
       <c r="JW27" s="2" t="n">
         <v>17.78</v>
       </c>
-      <c r="JX27" t="n">
+      <c r="JX27" s="2" t="n">
         <v>15.08</v>
+      </c>
+      <c r="JY27" t="n">
+        <v>17.9</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24423,8 +24504,11 @@
       <c r="JW28" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JX28" t="n">
+      <c r="JX28" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JY28" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25279,8 +25363,11 @@
       <c r="JW29" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JX29" t="n">
+      <c r="JX29" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JY29" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26135,8 +26222,11 @@
       <c r="JW30" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JX30" t="n">
+      <c r="JX30" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JY30" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -26991,8 +27081,11 @@
       <c r="JW31" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="JX31" t="n">
+      <c r="JX31" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JY31" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27847,8 +27940,11 @@
       <c r="JW32" s="2" t="n">
         <v>2.43</v>
       </c>
-      <c r="JX32" t="n">
+      <c r="JX32" s="2" t="n">
         <v>2.72</v>
+      </c>
+      <c r="JY32" t="n">
+        <v>2.55</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28703,8 +28799,11 @@
       <c r="JW33" s="2" t="n">
         <v>5.09</v>
       </c>
-      <c r="JX33" t="n">
+      <c r="JX33" s="2" t="n">
         <v>5.67</v>
+      </c>
+      <c r="JY33" t="n">
+        <v>3.92</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29559,8 +29658,11 @@
       <c r="JW34" s="2" t="n">
         <v>33.9</v>
       </c>
-      <c r="JX34" t="n">
+      <c r="JX34" s="2" t="n">
         <v>30.9</v>
+      </c>
+      <c r="JY34" t="n">
+        <v>37.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -30415,8 +30517,11 @@
       <c r="JW35" s="2" t="n">
         <v>19.6</v>
       </c>
-      <c r="JX35" t="n">
+      <c r="JX35" s="2" t="n">
         <v>17.6</v>
+      </c>
+      <c r="JY35" t="n">
+        <v>25.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31271,8 +31376,11 @@
       <c r="JW36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="JX36" t="n">
+      <c r="JX36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="JY36" t="n">
+        <v>189.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32127,8 +32235,11 @@
       <c r="JW37" s="2" t="n">
         <v>87.8</v>
       </c>
-      <c r="JX37" t="n">
+      <c r="JX37" s="2" t="n">
         <v>88.5</v>
+      </c>
+      <c r="JY37" t="n">
+        <v>88.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -32983,8 +33094,11 @@
       <c r="JW38" s="2" t="n">
         <v>25.91</v>
       </c>
-      <c r="JX38" t="n">
+      <c r="JX38" s="2" t="n">
         <v>26.41</v>
+      </c>
+      <c r="JY38" t="n">
+        <v>26.24</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33839,8 +33953,11 @@
       <c r="JW39" s="2" t="n">
         <v>99.8</v>
       </c>
-      <c r="JX39" t="n">
+      <c r="JX39" s="2" t="n">
         <v>107.7</v>
+      </c>
+      <c r="JY39" t="n">
+        <v>104</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34695,8 +34812,11 @@
       <c r="JW40" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX40" t="n">
+      <c r="JX40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -35551,8 +35671,11 @@
       <c r="JW41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX41" t="n">
+      <c r="JX41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JY41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -36407,7 +36530,10 @@
       <c r="JW42" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JX42" t="n">
+      <c r="JX42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JY42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37263,7 +37389,10 @@
       <c r="JW43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX43" t="n">
+      <c r="JX43" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="JY43" t="n">
         <v>6</v>
       </c>
     </row>
@@ -38119,8 +38248,11 @@
       <c r="JW44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="JX44" t="n">
+      <c r="JX44" s="2" t="n">
         <v>157</v>
+      </c>
+      <c r="JY44" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -38975,8 +39107,11 @@
       <c r="JW45" s="2" t="n">
         <v>254</v>
       </c>
-      <c r="JX45" t="n">
+      <c r="JX45" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="JY45" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39831,8 +39966,11 @@
       <c r="JW46" s="2" t="n">
         <v>295</v>
       </c>
-      <c r="JX46" t="n">
+      <c r="JX46" s="2" t="n">
         <v>255</v>
+      </c>
+      <c r="JY46" t="n">
+        <v>265</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40687,8 +40825,11 @@
       <c r="JW47" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="JX47" t="n">
+      <c r="JX47" s="2" t="n">
         <v>67.59999999999999</v>
+      </c>
+      <c r="JY47" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -41543,8 +41684,11 @@
       <c r="JW48" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JX48" t="n">
+      <c r="JX48" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JY48" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -42399,8 +42543,11 @@
       <c r="JW49" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX49" t="n">
+      <c r="JX49" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JY49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -43255,8 +43402,11 @@
       <c r="JW50" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JX50" t="n">
+      <c r="JX50" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JY50" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -44111,8 +44261,11 @@
       <c r="JW51" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JX51" t="n">
+      <c r="JX51" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JY51" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -44967,8 +45120,11 @@
       <c r="JW52" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="JX52" t="n">
+      <c r="JX52" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="JY52" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45823,8 +45979,11 @@
       <c r="JW53" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="JX53" t="n">
+      <c r="JX53" s="2" t="n">
         <v>79</v>
+      </c>
+      <c r="JY53" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -46679,7 +46838,10 @@
       <c r="JW54" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JX54" t="n">
+      <c r="JX54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="JY54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -47535,8 +47697,11 @@
       <c r="JW55" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JX55" t="n">
+      <c r="JX55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JY55" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -48391,8 +48556,11 @@
       <c r="JW56" s="2" t="n">
         <v>81.8</v>
       </c>
-      <c r="JX56" t="n">
+      <c r="JX56" s="2" t="n">
         <v>58.3</v>
+      </c>
+      <c r="JY56" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -49247,8 +49415,11 @@
       <c r="JW57" s="2" t="n">
         <v>217</v>
       </c>
-      <c r="JX57" t="n">
+      <c r="JX57" s="2" t="n">
         <v>209</v>
+      </c>
+      <c r="JY57" t="n">
+        <v>218</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -50103,8 +50274,11 @@
       <c r="JW58" s="2" t="n">
         <v>167</v>
       </c>
-      <c r="JX58" t="n">
+      <c r="JX58" s="2" t="n">
         <v>130</v>
+      </c>
+      <c r="JY58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -50959,8 +51133,11 @@
       <c r="JW59" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="JX59" t="n">
+      <c r="JX59" s="2" t="n">
         <v>339</v>
+      </c>
+      <c r="JY59" t="n">
+        <v>355</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51815,8 +51992,11 @@
       <c r="JW60" s="2" t="n">
         <v>1.3</v>
       </c>
-      <c r="JX60" t="n">
+      <c r="JX60" s="2" t="n">
         <v>1.61</v>
+      </c>
+      <c r="JY60" t="n">
+        <v>1.59</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -52671,8 +52851,11 @@
       <c r="JW61" s="2" t="n">
         <v>78</v>
       </c>
-      <c r="JX61" t="n">
+      <c r="JX61" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="JY61" t="n">
+        <v>105</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -53527,8 +53710,11 @@
       <c r="JW62" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="JX62" t="n">
+      <c r="JX62" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="JY62" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -54383,8 +54569,11 @@
       <c r="JW63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="JX63" t="n">
+      <c r="JX63" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="JY63" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -55239,8 +55428,11 @@
       <c r="JW64" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JX64" t="n">
+      <c r="JX64" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="JY64" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -56095,8 +56287,11 @@
       <c r="JW65" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="JX65" t="n">
+      <c r="JX65" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JY65" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -56951,8 +57146,11 @@
       <c r="JW66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="JX66" t="n">
+      <c r="JX66" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="JY66" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -57807,8 +58005,11 @@
       <c r="JW67" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX67" t="n">
+      <c r="JX67" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY67" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -58663,8 +58864,11 @@
       <c r="JW68" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JX68" t="n">
+      <c r="JX68" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -59519,8 +59723,11 @@
       <c r="JW69" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX69" t="n">
+      <c r="JX69" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JY69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -60375,8 +60582,11 @@
       <c r="JW70" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JX70" t="n">
+      <c r="JX70" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JY70" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -61231,8 +61441,11 @@
       <c r="JW71" s="2" t="n">
         <v>43.5</v>
       </c>
-      <c r="JX71" t="n">
+      <c r="JX71" s="2" t="n">
         <v>71.40000000000001</v>
+      </c>
+      <c r="JY71" t="n">
+        <v>67.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -62087,8 +62300,11 @@
       <c r="JW72" s="2" t="n">
         <v>38.4</v>
       </c>
-      <c r="JX72" t="n">
+      <c r="JX72" s="2" t="n">
         <v>22.6</v>
+      </c>
+      <c r="JY72" t="n">
+        <v>16.9</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -62943,8 +63159,11 @@
       <c r="JW73" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="JX73" t="n">
+      <c r="JX73" s="2" t="n">
         <v>16.14</v>
+      </c>
+      <c r="JY73" t="n">
+        <v>11.45</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -63799,8 +64018,11 @@
       <c r="JW74" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JX74" t="n">
+      <c r="JX74" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JY74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -64655,8 +64877,11 @@
       <c r="JW75" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JX75" t="n">
+      <c r="JX75" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JY75" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -65511,8 +65736,11 @@
       <c r="JW76" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JX76" t="n">
+      <c r="JX76" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JY76" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -66367,8 +66595,11 @@
       <c r="JW77" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="JX77" t="n">
+      <c r="JX77" s="2" t="n">
         <v>54</v>
+      </c>
+      <c r="JY77" t="n">
+        <v>65</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -67223,8 +67454,11 @@
       <c r="JW78" s="2" t="n">
         <v>2.48</v>
       </c>
-      <c r="JX78" t="n">
+      <c r="JX78" s="2" t="n">
         <v>2.57</v>
+      </c>
+      <c r="JY78" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -68079,8 +68313,11 @@
       <c r="JW79" s="2" t="n">
         <v>5.7</v>
       </c>
-      <c r="JX79" t="n">
+      <c r="JX79" s="2" t="n">
         <v>3.6</v>
+      </c>
+      <c r="JY79" t="n">
+        <v>3.1</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -68935,8 +69172,11 @@
       <c r="JW80" s="2" t="n">
         <v>36.8</v>
       </c>
-      <c r="JX80" t="n">
+      <c r="JX80" s="2" t="n">
         <v>38.9</v>
+      </c>
+      <c r="JY80" t="n">
+        <v>46.2</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -69791,8 +70031,11 @@
       <c r="JW81" s="2" t="n">
         <v>17.5</v>
       </c>
-      <c r="JX81" t="n">
+      <c r="JX81" s="2" t="n">
         <v>27.8</v>
+      </c>
+      <c r="JY81" t="n">
+        <v>32.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -70647,8 +70890,11 @@
       <c r="JW82" s="2" t="n">
         <v>189</v>
       </c>
-      <c r="JX82" t="n">
+      <c r="JX82" s="2" t="n">
         <v>186.7</v>
+      </c>
+      <c r="JY82" t="n">
+        <v>187.5</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -71503,8 +71749,11 @@
       <c r="JW83" s="2" t="n">
         <v>87</v>
       </c>
-      <c r="JX83" t="n">
+      <c r="JX83" s="2" t="n">
         <v>85.8</v>
+      </c>
+      <c r="JY83" t="n">
+        <v>86.5</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -72359,8 +72608,11 @@
       <c r="JW84" s="2" t="n">
         <v>26.74</v>
       </c>
-      <c r="JX84" t="n">
+      <c r="JX84" s="2" t="n">
         <v>25.49</v>
+      </c>
+      <c r="JY84" t="n">
+        <v>24.8</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -73215,8 +73467,11 @@
       <c r="JW85" s="2" t="n">
         <v>118.1</v>
       </c>
-      <c r="JX85" t="n">
+      <c r="JX85" s="2" t="n">
         <v>107.9</v>
+      </c>
+      <c r="JY85" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -74071,8 +74326,11 @@
       <c r="JW86" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JX86" t="n">
+      <c r="JX86" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY86" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -74927,7 +75185,10 @@
       <c r="JW87" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JX87" t="n">
+      <c r="JX87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JY87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -75783,8 +76044,11 @@
       <c r="JW88" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JX88" t="n">
+      <c r="JX88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="JY88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -76639,8 +76903,11 @@
       <c r="JW89" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JX89" t="n">
+      <c r="JX89" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY89" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -77495,8 +77762,11 @@
       <c r="JW90" s="2" t="n">
         <v>151</v>
       </c>
-      <c r="JX90" t="n">
+      <c r="JX90" s="2" t="n">
         <v>141</v>
+      </c>
+      <c r="JY90" t="n">
+        <v>127</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -78351,8 +78621,11 @@
       <c r="JW91" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="JX91" t="n">
+      <c r="JX91" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="JY91" t="n">
+        <v>230</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -79207,8 +79480,11 @@
       <c r="JW92" s="2" t="n">
         <v>271</v>
       </c>
-      <c r="JX92" t="n">
+      <c r="JX92" s="2" t="n">
         <v>243</v>
+      </c>
+      <c r="JY92" t="n">
+        <v>278</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -80063,8 +80339,11 @@
       <c r="JW93" s="2" t="n">
         <v>70.59999999999999</v>
       </c>
-      <c r="JX93" t="n">
+      <c r="JX93" s="2" t="n">
         <v>71.7</v>
+      </c>
+      <c r="JY93" t="n">
+        <v>78.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -80919,8 +81198,11 @@
       <c r="JW94" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="JX94" t="n">
+      <c r="JX94" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="JY94" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -81775,8 +82057,11 @@
       <c r="JW95" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JX95" t="n">
+      <c r="JX95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JY95" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -82631,8 +82916,11 @@
       <c r="JW96" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JX96" t="n">
+      <c r="JX96" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JY96" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -83487,8 +83775,11 @@
       <c r="JW97" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="JX97" t="n">
+      <c r="JX97" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="JY97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -84343,8 +84634,11 @@
       <c r="JW98" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="JX98" t="n">
+      <c r="JX98" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JY98" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -85199,8 +85493,11 @@
       <c r="JW99" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="JX99" t="n">
+      <c r="JX99" s="2" t="n">
         <v>70</v>
+      </c>
+      <c r="JY99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -86055,7 +86352,10 @@
       <c r="JW100" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="JX100" t="n">
+      <c r="JX100" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JY100" t="n">
         <v>3</v>
       </c>
     </row>
@@ -86911,8 +87211,11 @@
       <c r="JW101" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="JX101" t="n">
+      <c r="JX101" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JY101" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -87767,8 +88070,11 @@
       <c r="JW102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JX102" t="n">
+      <c r="JX102" s="2" t="n">
         <v>80</v>
+      </c>
+      <c r="JY102" t="n">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:JY102"/>
+  <dimension ref="A1:JZ102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1314,8 +1314,11 @@
       <c r="JX1" s="2" t="n">
         <v>10924</v>
       </c>
-      <c r="JY1" t="n">
+      <c r="JY1" s="2" t="n">
         <v>10938</v>
+      </c>
+      <c r="JZ1" t="n">
+        <v>10942</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2173,7 +2176,10 @@
       <c r="JX2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="JY2" t="n">
+      <c r="JY2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="JZ2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3032,8 +3038,11 @@
       <c r="JX3" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JY3" t="n">
+      <c r="JY3" s="2" t="n">
         <v>22</v>
+      </c>
+      <c r="JZ3" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3891,8 +3900,11 @@
       <c r="JX4" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JY4" t="n">
+      <c r="JY4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4750,7 +4762,10 @@
       <c r="JX5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="JY5" t="n">
+      <c r="JY5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="JZ5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5609,8 +5624,11 @@
       <c r="JX6" s="2" t="n">
         <v>85</v>
       </c>
-      <c r="JY6" t="n">
+      <c r="JY6" s="2" t="n">
         <v>85</v>
+      </c>
+      <c r="JZ6" t="n">
+        <v>162</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6468,8 +6486,11 @@
       <c r="JX7" s="2" t="n">
         <v>96</v>
       </c>
-      <c r="JY7" t="n">
+      <c r="JY7" s="2" t="n">
         <v>136</v>
+      </c>
+      <c r="JZ7" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7327,8 +7348,11 @@
       <c r="JX8" s="2" t="n">
         <v>-11</v>
       </c>
-      <c r="JY8" t="n">
+      <c r="JY8" s="2" t="n">
         <v>-51</v>
+      </c>
+      <c r="JZ8" t="n">
+        <v>126</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8186,8 +8210,11 @@
       <c r="JX9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JY9" t="n">
+      <c r="JY9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="JZ9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9045,8 +9072,11 @@
       <c r="JX10" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="JY10" t="n">
+      <c r="JY10" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JZ10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -9904,8 +9934,11 @@
       <c r="JX11" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="JY11" t="n">
+      <c r="JY11" s="2" t="n">
         <v>183</v>
+      </c>
+      <c r="JZ11" t="n">
+        <v>245</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10763,8 +10796,11 @@
       <c r="JX12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="JY12" t="n">
+      <c r="JY12" s="2" t="n">
         <v>175</v>
+      </c>
+      <c r="JZ12" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11622,8 +11658,11 @@
       <c r="JX13" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="JY13" t="n">
+      <c r="JY13" s="2" t="n">
         <v>358</v>
+      </c>
+      <c r="JZ13" t="n">
+        <v>431</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12481,8 +12520,11 @@
       <c r="JX14" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="JY14" t="n">
+      <c r="JY14" s="2" t="n">
         <v>1.05</v>
+      </c>
+      <c r="JZ14" t="n">
+        <v>1.32</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13340,8 +13382,11 @@
       <c r="JX15" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY15" t="n">
+      <c r="JY15" s="2" t="n">
         <v>77</v>
+      </c>
+      <c r="JZ15" t="n">
+        <v>108</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14199,8 +14244,11 @@
       <c r="JX16" s="2" t="n">
         <v>69</v>
       </c>
-      <c r="JY16" t="n">
+      <c r="JY16" s="2" t="n">
         <v>53</v>
+      </c>
+      <c r="JZ16" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15058,8 +15106,11 @@
       <c r="JX17" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JY17" t="n">
+      <c r="JY17" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="JZ17" t="n">
+        <v>29</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -15917,8 +15968,11 @@
       <c r="JX18" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JY18" t="n">
+      <c r="JY18" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JZ18" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -16776,8 +16830,11 @@
       <c r="JX19" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JY19" t="n">
+      <c r="JY19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JZ19" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17635,8 +17692,11 @@
       <c r="JX20" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JY20" t="n">
+      <c r="JY20" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JZ20" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18494,8 +18554,11 @@
       <c r="JX21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY21" t="n">
+      <c r="JY21" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JZ21" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19353,8 +19416,11 @@
       <c r="JX22" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JY22" t="n">
+      <c r="JY22" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JZ22" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20212,8 +20278,11 @@
       <c r="JX23" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JY23" t="n">
+      <c r="JY23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21071,8 +21140,11 @@
       <c r="JX24" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="JY24" t="n">
+      <c r="JY24" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="JZ24" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -21930,8 +22002,11 @@
       <c r="JX25" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="JY25" t="n">
+      <c r="JY25" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JZ25" t="n">
+        <v>67.59999999999999</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -22789,8 +22864,11 @@
       <c r="JX26" s="2" t="n">
         <v>31.42</v>
       </c>
-      <c r="JY26" t="n">
+      <c r="JY26" s="2" t="n">
         <v>27.54</v>
+      </c>
+      <c r="JZ26" t="n">
+        <v>17.24</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -23648,8 +23726,11 @@
       <c r="JX27" s="2" t="n">
         <v>15.08</v>
       </c>
-      <c r="JY27" t="n">
+      <c r="JY27" s="2" t="n">
         <v>17.9</v>
+      </c>
+      <c r="JZ27" t="n">
+        <v>11.65</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24507,8 +24588,11 @@
       <c r="JX28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JY28" t="n">
+      <c r="JY28" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JZ28" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25366,8 +25450,11 @@
       <c r="JX29" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY29" t="n">
+      <c r="JY29" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JZ29" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26225,8 +26312,11 @@
       <c r="JX30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JY30" t="n">
+      <c r="JY30" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JZ30" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27084,8 +27174,11 @@
       <c r="JX31" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY31" t="n">
+      <c r="JY31" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="JZ31" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -27943,8 +28036,11 @@
       <c r="JX32" s="2" t="n">
         <v>2.72</v>
       </c>
-      <c r="JY32" t="n">
+      <c r="JY32" s="2" t="n">
         <v>2.55</v>
+      </c>
+      <c r="JZ32" t="n">
+        <v>1.89</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -28802,8 +28898,11 @@
       <c r="JX33" s="2" t="n">
         <v>5.67</v>
       </c>
-      <c r="JY33" t="n">
+      <c r="JY33" s="2" t="n">
         <v>3.92</v>
+      </c>
+      <c r="JZ33" t="n">
+        <v>2.8</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -29661,8 +29760,11 @@
       <c r="JX34" s="2" t="n">
         <v>30.9</v>
       </c>
-      <c r="JY34" t="n">
+      <c r="JY34" s="2" t="n">
         <v>37.3</v>
+      </c>
+      <c r="JZ34" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -30520,8 +30622,11 @@
       <c r="JX35" s="2" t="n">
         <v>17.6</v>
       </c>
-      <c r="JY35" t="n">
+      <c r="JY35" s="2" t="n">
         <v>25.5</v>
+      </c>
+      <c r="JZ35" t="n">
+        <v>35.7</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31379,8 +31484,11 @@
       <c r="JX36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="JY36" t="n">
+      <c r="JY36" s="2" t="n">
         <v>189.8</v>
+      </c>
+      <c r="JZ36" t="n">
+        <v>188.7</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32238,8 +32346,11 @@
       <c r="JX37" s="2" t="n">
         <v>88.5</v>
       </c>
-      <c r="JY37" t="n">
+      <c r="JY37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="JZ37" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -33097,8 +33208,11 @@
       <c r="JX38" s="2" t="n">
         <v>26.41</v>
       </c>
-      <c r="JY38" t="n">
+      <c r="JY38" s="2" t="n">
         <v>26.24</v>
+      </c>
+      <c r="JZ38" t="n">
+        <v>25.91</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -33956,8 +34070,11 @@
       <c r="JX39" s="2" t="n">
         <v>107.7</v>
       </c>
-      <c r="JY39" t="n">
+      <c r="JY39" s="2" t="n">
         <v>104</v>
+      </c>
+      <c r="JZ39" t="n">
+        <v>100.4</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -34815,7 +34932,10 @@
       <c r="JX40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY40" t="n">
+      <c r="JY40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ40" t="n">
         <v>7</v>
       </c>
     </row>
@@ -35674,8 +35794,11 @@
       <c r="JX41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY41" t="n">
+      <c r="JY41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JZ41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -36533,7 +36656,10 @@
       <c r="JX42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JY42" t="n">
+      <c r="JY42" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="JZ42" t="n">
         <v>4</v>
       </c>
     </row>
@@ -37392,8 +37518,11 @@
       <c r="JX43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY43" t="n">
+      <c r="JY43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JZ43" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -38251,8 +38380,11 @@
       <c r="JX44" s="2" t="n">
         <v>157</v>
       </c>
-      <c r="JY44" t="n">
+      <c r="JY44" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JZ44" t="n">
+        <v>147</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -39110,8 +39242,11 @@
       <c r="JX45" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="JY45" t="n">
+      <c r="JY45" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="JZ45" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -39969,8 +40104,11 @@
       <c r="JX46" s="2" t="n">
         <v>255</v>
       </c>
-      <c r="JY46" t="n">
+      <c r="JY46" s="2" t="n">
         <v>265</v>
+      </c>
+      <c r="JZ46" t="n">
+        <v>322</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -40828,8 +40966,11 @@
       <c r="JX47" s="2" t="n">
         <v>67.59999999999999</v>
       </c>
-      <c r="JY47" t="n">
+      <c r="JY47" s="2" t="n">
         <v>74</v>
+      </c>
+      <c r="JZ47" t="n">
+        <v>74.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -41687,8 +41828,11 @@
       <c r="JX48" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY48" t="n">
+      <c r="JY48" s="2" t="n">
         <v>63</v>
+      </c>
+      <c r="JZ48" t="n">
+        <v>58</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -42546,8 +42690,11 @@
       <c r="JX49" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY49" t="n">
+      <c r="JY49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JZ49" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -43405,8 +43552,11 @@
       <c r="JX50" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="JY50" t="n">
+      <c r="JY50" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="JZ50" t="n">
+        <v>19</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -44264,8 +44414,11 @@
       <c r="JX51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="JY51" t="n">
+      <c r="JY51" s="2" t="n">
         <v>33</v>
+      </c>
+      <c r="JZ51" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -45123,8 +45276,11 @@
       <c r="JX52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="JY52" t="n">
+      <c r="JY52" s="2" t="n">
         <v>43</v>
+      </c>
+      <c r="JZ52" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -45982,8 +46138,11 @@
       <c r="JX53" s="2" t="n">
         <v>79</v>
       </c>
-      <c r="JY53" t="n">
+      <c r="JY53" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="JZ53" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -46841,8 +47000,11 @@
       <c r="JX54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="JY54" t="n">
+      <c r="JY54" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="JZ54" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -47700,8 +47862,11 @@
       <c r="JX55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY55" t="n">
+      <c r="JY55" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="JZ55" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -48559,8 +48724,11 @@
       <c r="JX56" s="2" t="n">
         <v>58.3</v>
       </c>
-      <c r="JY56" t="n">
+      <c r="JY56" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="JZ56" t="n">
+        <v>80</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -49418,8 +49586,11 @@
       <c r="JX57" s="2" t="n">
         <v>209</v>
       </c>
-      <c r="JY57" t="n">
+      <c r="JY57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="JZ57" t="n">
+        <v>159</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -50277,8 +50448,11 @@
       <c r="JX58" s="2" t="n">
         <v>130</v>
       </c>
-      <c r="JY58" t="n">
+      <c r="JY58" s="2" t="n">
         <v>137</v>
+      </c>
+      <c r="JZ58" t="n">
+        <v>155</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -51136,8 +51310,11 @@
       <c r="JX59" s="2" t="n">
         <v>339</v>
       </c>
-      <c r="JY59" t="n">
+      <c r="JY59" s="2" t="n">
         <v>355</v>
+      </c>
+      <c r="JZ59" t="n">
+        <v>314</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -51995,8 +52172,11 @@
       <c r="JX60" s="2" t="n">
         <v>1.61</v>
       </c>
-      <c r="JY60" t="n">
+      <c r="JY60" s="2" t="n">
         <v>1.59</v>
+      </c>
+      <c r="JZ60" t="n">
+        <v>1.03</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -52854,8 +53034,11 @@
       <c r="JX61" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="JY61" t="n">
+      <c r="JY61" s="2" t="n">
         <v>105</v>
+      </c>
+      <c r="JZ61" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -53713,8 +53896,11 @@
       <c r="JX62" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="JY62" t="n">
+      <c r="JY62" s="2" t="n">
         <v>50</v>
+      </c>
+      <c r="JZ62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -54572,8 +54758,11 @@
       <c r="JX63" s="2" t="n">
         <v>35</v>
       </c>
-      <c r="JY63" t="n">
+      <c r="JY63" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JZ63" t="n">
+        <v>28</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -55431,8 +55620,11 @@
       <c r="JX64" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="JY64" t="n">
+      <c r="JY64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JZ64" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -56290,8 +56482,11 @@
       <c r="JX65" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="JY65" t="n">
+      <c r="JY65" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="JZ65" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -57149,8 +57344,11 @@
       <c r="JX66" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="JY66" t="n">
+      <c r="JY66" s="2" t="n">
         <v>21</v>
+      </c>
+      <c r="JZ66" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -58008,8 +58206,11 @@
       <c r="JX67" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JY67" t="n">
+      <c r="JY67" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JZ67" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -58867,8 +59068,11 @@
       <c r="JX68" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY68" t="n">
+      <c r="JY68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="JZ68" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -59726,8 +59930,11 @@
       <c r="JX69" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="JY69" t="n">
+      <c r="JY69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="JZ69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -60585,8 +60792,11 @@
       <c r="JX70" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="JY70" t="n">
+      <c r="JY70" s="2" t="n">
         <v>31</v>
+      </c>
+      <c r="JZ70" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -61444,8 +61654,11 @@
       <c r="JX71" s="2" t="n">
         <v>71.40000000000001</v>
       </c>
-      <c r="JY71" t="n">
+      <c r="JY71" s="2" t="n">
         <v>67.7</v>
+      </c>
+      <c r="JZ71" t="n">
+        <v>45.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -62303,8 +62516,11 @@
       <c r="JX72" s="2" t="n">
         <v>22.6</v>
       </c>
-      <c r="JY72" t="n">
+      <c r="JY72" s="2" t="n">
         <v>16.9</v>
+      </c>
+      <c r="JZ72" t="n">
+        <v>62.8</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -63162,8 +63378,11 @@
       <c r="JX73" s="2" t="n">
         <v>16.14</v>
       </c>
-      <c r="JY73" t="n">
+      <c r="JY73" s="2" t="n">
         <v>11.45</v>
+      </c>
+      <c r="JZ73" t="n">
+        <v>28.55</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -64021,8 +64240,11 @@
       <c r="JX74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JY74" t="n">
+      <c r="JY74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JZ74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -64880,8 +65102,11 @@
       <c r="JX75" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY75" t="n">
+      <c r="JY75" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JZ75" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -65739,8 +65964,11 @@
       <c r="JX76" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JY76" t="n">
+      <c r="JY76" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JZ76" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -66598,8 +66826,11 @@
       <c r="JX77" s="2" t="n">
         <v>54</v>
       </c>
-      <c r="JY77" t="n">
+      <c r="JY77" s="2" t="n">
         <v>65</v>
+      </c>
+      <c r="JZ77" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -67457,8 +67688,11 @@
       <c r="JX78" s="2" t="n">
         <v>2.57</v>
       </c>
-      <c r="JY78" t="n">
+      <c r="JY78" s="2" t="n">
         <v>2.1</v>
+      </c>
+      <c r="JZ78" t="n">
+        <v>3.73</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -68316,8 +68550,11 @@
       <c r="JX79" s="2" t="n">
         <v>3.6</v>
       </c>
-      <c r="JY79" t="n">
+      <c r="JY79" s="2" t="n">
         <v>3.1</v>
+      </c>
+      <c r="JZ79" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -69175,8 +69412,11 @@
       <c r="JX80" s="2" t="n">
         <v>38.9</v>
       </c>
-      <c r="JY80" t="n">
+      <c r="JY80" s="2" t="n">
         <v>46.2</v>
+      </c>
+      <c r="JZ80" t="n">
+        <v>26.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -70034,8 +70274,11 @@
       <c r="JX81" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="JY81" t="n">
+      <c r="JY81" s="2" t="n">
         <v>32.3</v>
+      </c>
+      <c r="JZ81" t="n">
+        <v>12.2</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -70893,8 +71136,11 @@
       <c r="JX82" s="2" t="n">
         <v>186.7</v>
       </c>
-      <c r="JY82" t="n">
+      <c r="JY82" s="2" t="n">
         <v>187.5</v>
+      </c>
+      <c r="JZ82" t="n">
+        <v>189</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -71752,8 +71998,11 @@
       <c r="JX83" s="2" t="n">
         <v>85.8</v>
       </c>
-      <c r="JY83" t="n">
+      <c r="JY83" s="2" t="n">
         <v>86.5</v>
+      </c>
+      <c r="JZ83" t="n">
+        <v>87.09999999999999</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -72611,8 +72860,11 @@
       <c r="JX84" s="2" t="n">
         <v>25.49</v>
       </c>
-      <c r="JY84" t="n">
+      <c r="JY84" s="2" t="n">
         <v>24.8</v>
+      </c>
+      <c r="JZ84" t="n">
+        <v>25.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -73470,8 +73722,11 @@
       <c r="JX85" s="2" t="n">
         <v>107.9</v>
       </c>
-      <c r="JY85" t="n">
+      <c r="JY85" s="2" t="n">
         <v>87.7</v>
+      </c>
+      <c r="JZ85" t="n">
+        <v>94.7</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -74329,8 +74584,11 @@
       <c r="JX86" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY86" t="n">
+      <c r="JY86" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="JZ86" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -75188,7 +75446,10 @@
       <c r="JX87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="JY87" t="n">
+      <c r="JY87" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="JZ87" t="n">
         <v>7</v>
       </c>
     </row>
@@ -76047,8 +76308,11 @@
       <c r="JX88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="JY88" t="n">
+      <c r="JY88" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="JZ88" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -76906,7 +77170,10 @@
       <c r="JX89" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY89" t="n">
+      <c r="JY89" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="JZ89" t="n">
         <v>3</v>
       </c>
     </row>
@@ -77765,8 +78032,11 @@
       <c r="JX90" s="2" t="n">
         <v>141</v>
       </c>
-      <c r="JY90" t="n">
+      <c r="JY90" s="2" t="n">
         <v>127</v>
+      </c>
+      <c r="JZ90" t="n">
+        <v>106</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -78624,8 +78894,11 @@
       <c r="JX91" s="2" t="n">
         <v>183</v>
       </c>
-      <c r="JY91" t="n">
+      <c r="JY91" s="2" t="n">
         <v>230</v>
+      </c>
+      <c r="JZ91" t="n">
+        <v>199</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -79483,8 +79756,11 @@
       <c r="JX92" s="2" t="n">
         <v>243</v>
       </c>
-      <c r="JY92" t="n">
+      <c r="JY92" s="2" t="n">
         <v>278</v>
+      </c>
+      <c r="JZ92" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -80342,8 +80618,11 @@
       <c r="JX93" s="2" t="n">
         <v>71.7</v>
       </c>
-      <c r="JY93" t="n">
+      <c r="JY93" s="2" t="n">
         <v>78.3</v>
+      </c>
+      <c r="JZ93" t="n">
+        <v>72</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -81201,8 +81480,11 @@
       <c r="JX94" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="JY94" t="n">
+      <c r="JY94" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="JZ94" t="n">
+        <v>63</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -82060,8 +82342,11 @@
       <c r="JX95" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="JY95" t="n">
+      <c r="JY95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="JZ95" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -82919,8 +83204,11 @@
       <c r="JX96" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="JY96" t="n">
+      <c r="JY96" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="JZ96" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -83778,8 +84066,11 @@
       <c r="JX97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="JY97" t="n">
+      <c r="JY97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="JZ97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -84637,8 +84928,11 @@
       <c r="JX98" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="JY98" t="n">
+      <c r="JY98" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="JZ98" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -85496,8 +85790,11 @@
       <c r="JX99" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="JY99" t="n">
+      <c r="JY99" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="JZ99" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -86355,8 +86652,11 @@
       <c r="JX100" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="JY100" t="n">
+      <c r="JY100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="JZ100" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -87214,8 +87514,11 @@
       <c r="JX101" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="JY101" t="n">
+      <c r="JY101" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="JZ101" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -88073,8 +88376,11 @@
       <c r="JX102" s="2" t="n">
         <v>80</v>
       </c>
-      <c r="JY102" t="n">
+      <c r="JY102" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="JZ102" t="n">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KD102"/>
+  <dimension ref="A1:KE102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1329,8 +1329,11 @@
       <c r="KC1" s="2" t="n">
         <v>10967</v>
       </c>
-      <c r="KD1" t="n">
+      <c r="KD1" s="2" t="n">
         <v>10968</v>
+      </c>
+      <c r="KE1" t="n">
+        <v>11177</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2203,8 +2206,11 @@
       <c r="KC2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KD2" t="n">
+      <c r="KD2" s="2" t="n">
         <v>2023</v>
+      </c>
+      <c r="KE2" t="n">
+        <v>2024</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -3077,8 +3083,11 @@
       <c r="KC3" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KD3" t="n">
+      <c r="KD3" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KE3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3951,8 +3960,11 @@
       <c r="KC4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD4" t="n">
+      <c r="KD4" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KE4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5" ht="13.8" customHeight="1" s="3">
@@ -4825,7 +4837,10 @@
       <c r="KC5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD5" t="n">
+      <c r="KD5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KE5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5699,8 +5714,11 @@
       <c r="KC6" s="2" t="n">
         <v>93</v>
       </c>
-      <c r="KD6" t="n">
+      <c r="KD6" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KE6" t="n">
+        <v>114</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6573,8 +6591,11 @@
       <c r="KC7" s="2" t="n">
         <v>70</v>
       </c>
-      <c r="KD7" t="n">
+      <c r="KD7" s="2" t="n">
         <v>58</v>
+      </c>
+      <c r="KE7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7447,8 +7468,11 @@
       <c r="KC8" s="2" t="n">
         <v>23</v>
       </c>
-      <c r="KD8" t="n">
+      <c r="KD8" s="2" t="n">
         <v>-1</v>
+      </c>
+      <c r="KE8" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8321,8 +8345,11 @@
       <c r="KC9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD9" t="n">
+      <c r="KD9" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KE9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9195,7 +9222,10 @@
       <c r="KC10" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD10" t="n">
+      <c r="KD10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KE10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -10069,8 +10099,11 @@
       <c r="KC11" s="2" t="n">
         <v>232</v>
       </c>
-      <c r="KD11" t="n">
+      <c r="KD11" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="KE11" t="n">
+        <v>226</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10943,8 +10976,11 @@
       <c r="KC12" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KD12" t="n">
+      <c r="KD12" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KE12" t="n">
+        <v>161</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11817,8 +11853,11 @@
       <c r="KC13" s="2" t="n">
         <v>384</v>
       </c>
-      <c r="KD13" t="n">
+      <c r="KD13" s="2" t="n">
         <v>377</v>
+      </c>
+      <c r="KE13" t="n">
+        <v>387</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12691,8 +12730,11 @@
       <c r="KC14" s="2" t="n">
         <v>1.53</v>
       </c>
-      <c r="KD14" t="n">
+      <c r="KD14" s="2" t="n">
         <v>1.45</v>
+      </c>
+      <c r="KE14" t="n">
+        <v>1.4</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13565,8 +13607,11 @@
       <c r="KC15" s="2" t="n">
         <v>88</v>
       </c>
-      <c r="KD15" t="n">
+      <c r="KD15" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KE15" t="n">
+        <v>97</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14439,8 +14484,11 @@
       <c r="KC16" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KD16" t="n">
+      <c r="KD16" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KE16" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15313,8 +15361,11 @@
       <c r="KC17" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KD17" t="n">
+      <c r="KD17" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KE17" t="n">
+        <v>23</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16187,8 +16238,11 @@
       <c r="KC18" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KD18" t="n">
+      <c r="KD18" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KE18" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17061,8 +17115,11 @@
       <c r="KC19" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD19" t="n">
+      <c r="KD19" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KE19" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17935,8 +17992,11 @@
       <c r="KC20" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KD20" t="n">
+      <c r="KD20" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE20" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18809,8 +18869,11 @@
       <c r="KC21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KD21" t="n">
+      <c r="KD21" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE21" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19683,8 +19746,11 @@
       <c r="KC22" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD22" t="n">
+      <c r="KD22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE22" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20557,7 +20623,10 @@
       <c r="KC23" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KD23" t="n">
+      <c r="KD23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KE23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21431,8 +21500,11 @@
       <c r="KC24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KD24" t="n">
+      <c r="KD24" s="2" t="n">
         <v>17</v>
+      </c>
+      <c r="KE24" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22305,8 +22377,11 @@
       <c r="KC25" s="2" t="n">
         <v>46.4</v>
       </c>
-      <c r="KD25" t="n">
+      <c r="KD25" s="2" t="n">
         <v>47.1</v>
+      </c>
+      <c r="KE25" t="n">
+        <v>75</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23179,8 +23254,11 @@
       <c r="KC26" s="2" t="n">
         <v>29.54</v>
       </c>
-      <c r="KD26" t="n">
+      <c r="KD26" s="2" t="n">
         <v>47.12</v>
+      </c>
+      <c r="KE26" t="n">
+        <v>21.5</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24053,8 +24131,11 @@
       <c r="KC27" s="2" t="n">
         <v>13.71</v>
       </c>
-      <c r="KD27" t="n">
+      <c r="KD27" s="2" t="n">
         <v>22.18</v>
+      </c>
+      <c r="KE27" t="n">
+        <v>16.12</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -24927,8 +25008,11 @@
       <c r="KC28" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KD28" t="n">
+      <c r="KD28" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KE28" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25801,8 +25885,11 @@
       <c r="KC29" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KD29" t="n">
+      <c r="KD29" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KE29" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26675,8 +26762,11 @@
       <c r="KC30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KD30" t="n">
+      <c r="KD30" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KE30" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27549,8 +27639,11 @@
       <c r="KC31" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KD31" t="n">
+      <c r="KD31" s="2" t="n">
         <v>48</v>
+      </c>
+      <c r="KE31" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28423,8 +28516,11 @@
       <c r="KC32" s="2" t="n">
         <v>1.96</v>
       </c>
-      <c r="KD32" t="n">
+      <c r="KD32" s="2" t="n">
         <v>2.82</v>
+      </c>
+      <c r="KE32" t="n">
+        <v>2.17</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29297,8 +29393,11 @@
       <c r="KC33" s="2" t="n">
         <v>4.23</v>
       </c>
-      <c r="KD33" t="n">
+      <c r="KD33" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE33" t="n">
+        <v>2.89</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30171,8 +30270,11 @@
       <c r="KC34" s="2" t="n">
         <v>49.1</v>
       </c>
-      <c r="KD34" t="n">
+      <c r="KD34" s="2" t="n">
         <v>31.2</v>
+      </c>
+      <c r="KE34" t="n">
+        <v>42.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31045,8 +31147,11 @@
       <c r="KC35" s="2" t="n">
         <v>23.6</v>
       </c>
-      <c r="KD35" t="n">
+      <c r="KD35" s="2" t="n">
         <v>16.7</v>
+      </c>
+      <c r="KE35" t="n">
+        <v>34.6</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -31919,8 +32024,11 @@
       <c r="KC36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KD36" t="n">
+      <c r="KD36" s="2" t="n">
         <v>189.1</v>
+      </c>
+      <c r="KE36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32793,8 +32901,11 @@
       <c r="KC37" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KD37" t="n">
+      <c r="KD37" s="2" t="n">
         <v>88.59999999999999</v>
+      </c>
+      <c r="KE37" t="n">
+        <v>87.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -33667,8 +33778,11 @@
       <c r="KC38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KD38" t="n">
+      <c r="KD38" s="2" t="n">
         <v>26.16</v>
+      </c>
+      <c r="KE38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34541,8 +34655,11 @@
       <c r="KC39" s="2" t="n">
         <v>105.8</v>
       </c>
-      <c r="KD39" t="n">
+      <c r="KD39" s="2" t="n">
         <v>106.8</v>
+      </c>
+      <c r="KE39" t="n">
+        <v>99.59999999999999</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35415,8 +35532,11 @@
       <c r="KC40" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD40" t="n">
+      <c r="KD40" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE40" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36289,8 +36409,11 @@
       <c r="KC41" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD41" t="n">
+      <c r="KD41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37163,8 +37286,11 @@
       <c r="KC42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD42" t="n">
+      <c r="KD42" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE42" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38037,8 +38163,11 @@
       <c r="KC43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KD43" t="n">
+      <c r="KD43" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -38911,8 +39040,11 @@
       <c r="KC44" s="2" t="n">
         <v>144</v>
       </c>
-      <c r="KD44" t="n">
+      <c r="KD44" s="2" t="n">
         <v>154</v>
+      </c>
+      <c r="KE44" t="n">
+        <v>134</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -39785,8 +39917,11 @@
       <c r="KC45" s="2" t="n">
         <v>226</v>
       </c>
-      <c r="KD45" t="n">
+      <c r="KD45" s="2" t="n">
         <v>211</v>
+      </c>
+      <c r="KE45" t="n">
+        <v>239</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -40659,8 +40794,11 @@
       <c r="KC46" s="2" t="n">
         <v>277</v>
       </c>
-      <c r="KD46" t="n">
+      <c r="KD46" s="2" t="n">
         <v>252</v>
+      </c>
+      <c r="KE46" t="n">
+        <v>284</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41533,8 +41671,11 @@
       <c r="KC47" s="2" t="n">
         <v>72.09999999999999</v>
       </c>
-      <c r="KD47" t="n">
+      <c r="KD47" s="2" t="n">
         <v>66.8</v>
+      </c>
+      <c r="KE47" t="n">
+        <v>73.40000000000001</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42407,8 +42548,11 @@
       <c r="KC48" s="2" t="n">
         <v>50</v>
       </c>
-      <c r="KD48" t="n">
+      <c r="KD48" s="2" t="n">
         <v>64</v>
+      </c>
+      <c r="KE48" t="n">
+        <v>71</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43281,8 +43425,11 @@
       <c r="KC49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KD49" t="n">
+      <c r="KD49" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KE49" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44155,8 +44302,11 @@
       <c r="KC50" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="KD50" t="n">
+      <c r="KD50" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE50" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45029,8 +45179,11 @@
       <c r="KC51" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KD51" t="n">
+      <c r="KD51" s="2" t="n">
         <v>26</v>
+      </c>
+      <c r="KE51" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -45903,8 +46056,11 @@
       <c r="KC52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KD52" t="n">
+      <c r="KD52" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KE52" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -46777,8 +46933,11 @@
       <c r="KC53" s="2" t="n">
         <v>56</v>
       </c>
-      <c r="KD53" t="n">
+      <c r="KD53" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KE53" t="n">
+        <v>51</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -47651,8 +47810,11 @@
       <c r="KC54" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD54" t="n">
+      <c r="KD54" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE54" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -48525,8 +48687,11 @@
       <c r="KC55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KD55" t="n">
+      <c r="KD55" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE55" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -49399,8 +49564,11 @@
       <c r="KC56" s="2" t="n">
         <v>84.59999999999999</v>
       </c>
-      <c r="KD56" t="n">
+      <c r="KD56" s="2" t="n">
         <v>87.5</v>
+      </c>
+      <c r="KE56" t="n">
+        <v>88.90000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50273,8 +50441,11 @@
       <c r="KC57" s="2" t="n">
         <v>173</v>
       </c>
-      <c r="KD57" t="n">
+      <c r="KD57" s="2" t="n">
         <v>223</v>
+      </c>
+      <c r="KE57" t="n">
+        <v>205</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51147,8 +51318,11 @@
       <c r="KC58" s="2" t="n">
         <v>116</v>
       </c>
-      <c r="KD58" t="n">
+      <c r="KD58" s="2" t="n">
         <v>133</v>
+      </c>
+      <c r="KE58" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52021,8 +52195,11 @@
       <c r="KC59" s="2" t="n">
         <v>289</v>
       </c>
-      <c r="KD59" t="n">
+      <c r="KD59" s="2" t="n">
         <v>356</v>
+      </c>
+      <c r="KE59" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -52895,8 +53072,11 @@
       <c r="KC60" s="2" t="n">
         <v>1.49</v>
       </c>
-      <c r="KD60" t="n">
+      <c r="KD60" s="2" t="n">
         <v>1.68</v>
+      </c>
+      <c r="KE60" t="n">
+        <v>1.41</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -53769,8 +53949,11 @@
       <c r="KC61" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KD61" t="n">
+      <c r="KD61" s="2" t="n">
         <v>98</v>
+      </c>
+      <c r="KE61" t="n">
+        <v>81</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -54643,8 +54826,11 @@
       <c r="KC62" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KD62" t="n">
+      <c r="KD62" s="2" t="n">
         <v>68</v>
+      </c>
+      <c r="KE62" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -55517,8 +55703,11 @@
       <c r="KC63" s="2" t="n">
         <v>22</v>
       </c>
-      <c r="KD63" t="n">
+      <c r="KD63" s="2" t="n">
         <v>45</v>
+      </c>
+      <c r="KE63" t="n">
+        <v>49</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56391,8 +56580,11 @@
       <c r="KC64" s="2" t="n">
         <v>14</v>
       </c>
-      <c r="KD64" t="n">
+      <c r="KD64" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KE64" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -57265,8 +57457,11 @@
       <c r="KC65" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KD65" t="n">
+      <c r="KD65" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KE65" t="n">
+        <v>16</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58139,8 +58334,11 @@
       <c r="KC66" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KD66" t="n">
+      <c r="KD66" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE66" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59013,8 +59211,11 @@
       <c r="KC67" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD67" t="n">
+      <c r="KD67" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE67" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -59887,8 +60088,11 @@
       <c r="KC68" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KD68" t="n">
+      <c r="KD68" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KE68" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -60761,8 +60965,11 @@
       <c r="KC69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD69" t="n">
+      <c r="KD69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KE69" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -61635,8 +61842,11 @@
       <c r="KC70" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KD70" t="n">
+      <c r="KD70" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KE70" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -62509,8 +62719,11 @@
       <c r="KC71" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KD71" t="n">
+      <c r="KD71" s="2" t="n">
         <v>44.4</v>
+      </c>
+      <c r="KE71" t="n">
+        <v>40.7</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -63383,8 +63596,11 @@
       <c r="KC72" s="2" t="n">
         <v>32.11</v>
       </c>
-      <c r="KD72" t="n">
+      <c r="KD72" s="2" t="n">
         <v>44.5</v>
+      </c>
+      <c r="KE72" t="n">
+        <v>31.82</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64257,8 +64473,11 @@
       <c r="KC73" s="2" t="n">
         <v>11.56</v>
       </c>
-      <c r="KD73" t="n">
+      <c r="KD73" s="2" t="n">
         <v>19.78</v>
+      </c>
+      <c r="KE73" t="n">
+        <v>12.96</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65131,8 +65350,11 @@
       <c r="KC74" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KD74" t="n">
+      <c r="KD74" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KE74" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66005,8 +66227,11 @@
       <c r="KC75" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KD75" t="n">
+      <c r="KD75" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KE75" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -66879,8 +67104,11 @@
       <c r="KC76" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KD76" t="n">
+      <c r="KD76" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KE76" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -67753,8 +67981,11 @@
       <c r="KC77" s="2" t="n">
         <v>53</v>
       </c>
-      <c r="KD77" t="n">
+      <c r="KD77" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KE77" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -68627,8 +68858,11 @@
       <c r="KC78" s="2" t="n">
         <v>2.12</v>
       </c>
-      <c r="KD78" t="n">
+      <c r="KD78" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="KE78" t="n">
+        <v>2.22</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -69501,8 +69735,11 @@
       <c r="KC79" s="2" t="n">
         <v>5.89</v>
       </c>
-      <c r="KD79" t="n">
+      <c r="KD79" s="2" t="n">
         <v>6.5</v>
+      </c>
+      <c r="KE79" t="n">
+        <v>5.45</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -70375,8 +70612,11 @@
       <c r="KC80" s="2" t="n">
         <v>39.6</v>
       </c>
-      <c r="KD80" t="n">
+      <c r="KD80" s="2" t="n">
         <v>32.7</v>
+      </c>
+      <c r="KE80" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71249,8 +71489,11 @@
       <c r="KC81" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KD81" t="n">
+      <c r="KD81" s="2" t="n">
         <v>15.4</v>
+      </c>
+      <c r="KE81" t="n">
+        <v>18.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72123,8 +72366,11 @@
       <c r="KC82" s="2" t="n">
         <v>188.2</v>
       </c>
-      <c r="KD82" t="n">
+      <c r="KD82" s="2" t="n">
         <v>188.7</v>
+      </c>
+      <c r="KE82" t="n">
+        <v>188</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -72997,8 +73243,11 @@
       <c r="KC83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KD83" t="n">
+      <c r="KD83" s="2" t="n">
         <v>88.09999999999999</v>
+      </c>
+      <c r="KE83" t="n">
+        <v>88</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -73871,8 +74120,11 @@
       <c r="KC84" s="2" t="n">
         <v>26.24</v>
       </c>
-      <c r="KD84" t="n">
+      <c r="KD84" s="2" t="n">
         <v>27.66</v>
+      </c>
+      <c r="KE84" t="n">
+        <v>27.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -74745,8 +74997,11 @@
       <c r="KC85" s="2" t="n">
         <v>117.2</v>
       </c>
-      <c r="KD85" t="n">
+      <c r="KD85" s="2" t="n">
         <v>144.2</v>
+      </c>
+      <c r="KE85" t="n">
+        <v>133.1</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -75619,8 +75874,11 @@
       <c r="KC86" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD86" t="n">
+      <c r="KD86" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KE86" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -76493,8 +76751,11 @@
       <c r="KC87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD87" t="n">
+      <c r="KD87" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KE87" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -77367,8 +77628,11 @@
       <c r="KC88" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD88" t="n">
+      <c r="KD88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE88" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -78241,8 +78505,11 @@
       <c r="KC89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KD89" t="n">
+      <c r="KD89" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KE89" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79115,8 +79382,11 @@
       <c r="KC90" s="2" t="n">
         <v>125</v>
       </c>
-      <c r="KD90" t="n">
+      <c r="KD90" s="2" t="n">
         <v>140</v>
+      </c>
+      <c r="KE90" t="n">
+        <v>123</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -79989,8 +80259,11 @@
       <c r="KC91" s="2" t="n">
         <v>152</v>
       </c>
-      <c r="KD91" t="n">
+      <c r="KD91" s="2" t="n">
         <v>208</v>
+      </c>
+      <c r="KE91" t="n">
+        <v>219</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -80863,8 +81136,11 @@
       <c r="KC92" s="2" t="n">
         <v>196</v>
       </c>
-      <c r="KD92" t="n">
+      <c r="KD92" s="2" t="n">
         <v>249</v>
+      </c>
+      <c r="KE92" t="n">
+        <v>253</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -81737,8 +82013,11 @@
       <c r="KC93" s="2" t="n">
         <v>67.8</v>
       </c>
-      <c r="KD93" t="n">
+      <c r="KD93" s="2" t="n">
         <v>69.90000000000001</v>
+      </c>
+      <c r="KE93" t="n">
+        <v>72.3</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -82611,8 +82890,11 @@
       <c r="KC94" s="2" t="n">
         <v>63</v>
       </c>
-      <c r="KD94" t="n">
+      <c r="KD94" s="2" t="n">
         <v>61</v>
+      </c>
+      <c r="KE94" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -83485,8 +83767,11 @@
       <c r="KC95" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KD95" t="n">
+      <c r="KD95" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KE95" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -84359,8 +84644,11 @@
       <c r="KC96" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KD96" t="n">
+      <c r="KD96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KE96" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -85233,8 +85521,11 @@
       <c r="KC97" s="2" t="n">
         <v>29</v>
       </c>
-      <c r="KD97" t="n">
+      <c r="KD97" s="2" t="n">
         <v>44</v>
+      </c>
+      <c r="KE97" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86107,8 +86398,11 @@
       <c r="KC98" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KD98" t="n">
+      <c r="KD98" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KE98" t="n">
+        <v>35</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -86981,8 +87275,11 @@
       <c r="KC99" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="KD99" t="n">
+      <c r="KD99" s="2" t="n">
         <v>57</v>
+      </c>
+      <c r="KE99" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -87855,8 +88152,11 @@
       <c r="KC100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KD100" t="n">
+      <c r="KD100" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KE100" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -88729,8 +89029,11 @@
       <c r="KC101" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KD101" t="n">
+      <c r="KD101" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KE101" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -89603,8 +89906,11 @@
       <c r="KC102" s="2" t="n">
         <v>77.8</v>
       </c>
-      <c r="KD102" t="n">
+      <c r="KD102" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KE102" t="n">
+        <v>63.6</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KE102"/>
+  <dimension ref="A1:KF102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1332,8 +1332,11 @@
       <c r="KD1" s="2" t="n">
         <v>10968</v>
       </c>
-      <c r="KE1" t="n">
+      <c r="KE1" s="2" t="n">
         <v>11177</v>
+      </c>
+      <c r="KF1" t="n">
+        <v>10974</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2209,8 +2212,11 @@
       <c r="KD2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KE2" t="n">
+      <c r="KE2" s="2" t="n">
         <v>2024</v>
+      </c>
+      <c r="KF2" t="n">
+        <v>2023</v>
       </c>
     </row>
     <row r="3" ht="13.8" customHeight="1" s="3">
@@ -3086,8 +3092,11 @@
       <c r="KD3" s="2" t="n">
         <v>27</v>
       </c>
-      <c r="KE3" t="n">
+      <c r="KE3" s="2" t="n">
         <v>0</v>
+      </c>
+      <c r="KF3" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3963,7 +3972,10 @@
       <c r="KD4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KE4" t="n">
+      <c r="KE4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4840,7 +4852,10 @@
       <c r="KD5" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KE5" t="n">
+      <c r="KE5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KF5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5717,8 +5732,11 @@
       <c r="KD6" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KE6" t="n">
+      <c r="KE6" s="2" t="n">
         <v>114</v>
+      </c>
+      <c r="KF6" t="n">
+        <v>121</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6594,7 +6612,10 @@
       <c r="KD7" s="2" t="n">
         <v>58</v>
       </c>
-      <c r="KE7" t="n">
+      <c r="KE7" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="KF7" t="n">
         <v>82</v>
       </c>
     </row>
@@ -7471,8 +7492,11 @@
       <c r="KD8" s="2" t="n">
         <v>-1</v>
       </c>
-      <c r="KE8" t="n">
+      <c r="KE8" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KF8" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8348,7 +8372,10 @@
       <c r="KD9" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="KE9" t="n">
+      <c r="KE9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KF9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9225,8 +9252,11 @@
       <c r="KD10" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KE10" t="n">
+      <c r="KE10" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KF10" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10102,8 +10132,11 @@
       <c r="KD11" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="KE11" t="n">
+      <c r="KE11" s="2" t="n">
         <v>226</v>
+      </c>
+      <c r="KF11" t="n">
+        <v>229</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -10979,8 +11012,11 @@
       <c r="KD12" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KE12" t="n">
+      <c r="KE12" s="2" t="n">
         <v>161</v>
+      </c>
+      <c r="KF12" t="n">
+        <v>176</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11856,8 +11892,11 @@
       <c r="KD13" s="2" t="n">
         <v>377</v>
       </c>
-      <c r="KE13" t="n">
+      <c r="KE13" s="2" t="n">
         <v>387</v>
+      </c>
+      <c r="KF13" t="n">
+        <v>405</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12733,8 +12772,11 @@
       <c r="KD14" s="2" t="n">
         <v>1.45</v>
       </c>
-      <c r="KE14" t="n">
+      <c r="KE14" s="2" t="n">
         <v>1.4</v>
+      </c>
+      <c r="KF14" t="n">
+        <v>1.3</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13610,8 +13652,11 @@
       <c r="KD15" s="2" t="n">
         <v>89</v>
       </c>
-      <c r="KE15" t="n">
+      <c r="KE15" s="2" t="n">
         <v>97</v>
+      </c>
+      <c r="KF15" t="n">
+        <v>117</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14487,8 +14532,11 @@
       <c r="KD16" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KE16" t="n">
+      <c r="KE16" s="2" t="n">
         <v>36</v>
+      </c>
+      <c r="KF16" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15364,8 +15412,11 @@
       <c r="KD17" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KE17" t="n">
+      <c r="KE17" s="2" t="n">
         <v>23</v>
+      </c>
+      <c r="KF17" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16241,8 +16292,11 @@
       <c r="KD18" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KE18" t="n">
+      <c r="KE18" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KF18" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17118,8 +17172,11 @@
       <c r="KD19" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KE19" t="n">
+      <c r="KE19" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KF19" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -17995,8 +18052,11 @@
       <c r="KD20" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KE20" t="n">
+      <c r="KE20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KF20" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -18872,8 +18932,11 @@
       <c r="KD21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KE21" t="n">
+      <c r="KE21" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KF21" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19749,8 +19812,11 @@
       <c r="KD22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KE22" t="n">
+      <c r="KE22" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KF22" t="n">
+        <v>18</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20626,8 +20692,11 @@
       <c r="KD23" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KE23" t="n">
+      <c r="KE23" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KF23" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="24" ht="13.8" customHeight="1" s="3">
@@ -21503,8 +21572,11 @@
       <c r="KD24" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KE24" t="n">
+      <c r="KE24" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KF24" t="n">
+        <v>36</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22380,8 +22452,11 @@
       <c r="KD25" s="2" t="n">
         <v>47.1</v>
       </c>
-      <c r="KE25" t="n">
+      <c r="KE25" s="2" t="n">
         <v>75</v>
+      </c>
+      <c r="KF25" t="n">
+        <v>47.2</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23257,8 +23332,11 @@
       <c r="KD26" s="2" t="n">
         <v>47.12</v>
       </c>
-      <c r="KE26" t="n">
+      <c r="KE26" s="2" t="n">
         <v>21.5</v>
+      </c>
+      <c r="KF26" t="n">
+        <v>23.82</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24134,8 +24212,11 @@
       <c r="KD27" s="2" t="n">
         <v>22.18</v>
       </c>
-      <c r="KE27" t="n">
+      <c r="KE27" s="2" t="n">
         <v>16.12</v>
+      </c>
+      <c r="KF27" t="n">
+        <v>11.25</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25011,8 +25092,11 @@
       <c r="KD28" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KE28" t="n">
+      <c r="KE28" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KF28" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -25888,8 +25972,11 @@
       <c r="KD29" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KE29" t="n">
+      <c r="KE29" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KF29" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -26765,8 +26852,11 @@
       <c r="KD30" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KE30" t="n">
+      <c r="KE30" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KF30" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27642,8 +27732,11 @@
       <c r="KD31" s="2" t="n">
         <v>48</v>
       </c>
-      <c r="KE31" t="n">
+      <c r="KE31" s="2" t="n">
         <v>52</v>
+      </c>
+      <c r="KF31" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28519,8 +28612,11 @@
       <c r="KD32" s="2" t="n">
         <v>2.82</v>
       </c>
-      <c r="KE32" t="n">
+      <c r="KE32" s="2" t="n">
         <v>2.17</v>
+      </c>
+      <c r="KF32" t="n">
+        <v>1.67</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29396,8 +29492,11 @@
       <c r="KD33" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KE33" t="n">
+      <c r="KE33" s="2" t="n">
         <v>2.89</v>
+      </c>
+      <c r="KF33" t="n">
+        <v>3.53</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30273,8 +30372,11 @@
       <c r="KD34" s="2" t="n">
         <v>31.2</v>
       </c>
-      <c r="KE34" t="n">
+      <c r="KE34" s="2" t="n">
         <v>42.3</v>
+      </c>
+      <c r="KF34" t="n">
+        <v>58.3</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31150,8 +31252,11 @@
       <c r="KD35" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="KE35" t="n">
+      <c r="KE35" s="2" t="n">
         <v>34.6</v>
+      </c>
+      <c r="KF35" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32027,8 +32132,11 @@
       <c r="KD36" s="2" t="n">
         <v>189.1</v>
       </c>
-      <c r="KE36" t="n">
+      <c r="KE36" s="2" t="n">
         <v>188.4</v>
+      </c>
+      <c r="KF36" t="n">
+        <v>188.8</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -32904,8 +33012,11 @@
       <c r="KD37" s="2" t="n">
         <v>88.59999999999999</v>
       </c>
-      <c r="KE37" t="n">
+      <c r="KE37" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KF37" t="n">
+        <v>87.7</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -33781,8 +33892,11 @@
       <c r="KD38" s="2" t="n">
         <v>26.16</v>
       </c>
-      <c r="KE38" t="n">
+      <c r="KE38" s="2" t="n">
         <v>25.66</v>
+      </c>
+      <c r="KF38" t="n">
+        <v>25.41</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -34658,8 +34772,11 @@
       <c r="KD39" s="2" t="n">
         <v>106.8</v>
       </c>
-      <c r="KE39" t="n">
+      <c r="KE39" s="2" t="n">
         <v>99.59999999999999</v>
+      </c>
+      <c r="KF39" t="n">
+        <v>93.40000000000001</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35535,8 +35652,11 @@
       <c r="KD40" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KE40" t="n">
+      <c r="KE40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KF40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36412,8 +36532,11 @@
       <c r="KD41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KE41" t="n">
+      <c r="KE41" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KF41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37289,8 +37412,11 @@
       <c r="KD42" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KE42" t="n">
+      <c r="KE42" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KF42" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38166,8 +38292,11 @@
       <c r="KD43" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KE43" t="n">
+      <c r="KE43" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KF43" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39043,8 +39172,11 @@
       <c r="KD44" s="2" t="n">
         <v>154</v>
       </c>
-      <c r="KE44" t="n">
+      <c r="KE44" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KF44" t="n">
+        <v>145</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -39920,8 +40052,11 @@
       <c r="KD45" s="2" t="n">
         <v>211</v>
       </c>
-      <c r="KE45" t="n">
+      <c r="KE45" s="2" t="n">
         <v>239</v>
+      </c>
+      <c r="KF45" t="n">
+        <v>266</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -40797,8 +40932,11 @@
       <c r="KD46" s="2" t="n">
         <v>252</v>
       </c>
-      <c r="KE46" t="n">
+      <c r="KE46" s="2" t="n">
         <v>284</v>
+      </c>
+      <c r="KF46" t="n">
+        <v>316</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -41674,8 +41812,11 @@
       <c r="KD47" s="2" t="n">
         <v>66.8</v>
       </c>
-      <c r="KE47" t="n">
+      <c r="KE47" s="2" t="n">
         <v>73.40000000000001</v>
+      </c>
+      <c r="KF47" t="n">
+        <v>78</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42551,8 +42692,11 @@
       <c r="KD48" s="2" t="n">
         <v>64</v>
       </c>
-      <c r="KE48" t="n">
+      <c r="KE48" s="2" t="n">
         <v>71</v>
+      </c>
+      <c r="KF48" t="n">
+        <v>60</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43428,8 +43572,11 @@
       <c r="KD49" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KE49" t="n">
+      <c r="KE49" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KF49" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44305,8 +44452,11 @@
       <c r="KD50" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KE50" t="n">
+      <c r="KE50" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KF50" t="n">
+        <v>25</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45182,8 +45332,11 @@
       <c r="KD51" s="2" t="n">
         <v>26</v>
       </c>
-      <c r="KE51" t="n">
+      <c r="KE51" s="2" t="n">
         <v>39</v>
+      </c>
+      <c r="KF51" t="n">
+        <v>27</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46059,8 +46212,11 @@
       <c r="KD52" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KE52" t="n">
+      <c r="KE52" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KF52" t="n">
+        <v>33</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -46936,8 +47092,11 @@
       <c r="KD53" s="2" t="n">
         <v>55</v>
       </c>
-      <c r="KE53" t="n">
+      <c r="KE53" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KF53" t="n">
+        <v>38</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -47813,8 +47972,11 @@
       <c r="KD54" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KE54" t="n">
+      <c r="KE54" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KF54" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="55" ht="13.8" customHeight="1" s="3">
@@ -48690,8 +48852,11 @@
       <c r="KD55" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KE55" t="n">
+      <c r="KE55" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KF55" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -49567,8 +49732,11 @@
       <c r="KD56" s="2" t="n">
         <v>87.5</v>
       </c>
-      <c r="KE56" t="n">
+      <c r="KE56" s="2" t="n">
         <v>88.90000000000001</v>
+      </c>
+      <c r="KF56" t="n">
+        <v>82.40000000000001</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50444,7 +50612,10 @@
       <c r="KD57" s="2" t="n">
         <v>223</v>
       </c>
-      <c r="KE57" t="n">
+      <c r="KE57" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="KF57" t="n">
         <v>205</v>
       </c>
     </row>
@@ -51321,8 +51492,11 @@
       <c r="KD58" s="2" t="n">
         <v>133</v>
       </c>
-      <c r="KE58" t="n">
+      <c r="KE58" s="2" t="n">
         <v>145</v>
+      </c>
+      <c r="KF58" t="n">
+        <v>137</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52198,8 +52372,11 @@
       <c r="KD59" s="2" t="n">
         <v>356</v>
       </c>
-      <c r="KE59" t="n">
+      <c r="KE59" s="2" t="n">
         <v>350</v>
+      </c>
+      <c r="KF59" t="n">
+        <v>342</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53075,8 +53252,11 @@
       <c r="KD60" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="KE60" t="n">
+      <c r="KE60" s="2" t="n">
         <v>1.41</v>
+      </c>
+      <c r="KF60" t="n">
+        <v>1.5</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -53952,8 +54132,11 @@
       <c r="KD61" s="2" t="n">
         <v>98</v>
       </c>
-      <c r="KE61" t="n">
+      <c r="KE61" s="2" t="n">
         <v>81</v>
+      </c>
+      <c r="KF61" t="n">
+        <v>89</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -54829,8 +55012,11 @@
       <c r="KD62" s="2" t="n">
         <v>68</v>
       </c>
-      <c r="KE62" t="n">
+      <c r="KE62" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KF62" t="n">
+        <v>47</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -55706,8 +55892,11 @@
       <c r="KD63" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="KE63" t="n">
+      <c r="KE63" s="2" t="n">
         <v>49</v>
+      </c>
+      <c r="KF63" t="n">
+        <v>24</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -56583,8 +56772,11 @@
       <c r="KD64" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KE64" t="n">
+      <c r="KE64" s="2" t="n">
         <v>20</v>
+      </c>
+      <c r="KF64" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -57460,8 +57652,11 @@
       <c r="KD65" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KE65" t="n">
+      <c r="KE65" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KF65" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58337,8 +58532,11 @@
       <c r="KD66" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KE66" t="n">
+      <c r="KE66" s="2" t="n">
         <v>11</v>
+      </c>
+      <c r="KF66" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59214,8 +59412,11 @@
       <c r="KD67" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KE67" t="n">
+      <c r="KE67" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KF67" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60091,8 +60292,11 @@
       <c r="KD68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KE68" t="n">
+      <c r="KE68" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KF68" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -60968,8 +61172,11 @@
       <c r="KD69" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KE69" t="n">
+      <c r="KE69" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KF69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70" ht="13.8" customHeight="1" s="3">
@@ -61845,8 +62052,11 @@
       <c r="KD70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KE70" t="n">
+      <c r="KE70" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KF70" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -62722,8 +62932,11 @@
       <c r="KD71" s="2" t="n">
         <v>44.4</v>
       </c>
-      <c r="KE71" t="n">
+      <c r="KE71" s="2" t="n">
         <v>40.7</v>
+      </c>
+      <c r="KF71" t="n">
+        <v>76.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -63599,8 +63812,11 @@
       <c r="KD72" s="2" t="n">
         <v>44.5</v>
       </c>
-      <c r="KE72" t="n">
+      <c r="KE72" s="2" t="n">
         <v>31.82</v>
+      </c>
+      <c r="KF72" t="n">
+        <v>26.31</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -64476,8 +64692,11 @@
       <c r="KD73" s="2" t="n">
         <v>19.78</v>
       </c>
-      <c r="KE73" t="n">
+      <c r="KE73" s="2" t="n">
         <v>12.96</v>
+      </c>
+      <c r="KF73" t="n">
+        <v>20.12</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -65353,8 +65572,11 @@
       <c r="KD74" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KE74" t="n">
+      <c r="KE74" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KF74" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66230,8 +66452,11 @@
       <c r="KD75" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KE75" t="n">
+      <c r="KE75" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KF75" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67107,8 +67332,11 @@
       <c r="KD76" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KE76" t="n">
+      <c r="KE76" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KF76" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -67984,8 +68212,11 @@
       <c r="KD77" s="2" t="n">
         <v>52</v>
       </c>
-      <c r="KE77" t="n">
+      <c r="KE77" s="2" t="n">
         <v>60</v>
+      </c>
+      <c r="KF77" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -68861,8 +69092,11 @@
       <c r="KD78" s="2" t="n">
         <v>2.89</v>
       </c>
-      <c r="KE78" t="n">
+      <c r="KE78" s="2" t="n">
         <v>2.22</v>
+      </c>
+      <c r="KF78" t="n">
+        <v>2.71</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -69738,8 +69972,11 @@
       <c r="KD79" s="2" t="n">
         <v>6.5</v>
       </c>
-      <c r="KE79" t="n">
+      <c r="KE79" s="2" t="n">
         <v>5.45</v>
+      </c>
+      <c r="KF79" t="n">
+        <v>3.54</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -70615,8 +70852,11 @@
       <c r="KD80" s="2" t="n">
         <v>32.7</v>
       </c>
-      <c r="KE80" t="n">
+      <c r="KE80" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KF80" t="n">
+        <v>37</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -71492,8 +71732,11 @@
       <c r="KD81" s="2" t="n">
         <v>15.4</v>
       </c>
-      <c r="KE81" t="n">
+      <c r="KE81" s="2" t="n">
         <v>18.3</v>
+      </c>
+      <c r="KF81" t="n">
+        <v>28.3</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -72369,8 +72612,11 @@
       <c r="KD82" s="2" t="n">
         <v>188.7</v>
       </c>
-      <c r="KE82" t="n">
+      <c r="KE82" s="2" t="n">
         <v>188</v>
+      </c>
+      <c r="KF82" t="n">
+        <v>188.3</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73246,8 +73492,11 @@
       <c r="KD83" s="2" t="n">
         <v>88.09999999999999</v>
       </c>
-      <c r="KE83" t="n">
+      <c r="KE83" s="2" t="n">
         <v>88</v>
+      </c>
+      <c r="KF83" t="n">
+        <v>85.2</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74123,8 +74372,11 @@
       <c r="KD84" s="2" t="n">
         <v>27.66</v>
       </c>
-      <c r="KE84" t="n">
+      <c r="KE84" s="2" t="n">
         <v>27.91</v>
+      </c>
+      <c r="KF84" t="n">
+        <v>23.91</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75000,8 +75252,11 @@
       <c r="KD85" s="2" t="n">
         <v>144.2</v>
       </c>
-      <c r="KE85" t="n">
+      <c r="KE85" s="2" t="n">
         <v>133.1</v>
+      </c>
+      <c r="KF85" t="n">
+        <v>61.6</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -75877,8 +76132,11 @@
       <c r="KD86" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KE86" t="n">
+      <c r="KE86" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KF86" t="n">
+        <v>14</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -76754,8 +77012,11 @@
       <c r="KD87" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KE87" t="n">
+      <c r="KE87" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KF87" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -77631,8 +77892,11 @@
       <c r="KD88" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KE88" t="n">
+      <c r="KE88" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KF88" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -78508,8 +78772,11 @@
       <c r="KD89" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KE89" t="n">
+      <c r="KE89" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KF89" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -79385,8 +79652,11 @@
       <c r="KD90" s="2" t="n">
         <v>140</v>
       </c>
-      <c r="KE90" t="n">
+      <c r="KE90" s="2" t="n">
         <v>123</v>
+      </c>
+      <c r="KF90" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -80262,8 +80532,11 @@
       <c r="KD91" s="2" t="n">
         <v>208</v>
       </c>
-      <c r="KE91" t="n">
+      <c r="KE91" s="2" t="n">
         <v>219</v>
+      </c>
+      <c r="KF91" t="n">
+        <v>209</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81139,8 +81412,11 @@
       <c r="KD92" s="2" t="n">
         <v>249</v>
       </c>
-      <c r="KE92" t="n">
+      <c r="KE92" s="2" t="n">
         <v>253</v>
+      </c>
+      <c r="KF92" t="n">
+        <v>275</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82016,8 +82292,11 @@
       <c r="KD93" s="2" t="n">
         <v>69.90000000000001</v>
       </c>
-      <c r="KE93" t="n">
+      <c r="KE93" s="2" t="n">
         <v>72.3</v>
+      </c>
+      <c r="KF93" t="n">
+        <v>80.40000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -82893,8 +83172,11 @@
       <c r="KD94" s="2" t="n">
         <v>61</v>
       </c>
-      <c r="KE94" t="n">
+      <c r="KE94" s="2" t="n">
         <v>62</v>
+      </c>
+      <c r="KF94" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -83770,8 +84052,11 @@
       <c r="KD95" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KE95" t="n">
+      <c r="KE95" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KF95" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -84647,7 +84932,10 @@
       <c r="KD96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KE96" t="n">
+      <c r="KE96" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KF96" t="n">
         <v>9</v>
       </c>
     </row>
@@ -85524,8 +85812,11 @@
       <c r="KD97" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KE97" t="n">
+      <c r="KE97" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KF97" t="n">
+        <v>32</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -86401,8 +86692,11 @@
       <c r="KD98" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KE98" t="n">
+      <c r="KE98" s="2" t="n">
         <v>35</v>
+      </c>
+      <c r="KF98" t="n">
+        <v>43</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -87278,8 +87572,11 @@
       <c r="KD99" s="2" t="n">
         <v>57</v>
       </c>
-      <c r="KE99" t="n">
+      <c r="KE99" s="2" t="n">
         <v>38</v>
+      </c>
+      <c r="KF99" t="n">
+        <v>44</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -88155,8 +88452,11 @@
       <c r="KD100" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KE100" t="n">
+      <c r="KE100" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KF100" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89032,8 +89332,11 @@
       <c r="KD101" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="KE101" t="n">
+      <c r="KE101" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KF101" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -89909,8 +90212,11 @@
       <c r="KD102" s="2" t="n">
         <v>75</v>
       </c>
-      <c r="KE102" t="n">
+      <c r="KE102" s="2" t="n">
         <v>63.6</v>
+      </c>
+      <c r="KF102" t="n">
+        <v>84.59999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/AFL_ML/Data/GWS_stats.xlsx
+++ b/AFL_ML/Data/GWS_stats.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:KH102"/>
+  <dimension ref="A1:KM102"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="JD87" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="JJ92" activeCellId="0" sqref="JJ92"/>
@@ -1341,8 +1341,23 @@
       <c r="KG1" s="2" t="n">
         <v>10987</v>
       </c>
-      <c r="KH1" t="n">
+      <c r="KH1" s="2" t="n">
         <v>11002</v>
+      </c>
+      <c r="KI1" s="2" t="n">
+        <v>11007</v>
+      </c>
+      <c r="KJ1" s="2" t="n">
+        <v>11016</v>
+      </c>
+      <c r="KK1" s="2" t="n">
+        <v>11023</v>
+      </c>
+      <c r="KL1" s="2" t="n">
+        <v>11032</v>
+      </c>
+      <c r="KM1" t="n">
+        <v>11043</v>
       </c>
     </row>
     <row r="2" ht="13.8" customHeight="1" s="3">
@@ -2227,7 +2242,22 @@
       <c r="KG2" s="2" t="n">
         <v>2023</v>
       </c>
-      <c r="KH2" t="n">
+      <c r="KH2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KI2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KJ2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KK2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KL2" s="2" t="n">
+        <v>2023</v>
+      </c>
+      <c r="KM2" t="n">
         <v>2023</v>
       </c>
     </row>
@@ -3113,8 +3143,23 @@
       <c r="KG3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KH3" t="n">
+      <c r="KH3" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI3" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ3" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK3" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL3" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4" ht="13.8" customHeight="1" s="3">
@@ -3999,7 +4044,22 @@
       <c r="KG4" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH4" t="n">
+      <c r="KH4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KK4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KM4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,8 +4945,23 @@
       <c r="KG5" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH5" t="n">
+      <c r="KH5" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KJ5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KL5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6" ht="13.8" customHeight="1" s="3">
@@ -5771,8 +5846,23 @@
       <c r="KG6" s="2" t="n">
         <v>108</v>
       </c>
-      <c r="KH6" t="n">
+      <c r="KH6" s="2" t="n">
         <v>117</v>
+      </c>
+      <c r="KI6" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KJ6" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="KK6" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="KL6" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="KM6" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="7" ht="13.8" customHeight="1" s="3">
@@ -6657,8 +6747,23 @@
       <c r="KG7" s="2" t="n">
         <v>43</v>
       </c>
-      <c r="KH7" t="n">
+      <c r="KH7" s="2" t="n">
         <v>89</v>
+      </c>
+      <c r="KI7" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="KJ7" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KK7" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KL7" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="KM7" t="n">
+        <v>82</v>
       </c>
     </row>
     <row r="8" ht="13.8" customHeight="1" s="3">
@@ -7543,8 +7648,23 @@
       <c r="KG8" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KH8" t="n">
+      <c r="KH8" s="2" t="n">
         <v>28</v>
+      </c>
+      <c r="KI8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ8" s="2" t="n">
+        <v>-19</v>
+      </c>
+      <c r="KK8" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KL8" s="2" t="n">
+        <v>-29</v>
+      </c>
+      <c r="KM8" t="n">
+        <v>-20</v>
       </c>
     </row>
     <row r="9" ht="13.8" customHeight="1" s="3">
@@ -8429,8 +8549,23 @@
       <c r="KG9" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="KH9" t="n">
+      <c r="KH9" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="KI9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KJ9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KK9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="KM9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10" ht="13.8" customHeight="1" s="3">
@@ -9315,8 +9450,23 @@
       <c r="KG10" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KH10" t="n">
+      <c r="KH10" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ10" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KK10" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL10" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KM10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11" ht="13.8" customHeight="1" s="3">
@@ -10201,8 +10351,23 @@
       <c r="KG11" s="2" t="n">
         <v>221</v>
       </c>
-      <c r="KH11" t="n">
+      <c r="KH11" s="2" t="n">
         <v>206</v>
+      </c>
+      <c r="KI11" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="KJ11" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KK11" s="2" t="n">
+        <v>237</v>
+      </c>
+      <c r="KL11" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="KM11" t="n">
+        <v>186</v>
       </c>
     </row>
     <row r="12" ht="13.8" customHeight="1" s="3">
@@ -11087,8 +11252,23 @@
       <c r="KG12" s="2" t="n">
         <v>191</v>
       </c>
-      <c r="KH12" t="n">
+      <c r="KH12" s="2" t="n">
         <v>151</v>
+      </c>
+      <c r="KI12" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="KJ12" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="KK12" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="KL12" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="KM12" t="n">
+        <v>164</v>
       </c>
     </row>
     <row r="13" ht="13.8" customHeight="1" s="3">
@@ -11973,8 +12153,23 @@
       <c r="KG13" s="2" t="n">
         <v>412</v>
       </c>
-      <c r="KH13" t="n">
+      <c r="KH13" s="2" t="n">
         <v>357</v>
+      </c>
+      <c r="KI13" s="2" t="n">
+        <v>383</v>
+      </c>
+      <c r="KJ13" s="2" t="n">
+        <v>350</v>
+      </c>
+      <c r="KK13" s="2" t="n">
+        <v>388</v>
+      </c>
+      <c r="KL13" s="2" t="n">
+        <v>341</v>
+      </c>
+      <c r="KM13" t="n">
+        <v>350</v>
       </c>
     </row>
     <row r="14" ht="13.8" customHeight="1" s="3">
@@ -12859,8 +13054,23 @@
       <c r="KG14" s="2" t="n">
         <v>1.16</v>
       </c>
-      <c r="KH14" t="n">
+      <c r="KH14" s="2" t="n">
         <v>1.36</v>
+      </c>
+      <c r="KI14" s="2" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="KJ14" s="2" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="KK14" s="2" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="KL14" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="KM14" t="n">
+        <v>1.13</v>
       </c>
     </row>
     <row r="15" ht="13.8" customHeight="1" s="3">
@@ -13745,8 +13955,23 @@
       <c r="KG15" s="2" t="n">
         <v>92</v>
       </c>
-      <c r="KH15" t="n">
+      <c r="KH15" s="2" t="n">
         <v>83</v>
+      </c>
+      <c r="KI15" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="KJ15" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KK15" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="KL15" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KM15" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="16" ht="13.8" customHeight="1" s="3">
@@ -14631,8 +14856,23 @@
       <c r="KG16" s="2" t="n">
         <v>84</v>
       </c>
-      <c r="KH16" t="n">
+      <c r="KH16" s="2" t="n">
         <v>47</v>
+      </c>
+      <c r="KI16" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="KJ16" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KK16" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="KL16" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="KM16" t="n">
+        <v>69</v>
       </c>
     </row>
     <row r="17" ht="13.8" customHeight="1" s="3">
@@ -15517,8 +15757,23 @@
       <c r="KG17" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KH17" t="n">
+      <c r="KH17" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI17" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="KJ17" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KK17" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KL17" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KM17" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="18" ht="13.8" customHeight="1" s="3">
@@ -16403,8 +16658,23 @@
       <c r="KG18" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KH18" t="n">
+      <c r="KH18" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KI18" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ18" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KK18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KL18" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KM18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19" ht="13.8" customHeight="1" s="3">
@@ -17289,8 +17559,23 @@
       <c r="KG19" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KH19" t="n">
+      <c r="KH19" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI19" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KJ19" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KK19" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KL19" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="KM19" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="20" ht="13.8" customHeight="1" s="3">
@@ -18175,8 +18460,23 @@
       <c r="KG20" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KH20" t="n">
+      <c r="KH20" s="2" t="n">
         <v>18</v>
+      </c>
+      <c r="KI20" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KJ20" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KK20" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KL20" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM20" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="21" ht="13.8" customHeight="1" s="3">
@@ -19061,8 +19361,23 @@
       <c r="KG21" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH21" t="n">
+      <c r="KH21" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI21" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ21" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK21" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL21" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM21" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="22" ht="13.8" customHeight="1" s="3">
@@ -19947,8 +20262,23 @@
       <c r="KG22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH22" t="n">
+      <c r="KH22" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI22" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KJ22" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL22" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM22" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="23" ht="13.8" customHeight="1" s="3">
@@ -20833,7 +21163,22 @@
       <c r="KG23" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH23" t="n">
+      <c r="KH23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KI23" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KJ23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK23" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL23" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM23" t="n">
         <v>2</v>
       </c>
     </row>
@@ -21719,8 +22064,23 @@
       <c r="KG24" s="2" t="n">
         <v>28</v>
       </c>
-      <c r="KH24" t="n">
+      <c r="KH24" s="2" t="n">
         <v>27</v>
+      </c>
+      <c r="KI24" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="KJ24" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="KK24" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KL24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KM24" t="n">
+        <v>17</v>
       </c>
     </row>
     <row r="25" ht="13.8" customHeight="1" s="3">
@@ -22605,8 +22965,23 @@
       <c r="KG25" s="2" t="n">
         <v>57.1</v>
       </c>
-      <c r="KH25" t="n">
+      <c r="KH25" s="2" t="n">
         <v>66.7</v>
+      </c>
+      <c r="KI25" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ25" s="2" t="n">
+        <v>65.2</v>
+      </c>
+      <c r="KK25" s="2" t="n">
+        <v>60.7</v>
+      </c>
+      <c r="KL25" s="2" t="n">
+        <v>52.6</v>
+      </c>
+      <c r="KM25" t="n">
+        <v>52.9</v>
       </c>
     </row>
     <row r="26" ht="13.8" customHeight="1" s="3">
@@ -23491,8 +23866,23 @@
       <c r="KG26" s="2" t="n">
         <v>25.75</v>
       </c>
-      <c r="KH26" t="n">
+      <c r="KH26" s="2" t="n">
         <v>19.83</v>
+      </c>
+      <c r="KI26" s="2" t="n">
+        <v>34.82</v>
+      </c>
+      <c r="KJ26" s="2" t="n">
+        <v>23.33</v>
+      </c>
+      <c r="KK26" s="2" t="n">
+        <v>22.82</v>
+      </c>
+      <c r="KL26" s="2" t="n">
+        <v>34.1</v>
+      </c>
+      <c r="KM26" t="n">
+        <v>38.89</v>
       </c>
     </row>
     <row r="27" ht="13.8" customHeight="1" s="3">
@@ -24377,8 +24767,23 @@
       <c r="KG27" s="2" t="n">
         <v>14.71</v>
       </c>
-      <c r="KH27" t="n">
+      <c r="KH27" s="2" t="n">
         <v>13.22</v>
+      </c>
+      <c r="KI27" s="2" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="KJ27" s="2" t="n">
+        <v>15.22</v>
+      </c>
+      <c r="KK27" s="2" t="n">
+        <v>13.86</v>
+      </c>
+      <c r="KL27" s="2" t="n">
+        <v>17.95</v>
+      </c>
+      <c r="KM27" t="n">
+        <v>20.59</v>
       </c>
     </row>
     <row r="28" ht="13.8" customHeight="1" s="3">
@@ -25263,8 +25668,23 @@
       <c r="KG28" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KH28" t="n">
+      <c r="KH28" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KJ28" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KK28" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KL28" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KM28" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="29" ht="13.8" customHeight="1" s="3">
@@ -26149,8 +26569,23 @@
       <c r="KG29" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH29" t="n">
+      <c r="KH29" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KI29" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ29" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KK29" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KL29" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="KM29" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="30" ht="13.8" customHeight="1" s="3">
@@ -27035,8 +27470,23 @@
       <c r="KG30" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KH30" t="n">
+      <c r="KH30" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KI30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ30" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK30" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL30" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KM30" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="31" ht="13.8" customHeight="1" s="3">
@@ -27921,8 +28371,23 @@
       <c r="KG31" s="2" t="n">
         <v>67</v>
       </c>
-      <c r="KH31" t="n">
+      <c r="KH31" s="2" t="n">
         <v>69</v>
+      </c>
+      <c r="KI31" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KJ31" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KK31" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KL31" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KM31" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="32" ht="13.8" customHeight="1" s="3">
@@ -28807,8 +29272,23 @@
       <c r="KG32" s="2" t="n">
         <v>2.39</v>
       </c>
-      <c r="KH32" t="n">
+      <c r="KH32" s="2" t="n">
         <v>2.56</v>
+      </c>
+      <c r="KI32" s="2" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="KJ32" s="2" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="KK32" s="2" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="KL32" s="2" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="KM32" t="n">
+        <v>2.35</v>
       </c>
     </row>
     <row r="33" ht="13.8" customHeight="1" s="3">
@@ -29693,8 +30173,23 @@
       <c r="KG33" s="2" t="n">
         <v>4.19</v>
       </c>
-      <c r="KH33" t="n">
+      <c r="KH33" s="2" t="n">
         <v>3.83</v>
+      </c>
+      <c r="KI33" s="2" t="n">
+        <v>4.36</v>
+      </c>
+      <c r="KJ33" s="2" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="KK33" s="2" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="KL33" s="2" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="KM33" t="n">
+        <v>4.44</v>
       </c>
     </row>
     <row r="34" ht="13.8" customHeight="1" s="3">
@@ -30579,8 +31074,23 @@
       <c r="KG34" s="2" t="n">
         <v>34.3</v>
       </c>
-      <c r="KH34" t="n">
+      <c r="KH34" s="2" t="n">
         <v>36.2</v>
+      </c>
+      <c r="KI34" s="2" t="n">
+        <v>45.8</v>
+      </c>
+      <c r="KJ34" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="KK34" s="2" t="n">
+        <v>45.3</v>
+      </c>
+      <c r="KL34" s="2" t="n">
+        <v>40.5</v>
+      </c>
+      <c r="KM34" t="n">
+        <v>37.5</v>
       </c>
     </row>
     <row r="35" ht="13.8" customHeight="1" s="3">
@@ -31465,8 +31975,23 @@
       <c r="KG35" s="2" t="n">
         <v>23.9</v>
       </c>
-      <c r="KH35" t="n">
+      <c r="KH35" s="2" t="n">
         <v>26.1</v>
+      </c>
+      <c r="KI35" s="2" t="n">
+        <v>22.9</v>
+      </c>
+      <c r="KJ35" s="2" t="n">
+        <v>29.4</v>
+      </c>
+      <c r="KK35" s="2" t="n">
+        <v>32.1</v>
+      </c>
+      <c r="KL35" s="2" t="n">
+        <v>23.8</v>
+      </c>
+      <c r="KM35" t="n">
+        <v>22.5</v>
       </c>
     </row>
     <row r="36" ht="13.8" customHeight="1" s="3">
@@ -32351,8 +32876,23 @@
       <c r="KG36" s="2" t="n">
         <v>188.5</v>
       </c>
-      <c r="KH36" t="n">
+      <c r="KH36" s="2" t="n">
         <v>188.5</v>
+      </c>
+      <c r="KI36" s="2" t="n">
+        <v>188.5</v>
+      </c>
+      <c r="KJ36" s="2" t="n">
+        <v>188.6</v>
+      </c>
+      <c r="KK36" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KL36" s="2" t="n">
+        <v>188.2</v>
+      </c>
+      <c r="KM36" t="n">
+        <v>188.4</v>
       </c>
     </row>
     <row r="37" ht="13.8" customHeight="1" s="3">
@@ -33237,8 +33777,23 @@
       <c r="KG37" s="2" t="n">
         <v>87.3</v>
       </c>
-      <c r="KH37" t="n">
+      <c r="KH37" s="2" t="n">
         <v>87.3</v>
+      </c>
+      <c r="KI37" s="2" t="n">
+        <v>87.3</v>
+      </c>
+      <c r="KJ37" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="KK37" s="2" t="n">
+        <v>86.09999999999999</v>
+      </c>
+      <c r="KL37" s="2" t="n">
+        <v>86.2</v>
+      </c>
+      <c r="KM37" t="n">
+        <v>86.59999999999999</v>
       </c>
     </row>
     <row r="38" ht="13.8" customHeight="1" s="3">
@@ -34123,8 +34678,23 @@
       <c r="KG38" s="2" t="n">
         <v>25.8</v>
       </c>
-      <c r="KH38" t="n">
+      <c r="KH38" s="2" t="n">
         <v>25.8</v>
+      </c>
+      <c r="KI38" s="2" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="KJ38" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="KK38" s="2" t="n">
+        <v>24.74</v>
+      </c>
+      <c r="KL38" s="2" t="n">
+        <v>25.16</v>
+      </c>
+      <c r="KM38" t="n">
+        <v>25.66</v>
       </c>
     </row>
     <row r="39" ht="13.8" customHeight="1" s="3">
@@ -35009,8 +35579,23 @@
       <c r="KG39" s="2" t="n">
         <v>86.59999999999999</v>
       </c>
-      <c r="KH39" t="n">
+      <c r="KH39" s="2" t="n">
         <v>87.59999999999999</v>
+      </c>
+      <c r="KI39" s="2" t="n">
+        <v>88.59999999999999</v>
+      </c>
+      <c r="KJ39" s="2" t="n">
+        <v>89.40000000000001</v>
+      </c>
+      <c r="KK39" s="2" t="n">
+        <v>80.8</v>
+      </c>
+      <c r="KL39" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="KM39" t="n">
+        <v>108.3</v>
       </c>
     </row>
     <row r="40" ht="13.8" customHeight="1" s="3">
@@ -35895,8 +36480,23 @@
       <c r="KG40" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH40" t="n">
+      <c r="KH40" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="KI40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK40" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KL40" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM40" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="41" ht="13.8" customHeight="1" s="3">
@@ -36781,8 +37381,23 @@
       <c r="KG41" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="KH41" t="n">
+      <c r="KH41" s="2" t="n">
         <v>7</v>
+      </c>
+      <c r="KI41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ41" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KM41" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="42" ht="13.8" customHeight="1" s="3">
@@ -37667,8 +38282,23 @@
       <c r="KG42" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="KH42" t="n">
+      <c r="KH42" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM42" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="43" ht="13.8" customHeight="1" s="3">
@@ -38553,8 +39183,23 @@
       <c r="KG43" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH43" t="n">
+      <c r="KH43" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="KI43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK43" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KL43" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM43" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="44" ht="13.8" customHeight="1" s="3">
@@ -39439,8 +40084,23 @@
       <c r="KG44" s="2" t="n">
         <v>148</v>
       </c>
-      <c r="KH44" t="n">
+      <c r="KH44" s="2" t="n">
         <v>135</v>
+      </c>
+      <c r="KI44" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="KJ44" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="KK44" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="KL44" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="KM44" t="n">
+        <v>136</v>
       </c>
     </row>
     <row r="45" ht="13.8" customHeight="1" s="3">
@@ -40325,8 +40985,23 @@
       <c r="KG45" s="2" t="n">
         <v>248</v>
       </c>
-      <c r="KH45" t="n">
+      <c r="KH45" s="2" t="n">
         <v>225</v>
+      </c>
+      <c r="KI45" s="2" t="n">
+        <v>259</v>
+      </c>
+      <c r="KJ45" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KK45" s="2" t="n">
+        <v>248</v>
+      </c>
+      <c r="KL45" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="KM45" t="n">
+        <v>211</v>
       </c>
     </row>
     <row r="46" ht="13.8" customHeight="1" s="3">
@@ -41211,8 +41886,23 @@
       <c r="KG46" s="2" t="n">
         <v>292</v>
       </c>
-      <c r="KH46" t="n">
+      <c r="KH46" s="2" t="n">
         <v>264</v>
+      </c>
+      <c r="KI46" s="2" t="n">
+        <v>290</v>
+      </c>
+      <c r="KJ46" s="2" t="n">
+        <v>264</v>
+      </c>
+      <c r="KK46" s="2" t="n">
+        <v>294</v>
+      </c>
+      <c r="KL46" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KM46" t="n">
+        <v>244</v>
       </c>
     </row>
     <row r="47" ht="13.8" customHeight="1" s="3">
@@ -42097,8 +42787,23 @@
       <c r="KG47" s="2" t="n">
         <v>70.90000000000001</v>
       </c>
-      <c r="KH47" t="n">
+      <c r="KH47" s="2" t="n">
         <v>73.90000000000001</v>
+      </c>
+      <c r="KI47" s="2" t="n">
+        <v>75.7</v>
+      </c>
+      <c r="KJ47" s="2" t="n">
+        <v>75.40000000000001</v>
+      </c>
+      <c r="KK47" s="2" t="n">
+        <v>75.8</v>
+      </c>
+      <c r="KL47" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KM47" t="n">
+        <v>69.7</v>
       </c>
     </row>
     <row r="48" ht="13.8" customHeight="1" s="3">
@@ -42983,8 +43688,23 @@
       <c r="KG48" s="2" t="n">
         <v>51</v>
       </c>
-      <c r="KH48" t="n">
+      <c r="KH48" s="2" t="n">
         <v>66</v>
+      </c>
+      <c r="KI48" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="KJ48" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KK48" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KL48" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="KM48" t="n">
+        <v>52</v>
       </c>
     </row>
     <row r="49" ht="13.8" customHeight="1" s="3">
@@ -43869,8 +44589,23 @@
       <c r="KG49" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH49" t="n">
+      <c r="KH49" s="2" t="n">
         <v>12</v>
+      </c>
+      <c r="KI49" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ49" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL49" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM49" t="n">
+        <v>11</v>
       </c>
     </row>
     <row r="50" ht="13.8" customHeight="1" s="3">
@@ -44755,8 +45490,23 @@
       <c r="KG50" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="KH50" t="n">
+      <c r="KH50" s="2" t="n">
         <v>14</v>
+      </c>
+      <c r="KI50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KJ50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK50" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="KL50" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KM50" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="51" ht="13.8" customHeight="1" s="3">
@@ -45641,8 +46391,23 @@
       <c r="KG51" s="2" t="n">
         <v>40</v>
       </c>
-      <c r="KH51" t="n">
+      <c r="KH51" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KJ51" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KK51" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="KL51" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="KM51" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="52" ht="13.8" customHeight="1" s="3">
@@ -46527,8 +47292,23 @@
       <c r="KG52" s="2" t="n">
         <v>39</v>
       </c>
-      <c r="KH52" t="n">
+      <c r="KH52" s="2" t="n">
         <v>40</v>
+      </c>
+      <c r="KI52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KJ52" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="KK52" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL52" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KM52" t="n">
+        <v>45</v>
       </c>
     </row>
     <row r="53" ht="13.8" customHeight="1" s="3">
@@ -47413,8 +48193,23 @@
       <c r="KG53" s="2" t="n">
         <v>38</v>
       </c>
-      <c r="KH53" t="n">
+      <c r="KH53" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KI53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="KJ53" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="KK53" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="KL53" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KM53" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="54" ht="13.8" customHeight="1" s="3">
@@ -48299,7 +49094,22 @@
       <c r="KG54" s="2" t="n">
         <v>17</v>
       </c>
-      <c r="KH54" t="n">
+      <c r="KH54" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KI54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KK54" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KL54" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM54" t="n">
         <v>5</v>
       </c>
     </row>
@@ -49185,8 +49995,23 @@
       <c r="KG55" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="KH55" t="n">
+      <c r="KH55" s="2" t="n">
         <v>15</v>
+      </c>
+      <c r="KI55" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ55" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KK55" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KL55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM55" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="56" ht="13.8" customHeight="1" s="3">
@@ -50071,8 +50896,23 @@
       <c r="KG56" s="2" t="n">
         <v>68.8</v>
       </c>
-      <c r="KH56" t="n">
+      <c r="KH56" s="2" t="n">
         <v>83.3</v>
+      </c>
+      <c r="KI56" s="2" t="n">
+        <v>63.6</v>
+      </c>
+      <c r="KJ56" s="2" t="n">
+        <v>66.7</v>
+      </c>
+      <c r="KK56" s="2" t="n">
+        <v>76.5</v>
+      </c>
+      <c r="KL56" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="KM56" t="n">
+        <v>44.4</v>
       </c>
     </row>
     <row r="57" ht="13.8" customHeight="1" s="3">
@@ -50957,8 +51797,23 @@
       <c r="KG57" s="2" t="n">
         <v>178</v>
       </c>
-      <c r="KH57" t="n">
+      <c r="KH57" s="2" t="n">
         <v>218</v>
+      </c>
+      <c r="KI57" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="KJ57" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="KK57" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="KL57" s="2" t="n">
+        <v>217</v>
+      </c>
+      <c r="KM57" t="n">
+        <v>221</v>
       </c>
     </row>
     <row r="58" ht="13.8" customHeight="1" s="3">
@@ -51843,8 +52698,23 @@
       <c r="KG58" s="2" t="n">
         <v>182</v>
       </c>
-      <c r="KH58" t="n">
+      <c r="KH58" s="2" t="n">
         <v>134</v>
+      </c>
+      <c r="KI58" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="KJ58" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="KK58" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KL58" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="KM58" t="n">
+        <v>156</v>
       </c>
     </row>
     <row r="59" ht="13.8" customHeight="1" s="3">
@@ -52729,8 +53599,23 @@
       <c r="KG59" s="2" t="n">
         <v>360</v>
       </c>
-      <c r="KH59" t="n">
+      <c r="KH59" s="2" t="n">
         <v>352</v>
+      </c>
+      <c r="KI59" s="2" t="n">
+        <v>356</v>
+      </c>
+      <c r="KJ59" s="2" t="n">
+        <v>381</v>
+      </c>
+      <c r="KK59" s="2" t="n">
+        <v>301</v>
+      </c>
+      <c r="KL59" s="2" t="n">
+        <v>348</v>
+      </c>
+      <c r="KM59" t="n">
+        <v>377</v>
       </c>
     </row>
     <row r="60" ht="13.8" customHeight="1" s="3">
@@ -53615,8 +54500,23 @@
       <c r="KG60" s="2" t="n">
         <v>0.98</v>
       </c>
-      <c r="KH60" t="n">
+      <c r="KH60" s="2" t="n">
         <v>1.63</v>
+      </c>
+      <c r="KI60" s="2" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="KJ60" s="2" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="KK60" s="2" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="KL60" s="2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="KM60" t="n">
+        <v>1.42</v>
       </c>
     </row>
     <row r="61" ht="13.8" customHeight="1" s="3">
@@ -54501,8 +55401,23 @@
       <c r="KG61" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KH61" t="n">
+      <c r="KH61" s="2" t="n">
         <v>92</v>
+      </c>
+      <c r="KI61" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="KJ61" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="KK61" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="KL61" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="KM61" t="n">
+        <v>113</v>
       </c>
     </row>
     <row r="62" ht="13.8" customHeight="1" s="3">
@@ -55387,8 +56302,23 @@
       <c r="KG62" s="2" t="n">
         <v>65</v>
       </c>
-      <c r="KH62" t="n">
+      <c r="KH62" s="2" t="n">
         <v>37</v>
+      </c>
+      <c r="KI62" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KJ62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KK62" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KL62" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="KM62" t="n">
+        <v>62</v>
       </c>
     </row>
     <row r="63" ht="13.8" customHeight="1" s="3">
@@ -56273,8 +57203,23 @@
       <c r="KG63" s="2" t="n">
         <v>24</v>
       </c>
-      <c r="KH63" t="n">
+      <c r="KH63" s="2" t="n">
         <v>42</v>
+      </c>
+      <c r="KI63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KJ63" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK63" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="KL63" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="KM63" t="n">
+        <v>55</v>
       </c>
     </row>
     <row r="64" ht="13.8" customHeight="1" s="3">
@@ -57159,8 +58104,23 @@
       <c r="KG64" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="KH64" t="n">
+      <c r="KH64" s="2" t="n">
         <v>16</v>
+      </c>
+      <c r="KI64" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="KJ64" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KK64" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="KL64" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KM64" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="65" ht="13.8" customHeight="1" s="3">
@@ -58045,8 +59005,23 @@
       <c r="KG65" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="KH65" t="n">
+      <c r="KH65" s="2" t="n">
         <v>19</v>
+      </c>
+      <c r="KI65" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KJ65" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KK65" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="KL65" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KM65" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="66" ht="13.8" customHeight="1" s="3">
@@ -58931,8 +59906,23 @@
       <c r="KG66" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH66" t="n">
+      <c r="KH66" s="2" t="n">
         <v>13</v>
+      </c>
+      <c r="KI66" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KJ66" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KK66" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL66" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KM66" t="n">
+        <v>12</v>
       </c>
     </row>
     <row r="67" ht="13.8" customHeight="1" s="3">
@@ -59817,8 +60807,23 @@
       <c r="KG67" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH67" t="n">
+      <c r="KH67" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ67" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KK67" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL67" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM67" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="68" ht="13.8" customHeight="1" s="3">
@@ -60703,8 +61708,23 @@
       <c r="KG68" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="KH68" t="n">
+      <c r="KH68" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI68" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ68" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="KK68" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KL68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="KM68" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="69" ht="13.8" customHeight="1" s="3">
@@ -61589,7 +62609,22 @@
       <c r="KG69" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH69" t="n">
+      <c r="KH69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KI69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KJ69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL69" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="KM69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -62475,8 +63510,23 @@
       <c r="KG70" s="2" t="n">
         <v>18</v>
       </c>
-      <c r="KH70" t="n">
+      <c r="KH70" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KI70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KJ70" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KK70" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="KL70" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="KM70" t="n">
+        <v>22</v>
       </c>
     </row>
     <row r="71" ht="13.8" customHeight="1" s="3">
@@ -63361,8 +64411,23 @@
       <c r="KG71" s="2" t="n">
         <v>27.8</v>
       </c>
-      <c r="KH71" t="n">
+      <c r="KH71" s="2" t="n">
         <v>54.2</v>
+      </c>
+      <c r="KI71" s="2" t="n">
+        <v>63.2</v>
+      </c>
+      <c r="KJ71" s="2" t="n">
+        <v>53.1</v>
+      </c>
+      <c r="KK71" s="2" t="n">
+        <v>42.1</v>
+      </c>
+      <c r="KL71" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="KM71" t="n">
+        <v>54.5</v>
       </c>
     </row>
     <row r="72" ht="13.8" customHeight="1" s="3">
@@ -64247,8 +65312,23 @@
       <c r="KG72" s="2" t="n">
         <v>72</v>
       </c>
-      <c r="KH72" t="n">
+      <c r="KH72" s="2" t="n">
         <v>27.08</v>
+      </c>
+      <c r="KI72" s="2" t="n">
+        <v>29.67</v>
+      </c>
+      <c r="KJ72" s="2" t="n">
+        <v>22.41</v>
+      </c>
+      <c r="KK72" s="2" t="n">
+        <v>37.62</v>
+      </c>
+      <c r="KL72" s="2" t="n">
+        <v>24.86</v>
+      </c>
+      <c r="KM72" t="n">
+        <v>31.42</v>
       </c>
     </row>
     <row r="73" ht="13.8" customHeight="1" s="3">
@@ -65133,8 +66213,23 @@
       <c r="KG73" s="2" t="n">
         <v>20</v>
       </c>
-      <c r="KH73" t="n">
+      <c r="KH73" s="2" t="n">
         <v>14.67</v>
+      </c>
+      <c r="KI73" s="2" t="n">
+        <v>18.74</v>
+      </c>
+      <c r="KJ73" s="2" t="n">
+        <v>11.91</v>
+      </c>
+      <c r="KK73" s="2" t="n">
+        <v>15.84</v>
+      </c>
+      <c r="KL73" s="2" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="KM73" t="n">
+        <v>17.14</v>
       </c>
     </row>
     <row r="74" ht="13.8" customHeight="1" s="3">
@@ -66019,8 +67114,23 @@
       <c r="KG74" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KH74" t="n">
+      <c r="KH74" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KI74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KJ74" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK74" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KL74" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KM74" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="75" ht="13.8" customHeight="1" s="3">
@@ -66905,8 +68015,23 @@
       <c r="KG75" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KH75" t="n">
+      <c r="KH75" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KI75" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KJ75" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK75" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KL75" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KM75" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="76" ht="13.8" customHeight="1" s="3">
@@ -67791,8 +68916,23 @@
       <c r="KG76" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KH76" t="n">
+      <c r="KH76" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KI76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KJ76" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KK76" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KL76" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KM76" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="77" ht="13.8" customHeight="1" s="3">
@@ -68677,8 +69817,23 @@
       <c r="KG77" s="2" t="n">
         <v>44</v>
       </c>
-      <c r="KH77" t="n">
+      <c r="KH77" s="2" t="n">
         <v>55</v>
+      </c>
+      <c r="KI77" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="KJ77" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="KK77" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KL77" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="KM77" t="n">
+        <v>57</v>
       </c>
     </row>
     <row r="78" ht="13.8" customHeight="1" s="3">
@@ -69563,8 +70718,23 @@
       <c r="KG78" s="2" t="n">
         <v>2.44</v>
       </c>
-      <c r="KH78" t="n">
+      <c r="KH78" s="2" t="n">
         <v>2.29</v>
+      </c>
+      <c r="KI78" s="2" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="KJ78" s="2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="KK78" s="2" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="KL78" s="2" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="KM78" t="n">
+        <v>2.59</v>
       </c>
     </row>
     <row r="79" ht="13.8" customHeight="1" s="3">
@@ -70449,8 +71619,23 @@
       <c r="KG79" s="2" t="n">
         <v>8.800000000000001</v>
       </c>
-      <c r="KH79" t="n">
+      <c r="KH79" s="2" t="n">
         <v>4.23</v>
+      </c>
+      <c r="KI79" s="2" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="KJ79" s="2" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="KK79" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL79" s="2" t="n">
+        <v>4.79</v>
+      </c>
+      <c r="KM79" t="n">
+        <v>4.75</v>
       </c>
     </row>
     <row r="80" ht="13.8" customHeight="1" s="3">
@@ -71335,8 +72520,23 @@
       <c r="KG80" s="2" t="n">
         <v>31.8</v>
       </c>
-      <c r="KH80" t="n">
+      <c r="KH80" s="2" t="n">
         <v>41.8</v>
+      </c>
+      <c r="KI80" s="2" t="n">
+        <v>32.7</v>
+      </c>
+      <c r="KJ80" s="2" t="n">
+        <v>55.6</v>
+      </c>
+      <c r="KK80" s="2" t="n">
+        <v>35.4</v>
+      </c>
+      <c r="KL80" s="2" t="n">
+        <v>37.3</v>
+      </c>
+      <c r="KM80" t="n">
+        <v>36.8</v>
       </c>
     </row>
     <row r="81" ht="13.8" customHeight="1" s="3">
@@ -72221,8 +73421,23 @@
       <c r="KG81" s="2" t="n">
         <v>11.4</v>
       </c>
-      <c r="KH81" t="n">
+      <c r="KH81" s="2" t="n">
         <v>23.6</v>
+      </c>
+      <c r="KI81" s="2" t="n">
+        <v>23.1</v>
+      </c>
+      <c r="KJ81" s="2" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="KK81" s="2" t="n">
+        <v>16.7</v>
+      </c>
+      <c r="KL81" s="2" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="KM81" t="n">
+        <v>21.1</v>
       </c>
     </row>
     <row r="82" ht="13.8" customHeight="1" s="3">
@@ -73107,8 +74322,23 @@
       <c r="KG82" s="2" t="n">
         <v>190</v>
       </c>
-      <c r="KH82" t="n">
+      <c r="KH82" s="2" t="n">
         <v>190</v>
+      </c>
+      <c r="KI82" s="2" t="n">
+        <v>188.4</v>
+      </c>
+      <c r="KJ82" s="2" t="n">
+        <v>189.2</v>
+      </c>
+      <c r="KK82" s="2" t="n">
+        <v>188.3</v>
+      </c>
+      <c r="KL82" s="2" t="n">
+        <v>187.3</v>
+      </c>
+      <c r="KM82" t="n">
+        <v>188.6</v>
       </c>
     </row>
     <row r="83" ht="13.8" customHeight="1" s="3">
@@ -73993,8 +75223,23 @@
       <c r="KG83" s="2" t="n">
         <v>87.7</v>
       </c>
-      <c r="KH83" t="n">
+      <c r="KH83" s="2" t="n">
         <v>83.8</v>
+      </c>
+      <c r="KI83" s="2" t="n">
+        <v>86.8</v>
+      </c>
+      <c r="KJ83" s="2" t="n">
+        <v>88.2</v>
+      </c>
+      <c r="KK83" s="2" t="n">
+        <v>86.5</v>
+      </c>
+      <c r="KL83" s="2" t="n">
+        <v>87.09999999999999</v>
+      </c>
+      <c r="KM83" t="n">
+        <v>87.3</v>
       </c>
     </row>
     <row r="84" ht="13.8" customHeight="1" s="3">
@@ -74879,8 +76124,23 @@
       <c r="KG84" s="2" t="n">
         <v>25</v>
       </c>
-      <c r="KH84" t="n">
+      <c r="KH84" s="2" t="n">
         <v>24</v>
+      </c>
+      <c r="KI84" s="2" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="KJ84" s="2" t="n">
+        <v>25.58</v>
+      </c>
+      <c r="KK84" s="2" t="n">
+        <v>26.8</v>
+      </c>
+      <c r="KL84" s="2" t="n">
+        <v>26.16</v>
+      </c>
+      <c r="KM84" t="n">
+        <v>26.33</v>
       </c>
     </row>
     <row r="85" ht="13.8" customHeight="1" s="3">
@@ -75765,8 +77025,23 @@
       <c r="KG85" s="2" t="n">
         <v>85.59999999999999</v>
       </c>
-      <c r="KH85" t="n">
+      <c r="KH85" s="2" t="n">
         <v>74.59999999999999</v>
+      </c>
+      <c r="KI85" s="2" t="n">
+        <v>93.2</v>
+      </c>
+      <c r="KJ85" s="2" t="n">
+        <v>83.2</v>
+      </c>
+      <c r="KK85" s="2" t="n">
+        <v>125.8</v>
+      </c>
+      <c r="KL85" s="2" t="n">
+        <v>118.7</v>
+      </c>
+      <c r="KM85" t="n">
+        <v>118.3</v>
       </c>
     </row>
     <row r="86" ht="13.8" customHeight="1" s="3">
@@ -76651,8 +77926,23 @@
       <c r="KG86" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="KH86" t="n">
+      <c r="KH86" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI86" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KJ86" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK86" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KL86" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KM86" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="87" ht="13.8" customHeight="1" s="3">
@@ -77537,8 +78827,23 @@
       <c r="KG87" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH87" t="n">
+      <c r="KH87" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI87" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KJ87" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KK87" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KL87" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM87" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="88" ht="13.8" customHeight="1" s="3">
@@ -78423,8 +79728,23 @@
       <c r="KG88" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH88" t="n">
+      <c r="KH88" s="2" t="n">
         <v>4</v>
+      </c>
+      <c r="KI88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ88" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KK88" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KL88" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KM88" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="89" ht="13.8" customHeight="1" s="3">
@@ -79309,8 +80629,23 @@
       <c r="KG89" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="KH89" t="n">
+      <c r="KH89" s="2" t="n">
         <v>3</v>
+      </c>
+      <c r="KI89" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KJ89" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="KK89" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KL89" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KM89" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="90" ht="13.8" customHeight="1" s="3">
@@ -80195,8 +81530,23 @@
       <c r="KG90" s="2" t="n">
         <v>138</v>
       </c>
-      <c r="KH90" t="n">
+      <c r="KH90" s="2" t="n">
         <v>126</v>
+      </c>
+      <c r="KI90" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="KJ90" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="KK90" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="KL90" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="KM90" t="n">
+        <v>129</v>
       </c>
     </row>
     <row r="91" ht="13.8" customHeight="1" s="3">
@@ -81081,8 +82431,23 @@
       <c r="KG91" s="2" t="n">
         <v>219</v>
       </c>
-      <c r="KH91" t="n">
+      <c r="KH91" s="2" t="n">
         <v>216</v>
+      </c>
+      <c r="KI91" s="2" t="n">
+        <v>213</v>
+      </c>
+      <c r="KJ91" s="2" t="n">
+        <v>231</v>
+      </c>
+      <c r="KK91" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="KL91" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="KM91" t="n">
+        <v>234</v>
       </c>
     </row>
     <row r="92" ht="13.8" customHeight="1" s="3">
@@ -81967,8 +83332,23 @@
       <c r="KG92" s="2" t="n">
         <v>242</v>
       </c>
-      <c r="KH92" t="n">
+      <c r="KH92" s="2" t="n">
         <v>254</v>
+      </c>
+      <c r="KI92" s="2" t="n">
+        <v>258</v>
+      </c>
+      <c r="KJ92" s="2" t="n">
+        <v>285</v>
+      </c>
+      <c r="KK92" s="2" t="n">
+        <v>210</v>
+      </c>
+      <c r="KL92" s="2" t="n">
+        <v>226</v>
+      </c>
+      <c r="KM92" t="n">
+        <v>271</v>
       </c>
     </row>
     <row r="93" ht="13.8" customHeight="1" s="3">
@@ -82853,8 +84233,23 @@
       <c r="KG93" s="2" t="n">
         <v>67.2</v>
       </c>
-      <c r="KH93" t="n">
+      <c r="KH93" s="2" t="n">
         <v>72.2</v>
+      </c>
+      <c r="KI93" s="2" t="n">
+        <v>72.5</v>
+      </c>
+      <c r="KJ93" s="2" t="n">
+        <v>74.8</v>
+      </c>
+      <c r="KK93" s="2" t="n">
+        <v>69.8</v>
+      </c>
+      <c r="KL93" s="2" t="n">
+        <v>64.90000000000001</v>
+      </c>
+      <c r="KM93" t="n">
+        <v>71.90000000000001</v>
       </c>
     </row>
     <row r="94" ht="13.8" customHeight="1" s="3">
@@ -83739,8 +85134,23 @@
       <c r="KG94" s="2" t="n">
         <v>46</v>
       </c>
-      <c r="KH94" t="n">
+      <c r="KH94" s="2" t="n">
         <v>59</v>
+      </c>
+      <c r="KI94" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KJ94" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK94" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="KL94" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="KM94" t="n">
+        <v>46</v>
       </c>
     </row>
     <row r="95" ht="13.8" customHeight="1" s="3">
@@ -84625,8 +86035,23 @@
       <c r="KG95" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="KH95" t="n">
+      <c r="KH95" s="2" t="n">
         <v>6</v>
+      </c>
+      <c r="KI95" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ95" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KK95" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="KL95" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="KM95" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="96" ht="13.8" customHeight="1" s="3">
@@ -85511,8 +86936,23 @@
       <c r="KG96" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="KH96" t="n">
+      <c r="KH96" s="2" t="n">
         <v>8</v>
+      </c>
+      <c r="KI96" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="KJ96" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="KK96" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL96" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="KM96" t="n">
+        <v>15</v>
       </c>
     </row>
     <row r="97" ht="13.8" customHeight="1" s="3">
@@ -86397,8 +87837,23 @@
       <c r="KG97" s="2" t="n">
         <v>36</v>
       </c>
-      <c r="KH97" t="n">
+      <c r="KH97" s="2" t="n">
         <v>32</v>
+      </c>
+      <c r="KI97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KJ97" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="KK97" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KL97" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="KM97" t="n">
+        <v>39</v>
       </c>
     </row>
     <row r="98" ht="13.8" customHeight="1" s="3">
@@ -87283,8 +88738,23 @@
       <c r="KG98" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KH98" t="n">
+      <c r="KH98" s="2" t="n">
         <v>51</v>
+      </c>
+      <c r="KI98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KJ98" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="KK98" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KL98" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="KM98" t="n">
+        <v>30</v>
       </c>
     </row>
     <row r="99" ht="13.8" customHeight="1" s="3">
@@ -88169,8 +89639,23 @@
       <c r="KG99" s="2" t="n">
         <v>49</v>
       </c>
-      <c r="KH99" t="n">
+      <c r="KH99" s="2" t="n">
         <v>41</v>
+      </c>
+      <c r="KI99" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="KJ99" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="KK99" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="KL99" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="KM99" t="n">
+        <v>31</v>
       </c>
     </row>
     <row r="100" ht="13.8" customHeight="1" s="3">
@@ -89055,8 +90540,23 @@
       <c r="KG100" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="KH100" t="n">
+      <c r="KH100" s="2" t="n">
         <v>2</v>
+      </c>
+      <c r="KI100" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KJ100" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="KK100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="KL100" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="KM100" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="101" ht="13.8" customHeight="1" s="3">
@@ -89941,8 +91441,23 @@
       <c r="KG101" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="KH101" t="n">
+      <c r="KH101" s="2" t="n">
         <v>10</v>
+      </c>
+      <c r="KI101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KJ101" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="KK101" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="KL101" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="KM101" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="102" ht="13.8" customHeight="1" s="3">
@@ -90827,8 +92342,23 @@
       <c r="KG102" s="2" t="n">
         <v>60</v>
       </c>
-      <c r="KH102" t="n">
+      <c r="KH102" s="2" t="n">
         <v>76.90000000000001</v>
+      </c>
+      <c r="KI102" s="2" t="n">
+        <v>58.3</v>
+      </c>
+      <c r="KJ102" s="2" t="n">
+        <v>70.59999999999999</v>
+      </c>
+      <c r="KK102" s="2" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="KL102" s="2" t="n">
+        <v>42.9</v>
+      </c>
+      <c r="KM102" t="n">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
